--- a/Batch/16/Curriculum/Day_4_Stats.xlsx
+++ b/Batch/16/Curriculum/Day_4_Stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28422"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\Batch\15\Curriculum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\Batch\16\Curriculum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBFB8A3-05FD-48D1-AFCC-6A87C679F7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82489059-34EE-44CE-86A9-B0EE80ECD77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Average" sheetId="1" r:id="rId1"/>
@@ -5150,9 +5150,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2867025" cy="1466850"/>
     <xdr:pic>
@@ -5173,6 +5173,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7179469" y="291703"/>
+          <a:ext cx="2867025" cy="1466850"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -5181,1306 +5185,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>354082</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>27382</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>397724</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>96829</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="3" name="Ink 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1BF934-58C8-1F3D-10E5-60113A69AE0D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="4997520" y="1813320"/>
-            <a:ext cx="38880" cy="248040"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="Ink 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1BF934-58C8-1F3D-10E5-60113A69AE0D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4991400" y="1807200"/>
-              <a:ext cx="51120" cy="260280"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>290002</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>71235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>467204</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>87123</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="4" name="Ink 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7CF2D5-916E-7851-0153-709F59A0418C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="4933440" y="2214360"/>
-            <a:ext cx="172440" cy="189720"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="4" name="Ink 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7CF2D5-916E-7851-0153-709F59A0418C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4927320" y="2208240"/>
-              <a:ext cx="184680" cy="201960"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>255524</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>69007</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>506084</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133409</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="9" name="Ink 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C826F8-3E29-F88A-685A-85A40B9D1CD8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="4898962" y="2569320"/>
-            <a:ext cx="245798" cy="1131202"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="9" name="Ink 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C826F8-3E29-F88A-685A-85A40B9D1CD8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4892844" y="2563198"/>
-              <a:ext cx="258034" cy="1143447"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>356291</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>370691</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>45431</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="10" name="Ink 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88955D98-7C05-9567-3078-A030334F8E1B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="5630760" y="1801440"/>
-            <a:ext cx="14400" cy="203760"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="10" name="Ink 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88955D98-7C05-9567-3078-A030334F8E1B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5624640" y="1795320"/>
-              <a:ext cx="26640" cy="216000"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>307331</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>465093</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>159795</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="11" name="Ink 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748AB798-17DD-0514-2673-2D6AA290FC0C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="5581800" y="2168280"/>
-            <a:ext cx="153000" cy="134640"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="11" name="Ink 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748AB798-17DD-0514-2673-2D6AA290FC0C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5575680" y="2162160"/>
-              <a:ext cx="165240" cy="146880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247571</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>56849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161744</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>30449</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="19" name="Ink 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9940A7C2-E70A-1824-A67A-05B60E323412}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="5522040" y="2557162"/>
-            <a:ext cx="540442" cy="1040400"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="19" name="Ink 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9940A7C2-E70A-1824-A67A-05B60E323412}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5515915" y="2551042"/>
-              <a:ext cx="552692" cy="1052640"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>484500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>113130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>334511</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>131898</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="29" name="Ink 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E84F84-2F09-0D53-04E5-6ACD8F1C2DE8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6390000" y="1541880"/>
-            <a:ext cx="481042" cy="197362"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="29" name="Ink 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E84F84-2F09-0D53-04E5-6ACD8F1C2DE8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6383819" y="1535609"/>
-              <a:ext cx="493404" cy="209905"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>255933</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>131572</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>531415</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114896</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="30" name="Ink 29">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F4FB89-F127-66BC-D648-1EE74F9539E9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="5530402" y="1560322"/>
-            <a:ext cx="270720" cy="161918"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="30" name="Ink 29">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F4FB89-F127-66BC-D648-1EE74F9539E9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5524282" y="1554377"/>
-              <a:ext cx="282960" cy="173808"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>55789</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>16312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>84229</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19519</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="31" name="Ink 30">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4852E6F-930C-D142-2B5D-7AFDDCBD4C6E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6592320" y="3231000"/>
-            <a:ext cx="28440" cy="181800"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="31" name="Ink 30">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4852E6F-930C-D142-2B5D-7AFDDCBD4C6E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6586200" y="3224880"/>
-              <a:ext cx="40680" cy="194040"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19069</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314433</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47748</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="35" name="Ink 34">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66AA9E3-8F3C-3C5F-8D99-5C88BD621C3E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6555600" y="2861002"/>
-            <a:ext cx="290602" cy="222840"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="35" name="Ink 34">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66AA9E3-8F3C-3C5F-8D99-5C88BD621C3E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6549478" y="2854882"/>
-              <a:ext cx="302845" cy="235080"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>591060</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>153056</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>181593</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>36431</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="40" name="Ink 39">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65C5CA3-97E4-4BB6-2CA9-4574F44E1BD2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6496560" y="1760400"/>
-            <a:ext cx="216802" cy="240562"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="40" name="Ink 39">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65C5CA3-97E4-4BB6-2CA9-4574F44E1BD2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6490438" y="1754269"/>
-              <a:ext cx="229047" cy="252825"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>532380</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>162431</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>36349</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>115169</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="41" name="Ink 40">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB938A95-C76B-FB49-CC4C-7D60EB35AC40}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6437880" y="2126962"/>
-            <a:ext cx="135000" cy="488520"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="41" name="Ink 40">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB938A95-C76B-FB49-CC4C-7D60EB35AC40}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6431760" y="2120783"/>
-              <a:ext cx="147240" cy="500878"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>401208</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>37218</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>115417</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9464</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="47" name="Ink 46">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6DF1E40-71F8-D149-8E45-B681690B72B9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8199802" y="1644562"/>
-            <a:ext cx="345240" cy="150840"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="47" name="Ink 46">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6DF1E40-71F8-D149-8E45-B681690B72B9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8193682" y="1638442"/>
-              <a:ext cx="357480" cy="163080"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>467366</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>144824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>627255</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38965</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="55" name="Ink 54">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6026CED5-B746-5B7E-354A-3AF4A147458B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8265960" y="1930762"/>
-            <a:ext cx="790920" cy="425160"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="55" name="Ink 54">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6026CED5-B746-5B7E-354A-3AF4A147458B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8259843" y="1924642"/>
-              <a:ext cx="803154" cy="437400"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>559968</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>131696</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>389066</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>49270</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="65" name="Ink 64">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED15687-CA31-FA47-EF1D-53A4E1B5E386}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8358562" y="2810602"/>
-            <a:ext cx="1091160" cy="270000"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="65" name="Ink 64">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED15687-CA31-FA47-EF1D-53A4E1B5E386}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8352418" y="2804482"/>
-              <a:ext cx="1103449" cy="282240"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>563928</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161283</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>427259</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1016</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="66" name="Ink 65">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A40271F-7EF6-6FE8-D866-039A91A6976C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8362522" y="2483002"/>
-            <a:ext cx="489600" cy="196920"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="66" name="Ink 65">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A40271F-7EF6-6FE8-D866-039A91A6976C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8356402" y="2476882"/>
-              <a:ext cx="501840" cy="209160"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247766</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28035</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>486528</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>45506</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="67" name="Ink 66">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F257C4B1-E2CF-DA63-D54D-4C861AF71FF8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8046360" y="2171160"/>
-            <a:ext cx="234000" cy="910440"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="67" name="Ink 66">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F257C4B1-E2CF-DA63-D54D-4C861AF71FF8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8040240" y="2165040"/>
-              <a:ext cx="246240" cy="922680"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>428797</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133563</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>589177</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>67664</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="70" name="Ink 69">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC958AB-5FAD-13EF-83C6-C4CD35B83560}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="7596360" y="2455282"/>
-            <a:ext cx="1422442" cy="465120"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="70" name="Ink 69">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC958AB-5FAD-13EF-83C6-C4CD35B83560}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7590240" y="2449157"/>
-              <a:ext cx="1434683" cy="477369"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171223</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7459</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>325025</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>173793</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="74" name="Ink 73">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679E8BC0-4246-2F4B-454E-384EBC916799}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="2927520" y="543240"/>
-            <a:ext cx="153802" cy="523522"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="74" name="Ink 73">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679E8BC0-4246-2F4B-454E-384EBC916799}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2921397" y="537064"/>
-              <a:ext cx="166049" cy="535874"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>156823</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>60772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>219905</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>7819</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="75" name="Ink 74">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1341C21-0DCB-1C9C-63EE-2C52E9D342B3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="2913120" y="417960"/>
-            <a:ext cx="58320" cy="125640"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="75" name="Ink 74">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1341C21-0DCB-1C9C-63EE-2C52E9D342B3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2907000" y="411840"/>
-              <a:ext cx="70560" cy="137880"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6509,7 +5213,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">130 185 6275,'0'0'6021,"-5"-3"-5327,0 0-362,4 2-185,0 0 1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1-1,1-1 1,-1 1 0,1-1 0,-1 1 0,0 0 0,1-1-1,-1 1 1,-1 0 0,2 0 170,0 0-177,-2 0-74,2 0-86,1 41-1000,1-5 1061,-7 140-84,-11-96 15,17-79 267,0-31-258,-3-14-411,-2-1 0,-2 2 0,-13-47 0,7 49 344,9 28 53,0 0 1,1 0-1,0 0 1,-2-21-1,5 33 80,10 22-1037,27 22 1078,61 53 1,-56-57-75,-42-39-33,1 1 0,0 0 0,0-1-1,-1 1 1,1-1 0,0 1 0,0 0-1,0-1 1,-1 0 0,1 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,-1 1-1,1-1 1,0 0 0,0 1 0,-1-1-1,1 0 1,0 1 0,-1-1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,1-2 0,17-52 50,-17 49-69,7-21-35,-2-1 1,-1-1 0,3-53-1,-8 81 443,0 44-720,0 162 709,0-205-366,0 1 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,1 0 1,-1 0-1,0 0 1,0-1-1,1 1 1,-1 0 0,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,-1 0 1,1-1-1,0 1 1,16-7-147,13-27 120,-16 9 112,-1 1 0,-1-1 1,15-45-1,0-2 88,-27 70-161,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 1,0-1-1,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 1,1-1-1,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 1,1-1-1,-1 1 0,1 0 0,-1-1 0,0 1 1,1 0-1,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 1,2 0-1,5 12-56,2 27 164,-9-36-12,6 60 862,-3 111 1,-3-104-795,2-66-371</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1281.87">111 223 4114,'0'0'7801,"0"-14"-5683,13 262-916,-3-64 2292,-10-543-4143,1 353 636,0 1-1,0-1 0,1 0 1,0 1-1,0-1 1,1 1-1,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 1-1,1 0 1,1-1-1,-1 1 0,0 1 1,1-1-1,9-5 0,-12 8-1,0 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 0,0 1 1,1 0-1,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 0 1,-1 1-1,1-1 0,-1 1 1,1-1-1,1 4 1,4 3 33,0 0 1,-1 0 0,0 0-1,7 16 1,1 4 53,-6-14-11,0 0 0,-1 1 0,-1 0 0,0 0 0,-1 0 0,-1 1 0,4 29 0,-6-39 257,1-12 21,2-13-17,3-50-406,3 1-1,24-82 1,-29 131 40,5-21 45,-11 39-19,1 5-105,1 0 67,-1-1 1,1 1-1,-1 0 0,0 0 1,0-1-1,-1 1 0,1 0 1,-1 0-1,0 0 0,0 0 0,-1 4 1,2 4 40,68 549 1258,-68-547-1520,2 7 386,11-15-6547,-9-6 1009</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1281.85">111 223 4114,'0'0'7801,"0"-14"-5683,13 262-916,-3-64 2292,-10-543-4143,1 353 636,0 1-1,0-1 0,1 0 1,0 1-1,0-1 1,1 1-1,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 1-1,1 0 1,1-1-1,-1 1 0,0 1 1,1-1-1,9-5 0,-12 8-1,0 1-1,1-1 1,-1 1-1,0-1 1,0 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1-1,0 0 0,0 1 1,1 0-1,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 0 1,-1 1-1,1-1 0,-1 1 1,1-1-1,1 4 1,4 3 33,0 0 1,-1 0 0,0 0-1,7 16 1,1 4 53,-6-14-11,0 0 0,-1 1 0,-1 0 0,0 0 0,-1 0 0,-1 1 0,4 29 0,-6-39 257,1-12 21,2-13-17,3-50-406,3 1-1,24-82 1,-29 131 40,5-21 45,-11 39-19,1 5-105,1 0 67,-1-1 1,1 1-1,-1 0 0,0 0 1,0-1-1,-1 1 0,1 0 1,-1 0-1,0 0 0,0 0 0,-1 4 1,2 4 40,68 549 1258,-68-547-1520,2 7 386,11-15-6547,-9-6 1009</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2287">611 493 5539,'0'0'6997,"18"-9"-5796,60-30-323,-70 35-725,-1 0 1,0 0 0,-1-1-1,1 0 1,-1 0-1,0-1 1,0 0 0,7-8-1,-10 10-69,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,0 0 1,0-1-1,0 1 1,0-1-1,0-6 0,-2 10-60,1 0 0,0 1 0,0-1-1,0 1 1,0-1 0,-1 1-1,1-1 1,0 1 0,-1 0-1,1-1 1,0 1 0,-1-1 0,1 1-1,0 0 1,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,1 0-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1-1 0,-1 1 0,1 0-1,-1 0 1,1 0 0,-1 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,0 0 0,-24 9 212,18-3-228,0 1 0,0 0 0,1 0 0,0 0 0,0 1-1,0 0 1,1 0 0,1 1 0,0-1 0,0 1 0,0 0 0,1 0 0,0 1 0,1-1 0,0 0 0,1 1-1,-1 0 1,2-1 0,0 1 0,0 0 0,2 11 0,-2-20-36,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,3 1 0,35 0-1101,-29-1 774,2-1 55,0 0-1,0-1 1,-1 0-1,1-1 0,-1-1 1,1 1-1,-1-2 0,0 1 1,13-9-1,-2 0-384,0-1 0,-1-1 0,23-22 0,-42 35 704,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 1-1,0-5 1,-2 7 70,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,1 0 1,0 1-1,-1-1 1,1 0-1,-1 0 0,0 0 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1-1,0 1 0,0-1 1,0 1-1,0-1 1,-2 0 95,1 0 1,-1 0-1,1 1 0,-1-1 1,1 1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,1 0 0,-1 1 1,-3 0-1,3 0-106,-1 1 0,1 0-1,0 0 1,-1 0 0,1 0-1,0 1 1,0-1 0,1 1-1,-1 0 1,1-1-1,-1 1 1,1 0 0,0 1-1,0-1 1,-3 6 0,-23 55 558,27-61-627,-1 1 0,1 0 0,0-1 0,1 1-1,-1 0 1,1 0 0,-1 0 0,1-1 0,0 1-1,2 7 1,-2-10-22,0 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1-1 0,-1 1-1,1 0 1,0 0 0,0 0 0,-1 0-1,1-1 1,0 1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,1-1 0,-1 1-1,0 0 1,1-2 0,8-1 30,-2-1-1,1-1 1,0 1 0,-1-1 0,0-1 0,0 1-1,-1-1 1,1-1 0,-1 1 0,-1-1 0,1-1-1,7-10 1,4-7-43,-1-1-1,21-43 1,-30 53 52,-2 0 1,0-1 0,-1 0 0,0 0-1,-2-1 1,0 1 0,-1-1-1,0 1 1,-2-1 0,0 0 0,-1 0-1,-1 1 1,-4-22 0,6 37-12,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-3-2 0,3 12 53,-3 35 78,3 60 1,2-49-56,0-40-60,0-1 0,1 0 0,0 0 0,1 0 0,1 0 0,0 0 0,9 19 0,-9-26-29,-1 1 1,1-1-1,1 1 1,-1-1-1,1 0 1,0-1-1,1 1 1,-1-1-1,1 0 1,1-1-1,-1 1 0,1-1 1,0 0-1,8 4 1,-12-8-10,0 0 0,0 1-1,0-1 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,3-2 0,-2 1 14,0-1 0,0 0 0,-1 0-1,0 0 1,1-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,3-8 0,0-4 19,0 0 0,-1-1 0,-1 1 0,-1-1 0,0 0 0,1-20 0,-3 21-17,0 9-8,0 0 0,0-1-1,-1 1 1,0 0 0,0 0-1,-1 0 1,1 0 0,-2 0 0,1 0-1,-4-9 1,5 15 3,0 1 0,-1-1 0,1 1 1,0 0-1,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 1,-1 1-1,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 1,1-1-1,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 1,-1-1-1,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 1,-1 1-1,1-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 1,1 0-1,-8 29 58,5-16-26,-2 13 16,1 1 0,1-1 0,1 1 0,2-1 0,3 30 0,-3-54-86,-1-1 1,0 0-1,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 1,0-1-1,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 1,0-1-1,1 1 0,-1 0 0,0-1 0,1 1 1,-1-1-1,0 1 0,1-1 0,4-1 0,-2 1-306,0-1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,4-6 0,2-4-1588,-1-1-1,0 0 1,12-28-1,-3-3-967</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2423.39">1529 85 1969,'0'0'12934,"-76"-84"-12934,76 94-448,0 10-97,0 8-1936,0-2-976,4 10-3330</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3388.36">1720 289 6947,'0'0'7702,"-12"-13"-7075,-38-38-125,48 49-472,1 1 0,-1 0-1,1-1 1,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1-1,-1 2 1,-1 3-8,-1 0 0,1 1 0,0-1 0,0 1 0,0 0-1,1 0 1,-3 9 0,2-4-21,1 0-1,0 0 1,1 1-1,0-1 1,1 1-1,0-1 1,1 1-1,0-1 1,4 21 0,-4-32-14,1 1 0,0 0 1,-1-1-1,1 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 0 0,1 1 1,-1-1-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1-1 0,1 1 1,0 0-1,-1-1 1,1 1-1,0-1 1,0 0-1,-1 1 1,1-1-1,0 0 0,0 0 1,-1 0-1,1 0 1,0-1-1,2 0 1,1 1-28,-1-1 0,1 0 0,-1 0 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0-1-1,0 1 1,0-1 0,5-4 0,1-3-69,-1 0 0,-1-1 0,1-1-1,-2 1 1,1-1 0,-2-1 0,0 1-1,0-1 1,-1 0 0,5-20 0,-7 20 668,-1 0 0,0 0 0,0-21 1,-2 55-591,3 61 266,-3-76-218,2 1 1,-1 0-1,1-1 1,0 1-1,0-1 1,0 0-1,1 0 0,0 0 1,8 12-1,-10-17-21,-1 0 0,1 0 0,0-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,1 0 1,-1 1 0,0-1-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,0-1-1,1 0 20,0-1 0,-1 1 0,1-1-1,0 0 1,-1 0 0,0 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,2-4 0,3-5 63,0 0-1,-1-1 1,0 0 0,6-17 0,-8 29-82,2 11-35,10 31-93,8 17 3,-23-58 114,0 1 0,-1-1 0,1 0-1,0 1 1,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0-1 0,1 1-1,-1 0 1,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0-1,-1 0 1,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0-1,1-1 1,-1 1 0,1 0 0,-1-1 0,0 0 0,1 1 0,0-2 0,2-1-34,0 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 1,0 0-1,2-5 0,14-70 289,26 139 456,-41-57-1132,1 0-1,-1-1 1,1 1-1,-1-1 1,1 0 0,0 0-1,0 0 1,0 0-1,0-1 1,1 0-1,-1 0 1,0 0-1,1 0 1,6 0-1,17 2-3402</inkml:trace>
@@ -6665,7 +5369,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 298 2897,'0'0'5341,"0"-1"-5274,0 1-1,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 1 1,-1-1-1,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 1,1-1-1,-1 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,0 0 0,5 8 142,-1 1 1,-1-1-1,1 1 1,-2 1-1,1-1 1,-1 0-1,-1 1 1,1 0-1,-2-1 0,2 13 1,-1 17-21,-2 49 0,-1-37-29,-4-16-178,2-25 558,2-24 1838,1-6-2302,-2-13-69,3-1-1,0 1 1,2 0 0,2-1-1,1 1 1,12-37 0,-14 58-19,0 0 1,2 0-1,-1 1 0,14-19 1,-18 28 10,0 1 0,0-1 1,0 1-1,0-1 1,0 1-1,1-1 1,-1 1-1,1 0 1,-1 0-1,1-1 0,-1 1 1,1 0-1,0 0 1,-1 1-1,1-1 1,0 0-1,0 1 0,-1-1 1,1 1-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,0 1 0,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 0,1 0 1,1 2-1,3 6 12,0 0 0,0 0 0,-1 1-1,0-1 1,0 1 0,-1 0 0,-1 1-1,0-1 1,0 0 0,1 14 0,5 10 16,-7-27-22,-1-1 17,0 0 0,1-1 0,0 1 1,0 0-1,0 0 0,1-1 0,0 0 0,4 8 0,-5-14-8,1 1 0,-1-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,3-2 0,25-40-31,-21 32 44,11-21 15,25-58 0,-21 41-67,-22 48 26,10-11 48,-10 13-49,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 1-1,-1-1 1,0 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 0 1,0 1-1,1-1 0,-1 1 1,0-1-1,0 1 1,1-1-1,-1 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 2-1,2 25 56,-2-24-13,2 229 1655,0 7-2743,-2-237 804,0 0 1,1 0-1,-1 0 0,0 0 1,1 1-1,-1-1 1,1 0-1,-1-1 0,1 1 1,0 0-1,0 0 1,0 0-1,0 0 0,0-1 1,1 1-1,-1 0 1,0-1-1,1 1 0,-1-1 1,1 1-1,0-1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,0-1 1,0 1-1,0-1 1,0 1-1,3-1 0,21 2-4637</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="348.61">647 435 2977,'0'0'10178,"-4"-5"-9094,4 5-1062,-1-1 0,0 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,0 1 1,1-1-1,-1 0 0,0 1 0,0-1 1,0 1-1,1-1 0,-1 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,0 0-1,0-1 0,1 1 0,-1 0 1,0 0-1,0 0 0,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,1 0 0,-1 1 1,0-1-1,0 1 0,0-1 0,1 1 1,-1 0-1,0-1 0,1 1 0,-2 1 1,-2 2 42,1 1 1,0-1 0,0 1 0,1-1 0,-1 1-1,1 0 1,0 0 0,-2 10 0,2-11-47,1 0-1,0 1 1,0-1-1,0 1 1,1 0 0,0-1-1,-1 1 1,2-1 0,-1 1-1,0 0 1,3 7-1,-2-11-19,0 1-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,1-1-1,-1 1 1,1-1-1,-1 0 0,1 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,4 0 1,2 0 24,1 0 1,-1-1-1,0 1 1,0-2-1,0 1 1,0-1-1,0 0 1,0-1-1,-1 0 1,1 0-1,-1-1 1,0 1-1,11-9 1,-14 9-4,-1 0 1,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,-1 0 0,1 0 0,-1 0-1,1 0 1,-1-1 0,0 1 0,-1 0 0,1-1 0,-1 0 0,0 1 0,0-1-1,0 0 1,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-2-8 0,1 9-17,0-1-1,0 1 1,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,0 0 0,0 1 0,0-1 0,-1 1-1,1-1 1,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0-1,0 0 1,0 1 0,-3-2 0,1 1-40,0 0 1,0 0 0,0 1 0,0-1-1,0 1 1,0 1 0,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,-9 2 0,13-1-51,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 4 1,-1-2-224,1 0 0,-1 1 1,1-1-1,0 0 1,-1-1-1,1 1 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1-1 0,1 1 1,0-1-1,0 1 1,0-1-1,0 0 0,4 3 1,31 9-2894,7-1 441</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="750.84">932 486 1361,'0'0'8393,"-11"0"-7286,5 0-1015,1 0 1,0 0-1,-1 1 0,1 0 1,0 0-1,0 0 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 1-1,0 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,0-1 0,1 1 1,0 0-1,-4 9 0,5-10-59,-1 1-1,1 0 1,-1 0-1,1 0 1,0-1-1,1 1 1,-1 0-1,1 0 1,1 7 0,-1-11-25,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 1,1 0-1,-1 1 1,1-1-1,-1 0 0,1 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 1,1 0-1,-1 0 0,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 0,-1 0 1,3 0-1,0 0 21,0 0-1,0-1 0,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 0-1,0 1 0,0-1 1,0-1-1,-1 1 1,5-4-1,-3 0 6,1 0 0,-1 0 0,0-1-1,-1 1 1,1-1 0,-1 0 0,4-12 0,2-7-11,-2-1 0,0 0 0,-2 0-1,-1-1 1,2-49 0,-5-129 89,-3 155 92,0 188 1437,6 230-1091,-4-354-998,1 0 1,-1 0-1,6 16 1,-6-25-16,1 0-1,-1-1 1,1 1 0,0 0-1,0-1 1,0 1-1,0-1 1,0 1 0,1-1-1,0 0 1,0 0 0,0-1-1,0 1 1,5 3 0,18 5-5415</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="750.83">932 486 1361,'0'0'8393,"-11"0"-7286,5 0-1015,1 0 1,0 0-1,-1 1 0,1 0 1,0 0-1,0 0 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 1,0 1-1,0 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,0 1-1,0-1 0,1 1 1,0 0-1,-4 9 0,5-10-59,-1 1-1,1 0 1,-1 0-1,1 0 1,0-1-1,1 1 1,-1 0-1,1 0 1,1 7 0,-1-11-25,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 1,1 0-1,-1 1 1,1-1-1,-1 0 0,1 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 1,1 0-1,-1 0 0,0-1 1,0 1-1,0-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 0 1,0 1-1,1-1 0,-1 0 1,3 0-1,0 0 21,0 0-1,0-1 0,1 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 0-1,0 1 0,0-1 1,0-1-1,-1 1 1,5-4-1,-3 0 6,1 0 0,-1 0 0,0-1-1,-1 1 1,1-1 0,-1 0 0,4-12 0,2-7-11,-2-1 0,0 0 0,-2 0-1,-1-1 1,2-49 0,-5-129 89,-3 155 92,0 188 1437,6 230-1091,-4-354-998,1 0 1,-1 0-1,6 16 1,-6-25-16,1 0-1,-1-1 1,1 1 0,0 0-1,0-1 1,0 1-1,0-1 1,0 1 0,1-1-1,0 0 1,0 0 0,0-1-1,0 1 1,5 3 0,18 5-5415</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1112.33">1186 458 6323,'0'0'7499,"1"-5"-7122,2-1-350,-1 1 1,1-1 0,0 1-1,1 0 1,-1 0 0,1 0-1,0 0 1,0 1 0,8-8 0,-7 9 2,-1-1 1,0 1-1,0-1 1,-1 0 0,1-1-1,-1 1 1,0 0 0,0-1-1,0 0 1,0 0-1,-1 0 1,0 0 0,0 0-1,-1 0 1,1-1 0,0-8-1,-1 11-22,-1 0-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,-1-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,-1 0 1,-1-3-1,2 4 24,-1 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,-1-1 1,1 0-1,0 1 1,0 0-1,-3 1 1,0 0 24,0 0 1,0 1 0,0 0-1,1 0 1,-1 0-1,1 0 1,0 1-1,0-1 1,0 1-1,0 0 1,1 1-1,-1-1 1,1 0-1,0 1 1,0 0 0,1 0-1,-4 8 1,2-1 81,-1-1 1,2 1-1,-1 0 1,2 0-1,0 0 1,0 1-1,0 12 1,2-11-102,1-1 0,-1 0 0,2 1 0,0-1 0,1 0 0,0 1 0,8 20 0,-8-28-130,1 1 0,-1-1-1,1 0 1,0-1 0,1 1-1,-1-1 1,1 0 0,0 0-1,1 0 1,-1 0-1,1-1 1,0 0 0,0 0-1,0-1 1,0 0 0,12 4-1,-5-3-1075,0 0-1,1-1 0,-1-1 1,25 1-1,7-2-4160</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1268.8">1582 499 4706,'0'0'13110,"-13"-87"-12678,13 85-304,0-1-128,18 3-5762,0 0 960</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1701.75">1996 71 5683,'0'0'10018,"-17"-11"-9250,-53-31-293,69 41-467,-1 0 0,1 1-1,0-1 1,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0-1-1,-1 1 1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1 1 0,-1 2-1,0 0 1,1 1-1,0-1 0,0 1 1,0-1-1,-1 8 1,2-10 5,0 2-13,0 1 1,0-1-1,0 1 0,0-1 0,1 1 0,0-1 0,0 0 0,1 1 1,0-1-1,-1 1 0,2-1 0,-1 0 0,1 1 0,0-1 1,0 0-1,0 0 0,0 0 0,1-1 0,5 8 0,3 0-13,1 0-1,0-1 0,1 0 1,0-1-1,16 10 0,-22-15 27,10 6 8,28 21 19,-43-31-39,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0-1,-1 0 1,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 5 0,-1-6 9,0 1 1,-1-1-1,1 1 1,-1-1-1,1 0 1,-1 0-1,0 1 1,1-1-1,-1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,-1-1 1,1 1-1,0 0 1,-1-1-1,-1 1 1,-38 12 288,33-11-219,-34 8 86,26-8-352,0 2 0,0 0 0,0 1 0,-22 11 1,58-21-11904</inkml:trace>
@@ -6703,7 +5407,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">67 300 3490,'0'0'9572,"-10"-6"-8465,-46-28 491,56 34-1011,0-1-128,0 0-352,5-2-143,1 2 0,0-1 0,0 1 0,0 0 0,0 0 0,7 0 0,-6 0 24,74-9-381,1 4-1,108 5 1,-188 0 136,0 1 0,1 1-1,-1-1 1,0 0 0,0 1-1,1-1 1,-1 1 0,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,-1-1 0,1 0-1,0 1 1,-1 0 0,1-1-1,-1 1 1,1 0 0,-1 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 1 0,0-1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 4 0,1 18-3604</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="271.97">139 524 3922,'0'0'6013,"-13"0"-5100,43 0-765,1-2 0,-1-2 1,0-1-1,50-14 0,-75 17-232,119-33 62,-42 16-5114,-71 16 1990</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="271.95">139 524 3922,'0'0'6013,"-13"0"-5100,43 0-765,1-2 0,-1-2 1,0-1-1,50-14 0,-75 17-232,119-33 62,-42 16-5114,-71 16 1990</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="869.88">348 100 3330,'0'0'7216,"-17"-11"-6253,-52-35-61,66 45-648,0-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,-2-4 0,4 6-208,-1-1 1,1 1 0,0 0 0,0-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1-1,0 1 1,0 0 0,1-1 0,-1 1 0,0 0 0,0-1-1,1 1 1,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1-1,0 1 1,1 0 0,0-1 0,31-5 483,-16 8-525,0 1 0,-1 1 0,1 0 1,-1 1-1,0 1 0,0 0 0,0 1 0,-1 0 0,20 15 1,12 4 19,59 29-296,110 78 1,-214-132 258,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1-1,-1 1 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 3 0,-22 39-1,-155 196 436,-35 54-249,182-249-631,-24 40 1017,36-40-2873,12 3-3835,7-41 465</inkml:trace>
 </inkml:ink>
 </file>
@@ -6734,7 +5438,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">73 252 4322,'0'0'8588,"-4"-11"-7259,-18-53 773,12 93-120,6 3-1883,-22 193 330,24-178-388,0 0 314,1-84-73,-1-3-300,3 0-1,1 0 1,2 1 0,1-1-1,2 1 1,20-62 0,-26 99 13,-1 1 0,0-1-1,1 1 1,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1-1,0-1 1,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1-1,0 0 1,1 0 0,-1 1 0,0-1 0,0 0 0,1 0-1,-1 0 1,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1-1,-1 0 1,3-1 0,-1 2-4,-1 0 0,0 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,2 3 0,5 12 12,-1 1-1,0-1 0,-2 1 0,0 0 0,3 20 0,14 46 9,-22-83-10,0-1 0,0 1 0,0 0 0,0-1 0,1 1-1,-1 0 1,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1-1,0-1 1,1 1 0,-1 0 0,1-1 0,0 1 0,-1-1-1,1 0 1,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0-1,0 0 1,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0-1,1 0 1,1 0 0,0 0 4,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,1-3 0,40-47 87,-39 45-95,66-108 93,-29 43-105,-39 67 18,-2 3-2,0 0 1,1 1-1,-1-1 0,1 0 0,-1 0 0,0 0 1,1 1-1,0-1 0,-1 0 0,1 1 0,-1-1 1,1 0-1,0 1 0,-1-1 0,1 1 1,0-1-1,0 1 0,-1-1 0,1 1 0,0-1 1,0 1-1,0 0 0,1-1 0,0 7 3,0-1 0,-1 1 0,1-1 1,-1 1-1,-1 0 0,1 8 0,0-8 42,3 114 549,-5-95-689,1 1 0,2 0 1,0 0-1,1-1 0,2 0 0,9 31 1,-12-51-159,0 0 0,0-1 1,1 1-1,-1-1 0,1 0 1,0 1-1,1-1 0,-1 0 1,1-1-1,-1 1 0,8 5 1,-7-7-344,0 1 0,0-1 1,0 0-1,0-1 0,0 1 1,1-1-1,-1 1 0,8 0 1,23 0-5052</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="296.76">710 311 5491,'0'0'10935,"-12"10"-10300,3-3-507,4-5-88,1 1-1,0 0 1,0 0 0,0 0-1,0 1 1,1-1-1,-1 1 1,1 0-1,0 0 1,0 0 0,0 0-1,1 1 1,-1-1-1,1 1 1,0-1-1,1 1 1,-3 8 0,3-4 22,0 0 1,0 0 0,1 0 0,0 0-1,2 14 1,-1-21-61,-1 1-1,1-1 1,0 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1 0-1,1-1 1,0 1-1,-1-1 1,1 0-1,0 1 1,0-1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,4 1-1,2 0 18,0 0 0,0-1 0,0 0 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-2 0,0 1 0,-1-1 0,1-1 0,-1 1 0,0-1 0,0 0 0,11-9-1,-14 10-2,0 0 0,0-1 0,-1 1 0,1-1-1,-1 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1-1 0,-1 1 0,0-1-1,0 0 1,-1 0 0,1 1 0,-1-1-1,0 0 1,0 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1-1-1,0 2 1,0-1 0,0 0 0,-2-6-1,0 6-57,1 0 0,-1 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0-1,0 0 1,0 0 0,0 1 0,-1-1 0,0 1 0,1 0 0,-1 0-1,0 1 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1 0 0,-1 0-1,-6 0 1,11 1-147,-1 0-1,1 1 0,-1-1 1,1 0-1,0 1 0,-1-1 1,1 1-1,-1 0 1,1-1-1,0 1 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 1 0,1-1 1,-1 1-1,1-1 0,-1 1 1,1-1-1,0 0 1,0 1-1,0-1 0,0 1 1,0-1-1,0 1 0,0 2 1,-1 16-5136</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1004.84">1160 362 6195,'0'0'6670,"-20"-3"-4774,3 0-1481,10 1-300,1 0 0,-1 1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 2 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,1 0 0,-10 6 0,4-1 68,0 1 1,0 0-1,1 1 1,1 1-1,-1-1 1,-13 18-1,20-21-164,0-1 0,1 0 0,-1 1 0,1 0 0,1 0 0,-1 0 0,1 0 0,0 0-1,0 1 1,1-1 0,-1 1 0,2-1 0,-1 1 0,1-1 0,0 1 0,1 9 0,-1-15-18,1 1 0,0 0 0,0-1 1,-1 1-1,1-1 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 1,0 0-1,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 1,0-1-1,0 0 0,-1 0 0,1 0 1,0 0-1,1 0 0,3 0 26,1 0-1,-1-1 0,0 1 1,0-1-1,0 0 1,0 0-1,10-4 0,-6-1-30,-1 1-1,0-1 1,1-1-1,-2 0 1,1 0-1,-1-1 1,0 0 0,-1 0-1,0 0 1,0-1-1,-1-1 1,8-13-1,-3 1-115,-1 1 1,-1-2-1,0 1 1,8-43-1,-10 17-72,-2-1-1,-2-82 1,-4 100 259,-5 143 132,2-75-59,2-1 0,2 1-1,6 55 1,-6-86-134,1 0 1,0-1-1,1 1 0,-1 0 1,1-1-1,0 0 0,0 1 1,1-1-1,0 0 0,0 0 0,0-1 1,0 1-1,1 0 0,0-1 1,0 0-1,0 0 0,0 0 0,0-1 1,1 1-1,0-1 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 1,1 0-1,-1-1 0,1 1 1,0-1-1,-1 0 0,1-1 1,0 1-1,-1-1 0,1 0 0,10-2 1,-8 1-26,0 0 0,-1-1 0,1 0-1,-1-1 1,1 1 0,-1-1 0,0-1 0,0 1 0,0-1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,-1-1-1,0 0 1,1 0 0,-2 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,0-1 0,4-13 0,-5 8-16,0-1 0,-1 1 1,0-1-1,-1 1 0,-2-16 1,2 26 32,0 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,-3-3 0,3 5 11,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1-1-1,0 1 1,1 0 0,-1 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,-1 1 1,0-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1 0 1,-2 1-1,-2 1 29,0 1-1,1 0 0,0 0 1,0 0-1,0 0 0,0 1 1,1-1-1,0 1 0,0 0 1,0 0-1,0 0 0,1 0 1,0 1-1,-3 9 0,1-1 7,0 0-1,1 1 1,1-1 0,-2 28-1,4-36-62,1-1 0,-1 1 0,1 0 0,1-1 1,-1 1-1,1 0 0,0-1 0,0 0 0,0 1 0,1-1 0,0 0 0,0 0 0,0-1 0,7 9 1,-3-5-583,1-1 0,0 0 0,0 0 0,12 7 0,19 5-4875</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1004.83">1160 362 6195,'0'0'6670,"-20"-3"-4774,3 0-1481,10 1-300,1 0 0,-1 1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 2 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,1 0 0,-10 6 0,4-1 68,0 1 1,0 0-1,1 1 1,1 1-1,-1-1 1,-13 18-1,20-21-164,0-1 0,1 0 0,-1 1 0,1 0 0,1 0 0,-1 0 0,1 0 0,0 0-1,0 1 1,1-1 0,-1 1 0,2-1 0,-1 1 0,1-1 0,0 1 0,1 9 0,-1-15-18,1 1 0,0 0 0,0-1 1,-1 1-1,1-1 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 1,0 0-1,0 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 1,0-1-1,0 0 0,-1 0 0,1 0 1,0 0-1,1 0 0,3 0 26,1 0-1,-1-1 0,0 1 1,0-1-1,0 0 1,0 0-1,10-4 0,-6-1-30,-1 1-1,0-1 1,1-1-1,-2 0 1,1 0-1,-1-1 1,0 0 0,-1 0-1,0 0 1,0-1-1,-1-1 1,8-13-1,-3 1-115,-1 1 1,-1-2-1,0 1 1,8-43-1,-10 17-72,-2-1-1,-2-82 1,-4 100 259,-5 143 132,2-75-59,2-1 0,2 1-1,6 55 1,-6-86-134,1 0 1,0-1-1,1 1 0,-1 0 1,1-1-1,0 0 0,0 1 1,1-1-1,0 0 0,0 0 0,0-1 1,0 1-1,1 0 0,0-1 1,0 0-1,0 0 0,0 0 0,0-1 1,1 1-1,0-1 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 1,1 0-1,-1-1 0,1 1 1,0-1-1,-1 0 0,1-1 1,0 1-1,-1-1 0,1 0 0,10-2 1,-8 1-26,0 0 0,-1-1 0,1 0-1,-1-1 1,1 1 0,-1-1 0,0-1 0,0 1 0,0-1 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,-1-1-1,0 0 1,1 0 0,-2 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,-1 0 0,0-1 0,4-13 0,-5 8-16,0-1 0,-1 1 1,0-1-1,-1 1 0,-2-16 1,2 26 32,0 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,-3-3 0,3 5 11,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 1 1,1 0-1,-1-1 1,0 1-1,1 0 1,-1-1-1,0 1 1,1 0 0,-1 0-1,0 1 1,1-1-1,-1 0 1,1 0-1,-1 1 1,0-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,1 0 1,-2 1-1,-2 1 29,0 1-1,1 0 0,0 0 1,0 0-1,0 0 0,0 1 1,1-1-1,0 1 0,0 0 1,0 0-1,0 0 0,1 0 1,0 1-1,-3 9 0,1-1 7,0 0-1,1 1 1,1-1 0,-2 28-1,4-36-62,1-1 0,-1 1 0,1 0 0,1-1 1,-1 1-1,1 0 0,0-1 0,0 0 0,0 1 0,1-1 0,0 0 0,0 0 0,0-1 0,7 9 1,-3-5-583,1-1 0,0 0 0,0 0 0,12 7 0,19 5-4875</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1161.93">1726 382 11493,'0'0'5379,"27"-10"-12551,-5 10 529</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1710.16">1940 155 7860,'0'0'7126,"7"16"-6411,34 80-107,-35-81-514,-1 1 0,0 0 1,-1 1-1,-1-1 0,1 26 0,-2-25 27,1-23 91,5-35 103,-6 31-344,23-95 49,-22 95-20,1 1 0,0-1-1,0 1 1,1 0 0,0 0 0,0 1 0,1-1 0,11-11 0,-17 19-2,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1 1,1 1-1,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 1,0 0-1,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 0 0,2 2 1,0 0-14,0 0 1,-1 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0 5 0,5 72-217,-6-78 232,0 18 25,1 0 1,6 34 0,-7-54-28,0 0 0,0 1 1,0-1-1,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 1,0 1-1,1-1 0,-1 0 0,0 0 1,0 1-1,0-1 0,0 0 0,1 0 0,-1 0 1,0 1-1,0-1 0,1 0 0,-1 0 1,0 0-1,0 1 0,1-1 0,-1 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 1 1,1-1-1,-1 0 0,0-1 0,1 1 1,12-10 25,8-21 113,-20 30-122,46-81 10,-19 32 35,54-75 1,-82 125-38,0 0 1,1-1-1,-1 1 0,0 0 1,0-1-1,0 1 0,0 0 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 0,1 0 1,-1-1-1,0 1 0,0 0 1,1 0-1,-1 0 0,0 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 1 0,5 13 359,-5 35-154,-1-36 69,0 47-153,-1 22-700,7-30-2959,2-31-1899,2-10-2156</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2018.89">2497 97 7139,'0'0'6777,"0"14"-6561,-1 13-35,0 77 457,1-97-599,1 0 0,0 0 1,0 0-1,0 1 0,1-1 1,0 0-1,0 0 1,1-1-1,0 1 0,0-1 1,7 11-1,-9-15-14,1 0-1,0-1 1,-1 1 0,1-1-1,0 1 1,0-1 0,0 0-1,0 1 1,0-1 0,0 0-1,0-1 1,0 1 0,0 0-1,1 0 1,-1-1 0,0 1-1,0-1 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,1-1-1,-1 1 1,0-1 0,0 0-1,1 1 1,-1-1 0,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0 0,-1-1-1,1 1 1,2-3 0,5-5 205,0 0 0,0-1 0,0 0 0,-2-1 0,10-15 0,-9 12-49,-2 1-1,0-1 0,-1 0 1,0 0-1,-1-1 0,0 1 1,-1-1-1,-1 0 0,-1 0 1,0 0-1,-1-19 0,0 33-656,-2-8 591</inkml:trace>
@@ -6772,7 +5476,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">37 250 5074,'0'0'9546,"-6"-16"-8180,-16-50-702,22 64-631,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 1 0,0-1 0,-1 0-1,1 0 1,0 0 0,0 1 0,0-1 0,1 0-1,-1 1 1,0-1 0,3-1 0,33-20 483,-30 20-399,5-3-32,0 0 0,0 1 1,0 1-1,0 0 0,1 1 1,-1 0-1,1 1 1,0 0-1,0 1 0,0 0 1,0 1-1,13 2 0,-23-1-81,-1 0 0,1 0 0,-1 1-1,0-1 1,1 1 0,-1-1 0,0 1 0,0-1-1,0 1 1,0 0 0,0 0 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,0 0 0,0 1-1,0-1 1,0 1 0,-1 0 0,1-1-1,-1 1 1,0 0 0,0 2 0,1 8 24,0 0 1,-1 1-1,-1-1 1,-2 16 0,0-16 11,-1 1 0,0 0 1,-1-1-1,0 0 1,-1 0-1,-1-1 1,0 0-1,-15 20 1,-82 88 97,79-93-80,5-5 121,11-11 81,0-1-1,0-1 1,-1 1-1,0-2 1,-12 9 0,21-16 273,25-7-319,158-49-1119,-143 47-2889,50-4 1,-44 9-1863</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="522.31">687 446 8004,'0'0'10863,"-3"4"-10100,-2 2-626,-1 0-1,1-1 0,-1 0 0,-1 0 0,1 0 1,-1-1-1,0 1 0,0-2 0,0 1 0,0-1 1,0 0-1,-1-1 0,0 1 0,1-1 0,-1-1 1,0 0-1,-16 1 0,23-3-132,0 1 1,0-1-1,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 1,0 1-1,0 0 0,-1 0 1,1 0-1,0-1 0,0 1 1,0-2-1,0 0 5,-1-1 0,1 0-1,0 0 1,0 1 0,0-1-1,1 0 1,-1 0 0,3-6-1,-1 7-14,1-1-1,0 1 1,0 0 0,0-1-1,1 2 1,-1-1 0,1 0-1,-1 0 1,1 1 0,0 0-1,0 0 1,0 0 0,0 0-1,9-1 1,-8 1-5,0 0 1,0 1-1,0 0 1,0 0-1,0 0 1,0 1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 1 0,0 0 1,7 2-1,-11-2 6,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-2 1 0,0 2 19,0 1-1,0-1 1,0 0-1,-1 0 1,0 0-1,0 0 1,-6 7-1,8-11-3,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-2-1 0,2 1-11,1-1 1,-1 0-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0-1-1,0 0 1,0 0-7,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,3-1 0,-4 2-2,1-1 0,-1 1 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 1 0,0-1-1,-1 1 1,1-1 0,0 1 0,-1-1 0,1 1-1,-1 0 1,0-1 0,0 1 0,0 0 0,1-1-1,-2 1 1,1 0 0,0 1 0,-2 64 40,-1-56-3,-1 1-1,0 0 1,0-1-1,-1 0 1,-1 0-1,0-1 0,0 1 1,-1-1-1,0-1 1,-10 11-1,5-5-807,1 0 1,0 1-1,-9 19 0,12-17-3451</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="522.29">687 446 8004,'0'0'10863,"-3"4"-10100,-2 2-626,-1 0-1,1-1 0,-1 0 0,-1 0 0,1 0 1,-1-1-1,0 1 0,0-2 0,0 1 0,0-1 1,0 0-1,-1-1 0,0 1 0,1-1 0,-1-1 1,0 0-1,-16 1 0,23-3-132,0 1 1,0-1-1,0 1 1,0-1-1,0 0 0,0 0 1,0 1-1,0-1 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1-1 1,0 1-1,0 0 0,-1 0 1,1 0-1,0-1 0,0 1 1,0-2-1,0 0 5,-1-1 0,1 0-1,0 0 1,0 1 0,0-1-1,1 0 1,-1 0 0,3-6-1,-1 7-14,1-1-1,0 1 1,0 0 0,0-1-1,1 2 1,-1-1 0,1 0-1,-1 0 1,1 1 0,0 0-1,0 0 1,0 0 0,0 0-1,9-1 1,-8 1-5,0 0 1,0 1-1,0 0 1,0 0-1,0 0 1,0 1-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 1 0,0 0 1,7 2-1,-11-2 6,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-2 1 0,0 2 19,0 1-1,0-1 1,0 0-1,-1 0 1,0 0-1,0 0 1,-6 7-1,8-11-3,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 0 0,0 1 0,-1-1-1,1 0 1,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-2-1 0,2 1-11,1-1 1,-1 0-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0-1-1,0 0 1,0 0-7,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,3-1 0,-4 2-2,1-1 0,-1 1 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 1 0,0-1-1,-1 1 1,1-1 0,0 1 0,-1-1 0,1 1-1,-1 0 1,0-1 0,0 1 0,0 0 0,1-1-1,-2 1 1,1 0 0,0 1 0,-2 64 40,-1-56-3,-1 1-1,0 0 1,0-1-1,-1 0 1,-1 0-1,0-1 0,0 1 1,-1-1-1,0-1 1,-10 11-1,5-5-807,1 0 1,0 1-1,-9 19 0,12-17-3451</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1022.04">976 227 8868,'0'0'6005,"0"-18"-3369,-3-61-995,2 75-1547,1-1-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 1 1,1-1-1,-1 1 1,0-1 0,1 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,0 1 1,0-1 0,0 1-1,0 0 1,1 0-1,0 0 1,-1 0-1,1 1 1,0-1-1,1 1 1,4-2-1,4-1-32,-1 1-1,1 0 0,0 1 0,1 1 0,-1 0 0,0 1 0,18 0 0,-29 1-65,0 0-1,-1 0 1,1 0 0,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1 0,0 1-1,1 0 1,-1-1-1,1 1 1,-1 0 0,0 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,0 0-1,0 2 1,1 1-13,0 0 0,0 0 0,0 0 0,-1 0 1,0 1-1,1-1 0,0 8 0,-1 5 7,-1-1 1,0 1-1,-2 20 1,-1-24 34,-1 0-1,0 0 1,-1 0 0,0-1 0,-1 0 0,-1 0 0,1 0 0,-2-1-1,0 0 1,0 0 0,-1-1 0,0 0 0,-1 0 0,0-1 0,0 0-1,-23 13 1,32-21-66,5-1-30,0 1 0,0 0 0,0-1 1,0 0-1,0 0 0,0 0 0,7-2 1,1 2 47,12-1-12,-14 0-5,0 0 0,0 1 0,0 1 0,0 0 0,11 2 0,-19-2 32,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 2 0,-1-2 42,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,-1 0-1,1 0 0,-4 1 0,-63 25 526,58-23-566,3-1-40,-116 35-94,37-24-3571,35-13-2400</inkml:trace>
 </inkml:ink>
 </file>
@@ -6953,7 +5657,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">125 110 2449,'0'0'9220,"-9"-1"-2673,10-4-6463,0 1-1,0-1 0,0 1 1,1 0-1,-1-1 0,1 1 1,0 0-1,1 0 0,-1 0 1,1 1-1,-1-1 0,1 0 1,0 1-1,1 0 0,-1 0 1,0 0-1,8-5 0,-5 4-104,-1 0-1,1 0 1,0 1 0,0-1-1,0 1 1,1 1 0,-1-1-1,1 1 1,-1 0-1,1 1 1,10-2 0,-16 4 13,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 1,1-1-1,-1 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0-1 0,0 3 0,0 29-20,-1-24 31,0 4-2,0-1 0,-1 0-1,-1 0 1,0 0 0,-1 0 0,0 0-1,0-1 1,-1 1 0,-1-1 0,-10 15-1,8-13-169,1 0 0,0 1 0,1 0-1,1 0 1,0 0 0,-5 20 0,10-31 77,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,2 3 0,36 25-694,-35-29 782,-1 1 0,1 0-1,-1 0 1,0 0-1,1 1 1,-1-1 0,0 1-1,0-1 1,-1 1-1,1 0 1,-1 0-1,1 0 1,-1 0 0,0 1-1,0-1 1,0 1-1,-1-1 1,1 1 0,-1 0-1,0 0 1,1 6-1,-2-7 107,-1 1-1,1 0 1,-1-1-1,0 1 1,0 0-1,-1-1 1,1 1-1,-1-1 1,0 0-1,0 1 1,0-1-1,0 0 1,0 0-1,-1 0 0,1-1 1,-1 1-1,0-1 1,0 1-1,0-1 1,0 0-1,-7 4 1,-7 3 33,-2 0-1,-35 12 1,34-14-58,11-4-249,-1 1 1,0-2-1,-1 1 1,-17 1-1,-2-5-5013,20-1-119</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="558.62">36 713 7828,'0'0'7800,"-1"10"-7074,0-1-504,0 5 45,0 0 0,1 1 0,0-1-1,1 0 1,3 16 0,-4-27-249,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,0-1-1,-1 1 0,1 0 1,0-1-1,0 1 0,1-1 1,-1 0-1,0 0 0,1 0 1,-1 0-1,1 0 0,0 0 1,-1-1-1,1 0 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0-1 0,1 1 1,-1-1-1,6 0 0,-3 0-4,0-1-1,0 0 1,-1 0-1,1-1 0,0 1 1,-1-1-1,1-1 1,-1 1-1,0-1 1,1 0-1,-1 0 0,-1 0 1,1-1-1,0 1 1,-1-1-1,0 0 1,0-1-1,6-7 1,-2 2-9,-1-1 0,-1 1 0,0-1 0,0 0 0,-1-1 0,-1 1 0,0-1 1,3-12-1,-7 31-335,1 13 322,-1 1 1,-3 22 0,-25 77 565,-10 67 567,33-174-502,2-8-2074</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1017.81">192 1416 9476,'0'0'6379,"-14"-3"-5498,-42-9-145,53 12-696,1 0 0,-1 1-1,1-1 1,-1 0 0,1 1 0,0 0-1,-1-1 1,1 1 0,0 0 0,-1 0-1,1 0 1,0 1 0,0-1 0,0 0 0,0 1-1,0 0 1,0-1 0,0 1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-3 4 1,1 1 5,0-1 0,1 0-1,-1 1 1,1-1 0,0 1 0,-1 11-1,2-14-45,1 0 0,0 0 1,0 0-1,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,0 1 1,0-1-1,0 0 0,0 0 0,1 0 0,4 5 0,3 1-2,1-1 0,0 0 0,1 0 1,15 7-1,-14-8-16,0 0-1,-1 1 1,14 12 0,-23-16 53,-1-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0 0 0,-1 0 1,0-1-1,0 1 1,0 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,0-1 0,1 1 1,-1-1-1,-1 1 1,1-1-1,0 0 0,-1 0 1,0 0-1,-4 4 0,-1 0 39,-1-1-1,0-1 0,1 0 1,-2 0-1,-14 5 0,23-8-138,-1-2-1,0 1 0,0 0 1,0 0-1,0-1 0,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,-1-1-1,1 1 0,0-1 1,-2-3-1,-1-4-1413,2-1-1,-1 0 1,2 1 0,-1-1 0,0-19-1,2-21-7080</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1294.88">76 1413 5523,'0'0'13238,"0"0"-13227,0 0 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0-1 0,0 1 0,1 0 1,-1 0-1,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,37-2 148,1-2 1,52-12-1,14-2-2942,-110 30-9343</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1294.86">76 1413 5523,'0'0'13238,"0"0"-13227,0 0 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0 0 0,0-1 0,0 1 0,1 0 1,-1 0-1,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,37-2 148,1-2 1,52-12-1,14-2-2942,-110 30-9343</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7075,7 +5779,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">174 302 9973,'0'0'3503,"10"-15"-2324,34-49-334,-39 58-754,0 1 0,0 0-1,1 0 1,0 0-1,0 1 1,0 0-1,1 0 1,-1 0 0,1 1-1,0 0 1,0 0-1,0 1 1,0 0-1,1 0 1,-1 1 0,0 0-1,1 0 1,8 0-1,-15 1-87,0 0 0,0 1-1,1-1 1,-1 0 0,0 0-1,0 1 1,0-1 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 1-1,0-1 1,0 1 0,-1 0 0,1 0-1,0 0 1,0-1 0,0 1-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 2 1,1 1-1,-1 0 0,0 0 0,1 0-1,-1 0 1,-1 0 0,1 0 0,0 7 0,-1-3 14,0 1 0,0 0 0,-1-1 0,-1 1 0,1-1 0,-1 1 0,-3 8 0,-1-6 3,-1 0 0,0-1 1,0 1-1,-1-2 0,-1 1 0,1-1 1,-15 11-1,-74 54 163,94-72-179,-195 142-3178,198-144 3159,0-1 0,0 1 1,0 0-1,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 1,1 0-1,0-1 0,0 1 0,0 0 0,0 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 1,-1 1-1,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 1,1 0-1,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 1,0 1-1,6-23-258,-4 18 288,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 1-1,0-1 0,1 1 1,-1 0-1,1 0 1,0 0-1,0 1 0,0-1 1,0 1-1,0 0 1,1 0-1,-1 0 0,0 1 1,1 0-1,8-2 1,-6 3 54,1-1-1,-1 1 1,0 1 0,1-1 0,-1 1 0,0 1 0,0-1 0,1 1-1,-1 0 1,-1 1 0,1 0 0,12 7 0,22 7-2009,-10-14-2510,-4-3-2980</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="647.37">478 185 7187,'0'0'4973,"3"13"-5031,1 9 118,20 77 501,-24-97-554,1-1 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0-1,0-1 1,0 1 0,1-1 0,-1 1-1,0-1 1,0 1 0,1-1 0,-1 1 0,0-1-1,1 0 1,-1 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,3-1 0,1 0 337,0 1 0,0-1 0,0-1 0,0 1 0,-1-1 0,9-4 0,-7 42-85,-4-32-412,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 0 1,7 1-1,-2-1-488,1 1 1,-1-1 0,1-1 0,-1 0 0,1-1 0,0 1 0,-1-2 0,1 1 0,-1-1-1,15-6 1,-22 7 606,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1-1,1 1 1,-1-1 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,2-4 0,-2 3 308,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,-2-7 0,1 5 234,0 1-1,-1-1 0,0 0 0,0 1 1,0-1-1,0 1 0,-1 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,-1 0 0,1 1 1,-1 0-1,-5-4 0,8 6-248,-2 1-200,2 0-267,9-2-1334,-1-1 1471,0 0-1,1 0 1,-1 0 0,-1-1-1,1-1 1,0 1-1,-1-1 1,0 0 0,0 0-1,0-1 1,-1 1 0,0-1-1,0-1 1,-1 1-1,1-1 1,-1 0 0,-1 1-1,5-13 1,-1 2 515,-1-1 0,-1 1 0,-1-1 0,0 0-1,-2 0 1,0 0 0,0-21 0,-4 67-581,-1 0-1,-2-1 1,-10 39 0,-4 21 278,2 40-1784,12-43-3560,4-20-3201</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1050.1">1119 822 12438,'0'0'4492,"14"-19"-4222,-2 2-246,11-14 39,-2-1 0,33-63 0,-44 68-55,-1 1-1,-2-2 0,0 1 0,-2-1 0,0 0 1,-2 0-1,-2-1 0,0 1 0,-4-29 0,3 53-9,-1 1-1,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,-1 0-1,1 1 0,-1-1 1,0 1-1,0 0 0,-4-5 1,5 8 10,1-1-8,0 1 1,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,-1 0-1,1 1 1,0-1 0,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 1-1,0-1 1,-1 0 0,1 1-6,-13 24 13,1 1 0,1 0 1,2 1-1,0 0 1,2 1-1,-5 33 0,6-11-222,2 91 0,4-127 2,0-9-108,0 0 1,0 0-1,1 0 0,-1-1 0,1 1 0,0 0 1,1-1-1,1 6 0,-2-8 6,0 0 0,0 0 0,1 0 0,-1-1 1,0 1-1,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,4 2 0,25 0-4990</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1050.08">1119 822 12438,'0'0'4492,"14"-19"-4222,-2 2-246,11-14 39,-2-1 0,33-63 0,-44 68-55,-1 1-1,-2-2 0,0 1 0,-2-1 0,0 0 1,-2 0-1,-2-1 0,0 1 0,-4-29 0,3 53-9,-1 1-1,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,-1 0-1,1 1 0,-1-1 1,0 1-1,0 0 0,-4-5 1,5 8 10,1-1-8,0 1 1,0 0-1,0 0 1,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,-1 0-1,1 1 1,0-1 0,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 1-1,0-1 1,-1 0 0,1 1-6,-13 24 13,1 1 0,1 0 1,2 1-1,0 0 1,2 1-1,-5 33 0,6-11-222,2 91 0,4-127 2,0-9-108,0 0 1,0 0-1,1 0 0,-1-1 0,1 1 0,0 0 1,1-1-1,1 6 0,-2-8 6,0 0 0,0 0 0,1 0 0,-1-1 1,0 1-1,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,4 2 0,25 0-4990</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2754.91">1454 588 3602,'0'0'12814,"0"-11"-11862,1-23-816,-1 34-137,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,1 0 0,-9 25 45,5-10 14,0-1 1,1 1 0,0 0-1,1 0 1,1 0 0,0 0 0,3 17-1,-3-31-62,1 1 0,-1-1-1,0 0 1,1 1 0,-1-1-1,1 0 1,0 1 0,-1-1-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,1 1-1,-1 0 1,0-1 0,0 1-1,1-1 1,-1 0 0,0 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,3-2 0,-1 2 27,-1-1 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,1-1 0,1-3 0,0-2 23,-1 1 0,0-1 1,0 0-1,-1 1 1,0-1-1,-1 0 0,0 0 1,0 0-1,0 0 0,-1 1 1,-2-9-1,3 13-45,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,-6-1 0,45-6-5233,18-21 6249,-33 15-948,-20 15-89,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,0 2 0,5 74 164,-4-72-121,0 0 0,0 0 0,1 1 0,-1-1-1,2 0 1,-1 0 0,0-1 0,1 1 0,0 0 0,4 5 0,-6-11-12,0 1 1,0 0-1,0-1 0,-1 1 1,1-1-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1-1 0,0 1 1,0 0-1,0 0 1,0-1-1,0 1 0,0 0 1,0-1-1,0 1 1,0-1-1,-1 1 0,1-1 1,0 1-1,0-1 1,-1 0-1,1 1 0,0-1 1,0-1-1,26-29 407,-26 29-431,10-15 41,9-12 225,-13 23-54,-4 10 32,-3-1-219,-1 5 1,1 0 0,1 0 0,-1 0 0,1 1 0,1-1 0,-1 0 0,4 8 0,-4-14-10,0 1 0,1-1 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,4 0 0,-1 0 17,0-1 1,0 1-1,0-1 1,0 0-1,0 0 1,-1-1-1,1 0 1,0 0-1,-1 0 1,1-1 0,-1 1-1,0-1 1,0-1-1,0 1 1,0-1-1,-1 1 1,1-1-1,5-8 1,-5 6 7,0-1 1,-1 1-1,0-1 1,-1 0-1,1 0 1,-2-1-1,1 1 1,-1-1-1,0 1 0,0-1 1,-1 0-1,0 0 1,0-14-1,-5-4 80,-1 15-443,4 11 326,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 1,0-1-1,0 1 0,-2 8 7,0 1 1,0 0 0,1 0-1,0 0 1,0 0 0,1 0-1,3 16 1,-2 8 0,-1-33 10,0 0 1,0 0-1,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,0 0 0,0 0 1,-1 0-1,1-1 0,0 1 0,2 0 1,-1 0 30,0-1 0,0 1 0,0-1 1,0 0-1,0 0 0,0 1 0,1-2 0,-1 1 1,0 0-1,0 0 0,0-1 0,0 1 1,3-2-1,9-3 136,-1-1 1,0 0-1,17-11 1,-22 12-285,-2 2 135,-1-1 1,0 0-1,0 0 0,0-1 1,-1 1-1,1-1 1,-1 0-1,0-1 0,0 1 1,-1 0-1,0-1 1,0 0-1,0 0 0,0 0 1,2-10-1,-1 0-205,-1 0 0,0-1-1,-1 1 1,0-31 0,-2 47 156,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 1,0 0-1,-1 0 0,1 1 0,0-1 0,-1 1 0,-13 8-27,8 1 36,1-1 0,0 1 0,0 1 0,1-1 0,0 0 0,1 1 0,0 0 0,0 0 0,2 0 0,-1 0 0,1 0 1,1 0-1,0 1 0,3 20 0,-3-30 15,0-1 0,0 1 1,1 0-1,-1-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 1 1,0-1-1,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 1 1,0-1-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1-1 0,2 0 1,2 0 18,1-1 1,-1 0 0,0 0 0,1 0 0,-1-1 0,0 0 0,0-1 0,9-6 0,16-18 130,-27 22-150,0 1 1,1 0-1,0 0 1,0 1-1,1 0 1,-1-1-1,1 2 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,1 1 0,-1 0 1,13-2-1,-18 5-26,0-1 0,1 1 0,-1 0-1,0-1 1,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,1 1-1,-1-1 1,0 0 0,0 1-1,0-1 1,0 3 0,3 41 26,-3-44 5,1 24 224,3-31 352,20-30-533,42-25-372,-42 40 120,-1 0 0,26-31-1,-44 45 212,1 0 0,-1-1-1,0 0 1,-1 0-1,0 0 1,0-1-1,-1 1 1,0-1-1,0 0 1,-1 1 0,0-1-1,1-12 1,-3 14 46,1-6 94,0 0 0,-1 0 0,-3-22 0,3 34-108,0 0 0,0-1 0,0 1-1,0-1 1,0 1 0,-1 0-1,1-1 1,0 1 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1-1 0,0 1-1,0 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 1-1,0-1 1,-1 0 0,1 1 0,0-1-1,0 1 1,-1-1 0,1 1 0,-1 0-1,1-1 1,0 1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0 0-1,-1 1 1,1-1 0,-1 0 0,-1 1-1,0 2-40,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1-1 1,0 1-1,1 0 1,-1 0-1,0-1 1,1 1-1,0 0 1,0 0-1,0 6 1,-3 4-18,-4 23-73,2 1 1,1 0-1,2 0 0,2 0 0,4 52 1,-1-2-4615,-2-59-304</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2974.46">2416 407 11589,'0'0'1249,"107"-64"-897,-54 52-320,0-1 16,-8 5 64,-9 1-16,-10 2-96,-8 2-528,-18 0-1265</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3890.51">767 1239 10341,'0'0'8628,"2"-6"-7964,-1 3-632,0 1 0,0-1 1,0 0-1,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0 0 0,1 0 1,-1 0-1,1 0 0,-1 1 0,1-1 0,0 1 1,0-1-1,-1 1 0,1 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,1 0 0,-1 0 0,0 0 1,5 0-1,-7 1-40,0 0 0,1-1 0,-1 1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 1,0-1-1,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 1-1,0-1 0,1 1 0,-1-1 0,0 0 1,0 3-1,4 42-51,-5-36 84,0 0-1,-1 0 1,0 1-1,-1-2 1,0 1 0,0 0-1,-1-1 1,0 1-1,-1-1 1,0 0-1,-1-1 1,1 1-1,-2-1 1,1 0-1,-1 0 1,-10 8-1,-4 3-126,-1-2 0,0 0 0,-2-1 0,-45 24 0,69-40 87,0 1-1,-1-1 1,1 0 0,-1 1-1,1-1 1,-1 1 0,1-1-1,-1 0 1,1 0 0,-1 1-1,0-1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0-1,1 1 1,-1-1 0,1 0-1,-1 0 1,0-1 0,1 1-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,0-1 0,1 1-1,-1 0 1,1 0 0,-1-1-1,0 0 1,4-19-274,24-26-72,-27 45 360,1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 1,0-1-1,1 1 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,2 1-1,-1 0 2,0 0 0,0 0 0,1 1-1,-1-1 1,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 1 0,2 1 0,4 8 36,-1 0-1,0 0 0,-1 0 0,4 13 1,-5-7-235,15 36 72,-2-31-2425,6-10-3624,-2-11-1055</inkml:trace>
@@ -7323,7 +6027,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">835 1462 4034,'0'0'10178,"0"-19"-5640,1 53-4494,-3 0 1,-1 0-1,-1 0 1,-2 0-1,-11 36 1,15-65-464,-1 1 1,0-1-1,-1 0 1,1-1 0,-1 1-1,0 0 1,0-1-1,0 0 1,-1 0 0,0 0-1,1-1 1,-1 0-1,-1 0 1,1 0 0,0 0-1,-1-1 1,-9 4-1,9-6-3687</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="686.1">751 805 4674,'0'0'7934,"-2"-4"-6821,0 2-1055,1 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 1 0,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,1-1 1,-1 1-1,0 0 0,1 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,0 0 1,1 1-1,-1-1 1,0 1-1,1-1 0,-1 1 1,1 0-1,0 0 0,-1-1 1,1 1-1,4-1 0,2-2-40,1 1 1,0 0-1,0 0 0,0 1 0,0 0 0,0 1 0,0 0 1,14 0-1,-20 1-30,-1 1 1,1-1 0,-1 1-1,0-1 1,1 1-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 1-1,0-1 1,0 1 0,0-1-1,0 1 1,-1 0-1,1-1 1,0 1 0,-1 0-1,1 0 1,-1 0-1,0 0 1,0 1 0,1-1-1,-1 0 1,-1 0-1,1 1 1,0-1 0,-1 1-1,1-1 1,0 5-1,2 11 37,-1-1 0,-1 1 0,-1 21-1,0-27 15,0-2-10,-1 0 0,0-1 1,-1 1-1,0 0 0,-1-1 1,0 1-1,0-1 0,-1 0 1,0 0-1,-1 0 0,-10 15 1,10-15 15,5-9-48,0 0-1,0 1 1,0-1 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,0 0-1,0 1 1,1-1-1,-1 0 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 0-1,0 1 1,0-1 0,0 0-1,1 0 1,-1 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,0-1-1,1 1 1,13 0-177,3-4 213,1-1-1,-1 0 1,0-1-1,0-1 0,-1 0 1,27-17-1,-31 11-1413,-10-4-5862,-2 17 6927,0-6-5537</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1317.18">876 97 3330,'0'0'8179,"-2"-6"-7378,0 0-702,1 4-60,0 1 0,0-1 0,0 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,4-3 0,5-2 77,-7 4-79,0 0 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1 0,0 1-1,1 0 1,4-1-1,-7 2-87,-2 6-149,0 0 168,0 0 1,0 0-1,1 0 1,0 0-1,0 0 1,2 10-1,0 4 94,-2-16-82,1 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 1,1-1-1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,1-1 0,-1 0 0,7 3 0,-6-3 12,0 0 0,0 1 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-1 1 0,0-1 0,0 1 0,-1 0-1,1 0 1,3 8 0,-6-10 20,0 0 0,1 0 0,-1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,1 0 0,-4 1 0,-10 7 324,-1-1 0,-27 10 0,20-9-528,11-5-385</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1317.16">876 97 3330,'0'0'8179,"-2"-6"-7378,0 0-702,1 4-60,0 1 0,0-1 0,0 0 0,0 1 0,1-1 1,-1 0-1,0 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,4-3 0,5-2 77,-7 4-79,0 0 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1 0,0 1-1,1 0 1,4-1-1,-7 2-87,-2 6-149,0 0 168,0 0 1,0 0-1,1 0 1,0 0-1,0 0 1,2 10-1,0 4 94,-2-16-82,1 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 1,1-1-1,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,1-1 0,-1 0 0,7 3 0,-6-3 12,0 0 0,0 1 0,0 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-1 1 0,0-1 0,0 1 0,-1 0-1,1 0 1,3 8 0,-6-10 20,0 0 0,1 0 0,-1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,1 0 0,-4 1 0,-10 7 324,-1-1 0,-27 10 0,20-9-528,11-5-385</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13772.77">92 911 5475,'0'0'3927,"-14"-5"-187,15 7-3740,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1-1,-1 0 1,1-1 0,-1 1 0,1-1 0,3 1 0,42 9 84,27-1 364,-16-1-69,69 1 0,-122-10-351,1 0 1,-1-1-1,1 0 1,-1 0-1,1 0 1,-1-1-1,0 1 1,0-1-1,6-5 1,8-4-122,-18 12 10,-1 7-8310</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14330.2">141 771 1857,'0'0'7150,"0"-16"-6035,-1 22-1053,0-1-1,0 1 1,0-1 0,0 0 0,-1 1-1,0-1 1,0 0 0,0 0 0,-1 0-1,0 0 1,0-1 0,0 1-1,0-1 1,-6 6 0,-9 8 147,-36 30 1,31-29-106,15-11 79,17-8 64,13-2-168,5 2 34,0 2-1,0 1 1,1 2-1,-2 0 1,37 13-1,-56-16-161,-1 1-1,1 1 1,-1-1 0,0 1-1,7 5 1,3 6-2942,-10-9-314</inkml:trace>
 </inkml:ink>
@@ -7354,7 +6058,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">192 199 5891,'0'0'8316,"-4"-6"-7465,-2-3-584,4 6-183,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 1,-1 1-1,-6-2 0,6 2-94,-1 0 0,1 0 0,-1 0 0,0 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 1 1,0-1-1,0 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 6 0,1-7-20,-1-1-1,1 1 1,-1-1-1,1 1 1,0 0 0,0-1-1,0 0 1,0 1 0,0-1-1,1 0 1,-1 1-1,1-1 1,0 0 0,-1 0-1,1 0 1,0 0-1,0-1 1,0 1 0,0 0-1,1-1 1,3 3 0,63 27-546,-26-13 451,-43-18 122,1 1 0,0-1-1,0 0 1,-1 1-1,1-1 1,-1 1 0,1-1-1,0 1 1,-1-1 0,1 1-1,-1-1 1,1 1-1,-1 0 1,1-1 0,-1 1-1,1-1 1,-1 1-1,0 0 1,1 0 0,-1-1-1,0 1 1,0 0 0,0 0-1,1-1 1,-1 1-1,0 0 1,0 0 0,0 1-1,-15 17 53,-32 8 165,45-26-205,-82 35-228,82-33-423</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1237.68">241 342 160,'0'0'11069,"0"-1"-11048,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 1,0-1-1,1 1 0,0 0 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,0 1 1,-1 0-1,1 0 0,-1 0 1,1 1-1,0-1 0,3 4 30,-1 1-1,1 0 1,-1 1-1,0-1 1,-1 0-1,1 1 1,-1-1-1,0 1 0,0 0 1,1 8-1,-2-15 8,0 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0-1-1,1-1 1,6-10 62,18-26-41,-25 37-72,0 0 1,1 1-1,-1-1 0,1 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,1 1 1,3-1-1,-4 2-14,1 0 1,-1 1 0,1-1-1,-1 1 1,1-1-1,-1 1 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,-1 1-1,0-1 1,1 1 0,0 4-1,0-3 35,0 0-1,0 0 1,0 0-1,1 0 0,0 0 1,-1-1-1,1 1 1,7 5-1,-9-9-6,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,1-1 0,27-30 244,-16 17-241,14-8 96,-26 22 43,4 8-374,-1 1 219,1-1 0,1 0 1,-1 0-1,1-1 0,0 1 0,11 8 0,-12-12-152,0 0 0,-1-1-1,1 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 0 0,1 0 0,-1 0 0,0-1 0,9 0-1,-12 0 88,0 1-1,0-1 0,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 0,-1-1 0,0 1 1,3-4-1,-3 3 73,0-1 0,0 0 1,0 1-1,-1-1 0,1 0 0,-1 0 1,1 1-1,-1-1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-2-3 1,1 5 5,1 0 1,-1 0 0,1 1 0,-1-1 0,0 0-1,1 1 1,-1-1 0,0 0 0,1 1 0,-1-1-1,0 1 1,0-1 0,0 1 0,1-1 0,-1 1-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,1-1 0,-1 1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,-1 0 0,0-1-16,0 1 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,-2 4 0,3-4-12,0 1 1,0-1-1,0 1 0,0 0 0,1 0 1,-1-1-1,0 1 0,1 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 3-1,1-4-7,-1-1 1,0 1-1,1-1 1,-1 1-1,1 0 0,0-1 1,-1 0-1,1 1 1,-1-1-1,1 1 1,0-1-1,-1 0 0,1 1 1,0-1-1,-1 0 1,1 0-1,0 1 1,-1-1-1,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 1,2-1-1,5 0 1,-1 0-1,1-1 1,-1-1 0,1 1 0,-1-1 0,0 0-1,8-5 1,-13 8 15,8-6 31,0 1 0,-1-1 1,0 0-1,0-1 0,0 0 0,0 0 0,-1-1 0,0 0 0,9-14 0,-17 28 183,0 0 0,0 0 1,0 0-1,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,2 7 0,-2-10-222,-1 0 0,1 0 0,0-1 0,0 1-1,0 0 1,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1-1,1 0 1,0 1 0,0-1 0,0 0 0,0 0 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,3 0 0,-1-1 38,1 0 1,0-1-1,0 1 0,-1-1 0,1-1 1,-1 1-1,1-1 0,-1 0 1,1 0-1,-1 0 0,0-1 1,0 1-1,0-2 0,-1 1 0,1 0 1,7-8-1,5-6 26,-2 0-1,26-36 1,-33 41-49,1-3-30,0-1 0,-1 0 0,-1 0 0,-1-1 0,0 0 0,-1 0 0,-1 0-1,-1-1 1,0 1 0,-1-1 0,-1 0 0,-2-30 0,2 48 13,-1 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,-1 1 1,1 0 0,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0-1 0,-1 1 0,1 0-1,0 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,-13 18-216,4 7 241,1-1-1,1 1 0,1 1 1,1 0-1,1 0 0,2 0 1,-1 47-1,3-65-32,1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,0 0 0,4 7 0,-5-12 5,0-2 0,0 1 1,1 0-1,-1 0 0,0 0 0,1 0 0,0-1 1,-1 1-1,1-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,0-1 0,1 1 1,-1-1-1,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,1-1 0,-1 1 0,0-1 1,0 1-1,1-1 0,-1 0 0,3-1 0,1-1-1,-1 1 0,0-1-1,1 0 1,-1 0 0,0 0-1,-1-1 1,1 0 0,0 0 0,-1 0-1,0 0 1,0-1 0,0 0-1,-1 1 1,0-1 0,0-1-1,0 1 1,0 0 0,-1-1-1,3-7 1,-1 0-263,0-1 0,-1 0 0,0 1 0,-2-1 0,2-23 0,-8 124-23,1 34 267,5-105-1416,0 0 1,6 28 0,2-18-3435</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1237.66">241 342 160,'0'0'11069,"0"-1"-11048,1 1 1,-1-1-1,0 1 1,1-1-1,-1 1 0,1 0 1,-1-1-1,1 1 0,-1 0 1,0-1-1,1 1 0,0 0 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1-1 0,0 1 1,-1 0-1,1 0 0,-1 0 1,1 1-1,0-1 0,3 4 30,-1 1-1,1 0 1,-1 1-1,0-1 1,-1 0-1,1 1 1,-1-1-1,0 1 0,0 0 1,1 8-1,-2-15 8,0 1-1,1-1 1,-1 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0-1-1,1-1 1,6-10 62,18-26-41,-25 37-72,0 0 1,1 1-1,-1-1 0,1 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 1-1,0-1 0,1 1 1,3-1-1,-4 2-14,1 0 1,-1 1 0,1-1-1,-1 1 1,1-1-1,-1 1 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,0 0 0,-1 1-1,1-1 1,-1 1-1,0-1 1,1 1 0,0 4-1,0-3 35,0 0-1,0 0 1,0 0-1,1 0 0,0 0 1,-1-1-1,1 1 1,7 5-1,-9-9-6,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,1-1 0,27-30 244,-16 17-241,14-8 96,-26 22 43,4 8-374,-1 1 219,1-1 0,1 0 1,-1 0-1,1-1 0,0 1 0,11 8 0,-12-12-152,0 0 0,-1-1-1,1 0 1,0 0 0,0 0 0,0 0 0,0-1 0,0 0 0,1 0 0,-1 0 0,0-1 0,9 0-1,-12 0 88,0 1-1,0-1 0,0-1 0,0 1 0,0 0 1,0 0-1,0-1 0,0 1 0,0-1 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 0,-1-1 0,0 1 1,3-4-1,-3 3 73,0-1 0,0 0 1,0 1-1,-1-1 0,1 0 0,-1 0 1,1 1-1,-1-1 0,0 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,-1-1 0,1 0 0,-2-3 1,1 5 5,1 0 1,-1 0 0,1 1 0,-1-1 0,0 0-1,1 1 1,-1-1 0,0 0 0,1 1 0,-1-1-1,0 1 1,0-1 0,0 1 0,1-1 0,-1 1-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,1-1 0,-1 1 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,-1 0 0,0-1-16,0 1 0,0-1 0,0 1 0,0 0 0,0-1-1,0 1 1,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,-2 4 0,3-4-12,0 1 1,0-1-1,0 1 0,0 0 0,1 0 1,-1-1-1,0 1 0,1 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 3-1,1-4-7,-1-1 1,0 1-1,1-1 1,-1 1-1,1 0 0,0-1 1,-1 0-1,1 1 1,-1-1-1,1 1 1,0-1-1,-1 0 0,1 1 1,0-1-1,-1 0 1,1 0-1,0 1 1,-1-1-1,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 1,0 0-1,-1 0 1,2-1-1,5 0 1,-1 0-1,1-1 1,-1-1 0,1 1 0,-1-1 0,0 0-1,8-5 1,-13 8 15,8-6 31,0 1 0,-1-1 1,0 0-1,0-1 0,0 0 0,0 0 0,-1-1 0,0 0 0,9-14 0,-17 28 183,0 0 0,0 0 1,0 0-1,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,2 7 0,-2-10-222,-1 0 0,1 0 0,0-1 0,0 1-1,0 0 1,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1-1,1 0 1,0 1 0,0-1 0,0 0 0,0 0 0,1-1 0,-1 1-1,0 0 1,1-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,3 0 0,-1-1 38,1 0 1,0-1-1,0 1 0,-1-1 0,1-1 1,-1 1-1,1-1 0,-1 0 1,1 0-1,-1 0 0,0-1 1,0 1-1,0-2 0,-1 1 0,1 0 1,7-8-1,5-6 26,-2 0-1,26-36 1,-33 41-49,1-3-30,0-1 0,-1 0 0,-1 0 0,-1-1 0,0 0 0,-1 0 0,-1 0-1,-1-1 1,0 1 0,-1-1 0,-1 0 0,-2-30 0,2 48 13,-1 0-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,0-1-1,-1 1 1,1 0 0,0 0 0,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0-1 0,-1 1 0,1 0-1,0 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,-13 18-216,4 7 241,1-1-1,1 1 0,1 1 1,1 0-1,1 0 0,2 0 1,-1 47-1,3-65-32,1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,0 0 0,4 7 0,-5-12 5,0-2 0,0 1 1,1 0-1,-1 0 0,0 0 0,1 0 0,0-1 1,-1 1-1,1-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 0,0-1 0,1 1 1,-1-1-1,0 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,1-1 0,-1 1 0,0-1 1,0 1-1,1-1 0,-1 0 0,3-1 0,1-1-1,-1 1 0,0-1-1,1 0 1,-1 0 0,0 0-1,-1-1 1,1 0 0,0 0 0,-1 0-1,0 0 1,0-1 0,0 0-1,-1 1 1,0-1 0,0-1-1,0 1 1,0 0 0,-1-1-1,3-7 1,-1 0-263,0-1 0,-1 0 0,0 1 0,-2-1 0,2-23 0,-8 124-23,1 34 267,5-105-1416,0 0 1,6 28 0,2-18-3435</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7691,7 +6395,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">75 48 5378,'0'0'8383,"0"-7"-7132,0-25-325,0 24-224,-1 8-673,0 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 0 0,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 1 0,1-1 1,-1 1-1,1-1 0,0 0 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 1 0,0-1 1,0 1-1,-1-1 0,1 1 1,-20 80 104,-18 150 1,37-224-207,1 20 490,0-26-405,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 1,1 1-1,-1-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 1 1,1-1-1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,2 0 0,41 0 149,115-4-2873,-134 1-267,1 0 0,28-10 0,-17 2-2608</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1256.14">427 174 3169,'0'0'9642,"-11"-11"-8708,-38-32-464,48 42-455,-1 1 1,1-1 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0-1,1 1 1,-1 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 1 0,1-1 0,-1 1-1,1-1 1,-1 1 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,-1 2-1,-3 5 10,0 0 0,1 1 0,0-1 0,-5 15 1,5-7 61,0-1 0,1 1 0,1 0 0,0 0 0,1 27 0,2-42-99,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 1,1-1-1,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1-1 0,29-3-104,-23-1 159,1-1 0,-1 0-1,0 0 1,0-1 0,-1 0 0,0 0-1,0-1 1,-1 0 0,0 0 0,0-1-1,-1 0 1,0 1 0,6-19-1,-12 36-84,0 0-1,1 0 1,-1 0-1,2-1 1,0 12-1,1 13 127,-2-31-75,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1-1,0-1 1,0 1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,4 4 0,-3-5-2,1 1-1,-1 0 1,1 0-1,-1-1 1,1 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1 0 1,2-2-1,1-1 5,0 0 0,-1 0 0,1-1-1,-1 1 1,0-1 0,-1 0 0,1-1-1,-1 1 1,0-1 0,0 0 0,-1 0 0,0 0-1,0-1 1,0 1 0,-1-1 0,0 1 0,0-1-1,0 0 1,-1 0 0,0 1 0,-1-1-1,0 0 1,0 0 0,0 0 0,-1 0 0,-1-9-1,1 14-75,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,-3 0 1,6 1-539,11 0 129,126 0-2454,-138 1 2939,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,-1 32 1177,1-26-671,0 6 117,1 30 535,0-43-1157,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,2 1 0,4-1 14,1 0 0,-1 0 0,0-1 0,0 0 0,0 0 0,0-1-1,0 0 1,0 0 0,0 0 0,-1-1 0,1 0 0,-1 0 0,0-1 0,1 0-1,-2 0 1,1 0 0,0-1 0,-1 0 0,0 0 0,0 0 0,0-1-1,-1 1 1,0-1 0,7-12 0,-9 13-29,0 1 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-10 0,-1 13 2,0-1 1,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,-1 0-1,1 0 1,-1-1 0,1 1-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,0 0 1,1 0 0,-1 0-1,0 1 1,0-1-1,0 0 1,0 0 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 1 0,0-1-1,-1 1 1,1 0-1,0-1 1,-2 1 0,3 0-14,-1 1 1,0-1-1,1 1 1,-1-1-1,0 0 1,1 1-1,-1-1 1,0 1 0,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,0 0 1,-1-1-1,1 1 1,-1 0-1,1-1 1,0 1-1,0 0 1,-1 0 0,1-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 1 1,0 32 11,1-26-46,-1 29 57,1-1 0,2 0 0,12 57 0,-10-76-5,-2 0-1,0 1 1,-1-1-1,0 0 1,-2 31 0,-1-42 30,1 0 1,-1-1 0,-1 1-1,1-1 1,-1 1 0,0-1-1,0 0 1,0 0 0,-1 1 0,0-2-1,0 1 1,0 0 0,-1-1-1,1 1 1,-1-1 0,0 0-1,-1 0 1,1-1 0,0 1-1,-10 4 1,14-7 11,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-2 0 0,8-21 77,27-32-434,41-41-247,95-95 0,-140 163 393,36-38-265,-61 61 429,-1 0 1,0 0-1,0-1 1,0 1-1,0-1 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,0 0 1,1-9-1,-3 13 45,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,-2-1 0,-45 4 153,39-3-187,1 1-1,0 1 1,0 0-1,0 0 0,1 0 1,-1 1-1,1 0 1,-1 1-1,1-1 1,1 1-1,-1 1 0,1-1 1,0 1-1,0 0 1,-9 13-1,11-13-10,0 0 0,0 0 0,0 0 0,1 0 0,0 1 0,0-1 1,1 1-1,0 0 0,0 0 0,1 0 0,-1 0 0,2 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,2 9 0,-1-13 0,-1-1-1,1 1 0,-1 0 1,1-1-1,0 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,0-1-1,0 1 1,0-1-1,0 0 0,0 0 1,0-1-1,0 1 0,5 0 1,10 1-1,0 0 1,28-1-1,-36-1 15,6 0-111,77-3-488,-32-10-3209,-30 4-1625</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1256.12">427 174 3169,'0'0'9642,"-11"-11"-8708,-38-32-464,48 42-455,-1 1 1,1-1 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0-1,1 1 1,-1 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,1 0 0,-1 0-1,0 0 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 1 0,1-1 0,-1 1-1,1-1 1,-1 1 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,-1 2-1,-3 5 10,0 0 0,1 1 0,0-1 0,-5 15 1,5-7 61,0-1 0,1 1 0,1 0 0,0 0 0,1 27 0,2-42-99,0-1-1,-1 1 0,1 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 1,1-1-1,0 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1-1 0,29-3-104,-23-1 159,1-1 0,-1 0-1,0 0 1,0-1 0,-1 0 0,0 0-1,0-1 1,-1 0 0,0 0 0,0-1-1,-1 0 1,0 1 0,6-19-1,-12 36-84,0 0-1,1 0 1,-1 0-1,2-1 1,0 12-1,1 13 127,-2-31-75,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1-1,0-1 1,0 1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,4 4 0,-3-5-2,1 1-1,-1 0 1,1 0-1,-1-1 1,1 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,-1-1-1,1 1 1,-1-1-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1 0 1,2-2-1,1-1 5,0 0 0,-1 0 0,1-1-1,-1 1 1,0-1 0,-1 0 0,1-1-1,-1 1 1,0-1 0,0 0 0,-1 0 0,0 0-1,0-1 1,0 1 0,-1-1 0,0 1 0,0-1-1,0 0 1,-1 0 0,0 1 0,-1-1-1,0 0 1,0 0 0,0 0 0,-1 0 0,-1-9-1,1 14-75,0 1 1,0-1-1,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,-3 0 1,6 1-539,11 0 129,126 0-2454,-138 1 2939,1-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,-1 32 1177,1-26-671,0 6 117,1 30 535,0-43-1157,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,2 1 0,4-1 14,1 0 0,-1 0 0,0-1 0,0 0 0,0 0 0,0-1-1,0 0 1,0 0 0,0 0 0,-1-1 0,1 0 0,-1 0 0,0-1 0,1 0-1,-2 0 1,1 0 0,0-1 0,-1 0 0,0 0 0,0 0 0,0-1-1,-1 1 1,0-1 0,7-12 0,-9 13-29,0 1 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-10 0,-1 13 2,0-1 1,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,-1 0-1,1 0 1,-1-1 0,1 1-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0 0-1,0 0 1,1 0 0,-1 0-1,0 1 1,0-1-1,0 0 1,0 0 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 1 0,0-1-1,-1 1 1,1 0-1,0-1 1,-2 1 0,3 0-14,-1 1 1,0-1-1,1 1 1,-1-1-1,0 0 1,1 1-1,-1-1 1,0 1 0,1-1-1,-1 1 1,1 0-1,-1-1 1,1 1-1,0 0 1,-1-1-1,1 1 1,-1 0-1,1-1 1,0 1-1,0 0 1,-1 0 0,1-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 1 1,0 32 11,1-26-46,-1 29 57,1-1 0,2 0 0,12 57 0,-10-76-5,-2 0-1,0 1 1,-1-1-1,0 0 1,-2 31 0,-1-42 30,1 0 1,-1-1 0,-1 1-1,1-1 1,-1 1 0,0-1-1,0 0 1,0 0 0,-1 1 0,0-2-1,0 1 1,0 0 0,-1-1-1,1 1 1,-1-1 0,0 0-1,-1 0 1,1-1 0,0 1-1,-10 4 1,14-7 11,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0-1,1 1 1,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-2 0 0,8-21 77,27-32-434,41-41-247,95-95 0,-140 163 393,36-38-265,-61 61 429,-1 0 1,0 0-1,0-1 1,0 1-1,0-1 1,-1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,0 0 1,1-9-1,-3 13 45,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,-2-1 0,-45 4 153,39-3-187,1 1-1,0 1 1,0 0-1,0 0 0,1 0 1,-1 1-1,1 0 1,-1 1-1,1-1 1,1 1-1,-1 1 0,1-1 1,0 1-1,0 0 1,-9 13-1,11-13-10,0 0 0,0 0 0,0 0 0,1 0 0,0 1 0,0-1 1,1 1-1,0 0 0,0 0 0,1 0 0,-1 0 0,2 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,2 9 0,-1-13 0,-1-1-1,1 1 0,-1 0 1,1-1-1,0 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1-1 0,1 1 1,0-1-1,0 1 1,0-1-1,0 0 0,0 0 1,0-1-1,0 1 0,5 0 1,10 1-1,0 0 1,28-1-1,-36-1 15,6 0-111,77-3-488,-32-10-3209,-30 4-1625</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7992,8 +6696,8 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">201 250 6515,'0'0'6875,"-23"-5"-5151,16 6-1660,0 0 1,0 0-1,-1 0 1,1 1-1,0 0 1,0 0-1,1 1 1,-1 0-1,0 0 1,1 1-1,0 0 1,0 0-1,0 0 1,0 1-1,1 0 1,-1 0-1,-7 11 1,7-9-57,0 0 1,1 1 0,0 0 0,0 1-1,1-1 1,0 1 0,0 0 0,1 0-1,0 0 1,1 0 0,0 0-1,0 1 1,0 14 0,2-22-24,0 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 0,0 0 0,0 0 0,-1-1 1,1 1-1,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 1,1-1-1,-1 0 0,1 1 0,-1-1 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,0-1 0,0 1 1,-1 0-1,1-1 0,0 0 0,0 1 0,0-1 0,0 0 1,2 0-1,11 2-1,0-2 1,-1 0-1,21-2 0,-26 1 33,1 0-12,-1 0-1,1-1 1,-1 0-1,0 0 1,1-1-1,-1 0 1,-1-1-1,1 0 1,0 0-1,-1-1 1,0 0-1,0-1 1,-1 0-1,1 0 1,11-12-1,-18 15 6,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1-1,0 1 1,0 0 0,0-1 0,-3-1 0,-9-9-58,-1 1-1,0 0 0,-32-18 1,22 15-38,17 9 96,0 0-1,0 0 1,1-1 0,0 0 0,0 0 0,1-1 0,-8-10 0,13 16-30,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 1,0 1-1,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 1,0-1-1,0 1 0,3-2 0,7-4-137,1 1 1,0 0-1,0 1 1,1 0 0,0 1-1,0 1 1,22-3-1,7 2-33,48 1-1,-89 3 189,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 1 1,-1-1-1,0 0 0,1 1 0,-1-1 1,0 1-1,1-1 0,-1 1 1,0 0-1,0-1 0,-1 1 1,1 0-1,0 0 0,0 2 0,1 4 102,-1 1 0,0-1-1,-1 1 1,0-1-1,-2 17 1,1-15 5,0-4-57,-1 0-1,1-1 1,-1 1-1,0 0 1,-1-1-1,0 0 1,1 0 0,-1 0-1,-1 0 1,1 0-1,-1 0 1,0-1-1,0 0 1,0 0-1,-1 0 1,1 0-1,-8 4 1,6-4-272,0 0-1,1 1 1,0 0 0,0 0 0,0 0-1,0 0 1,1 1 0,0 0 0,0 0-1,0 0 1,-3 9 0,6-4-2615,1-7-1462</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="578.82">656 228 6515,'0'0'9298,"-17"11"-8719,-53 38-107,67-47-462,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 1 1,0-1-1,0 1 1,0-1-1,0 1 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 1-1,0-1 0,0 0 1,0 0-1,0 1 1,1 3-1,0-5-3,0 1 0,0-1-1,0 1 1,1-1 0,-1 1 0,0-1 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,1 1 0,-1-1-1,0 1 1,1-1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,4 0 0,16 1 120,-1 0 1,38-3-1,-51 0-98,-1 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0 0,0-1 0,12-8 0,-18 12-11,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1-1 1,0 1 0,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 1-1,-1-2 1,-7-5 53,0 1-1,-1 0 1,0 0 0,-11-4 0,11 5-137,-13-6 47,3 1 55,0-1-1,1 0 1,-29-23 0,45 31-47,0 1 0,-1-1 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 1,0 0-1,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 1,0 0-1,0 0 0,0 0 0,1 0 0,1-5 0,-1 6-27,1 1-1,-1 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,0 1-1,0-1 1,0 0 0,1 0-1,-1 1 1,0-1-1,1 1 1,-1 0-1,1 0 1,-1 0 0,4-1-1,50-13-579,-51 14 541,18-3-161,0 2 1,41-1-1,-63 4 225,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,-1 3 1,-3 49-89,1-42 179,-1 1-1,0-1 1,-1 0 0,-1 0 0,-9 14-1,-14 33-1749,18-15-3613,10-22-1987</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="838.34">1302 108 8340,'0'0'6467,"-85"94"-5363,54-56-271,-9 3-129,9-3-448,4-5 48,5 0-224,4-5-32,5-5-48,4-8-32,0-2-1200,4-8-1794</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="578.8">656 228 6515,'0'0'9298,"-17"11"-8719,-53 38-107,67-47-462,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,1 1 1,0-1-1,0 1 1,0-1-1,0 1 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 1-1,0-1 0,0 0 1,0 0-1,0 1 1,1 3-1,0-5-3,0 1 0,0-1-1,0 1 1,1-1 0,-1 1 0,0-1 0,1 0-1,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0-1 0,1 1 0,-1-1-1,0 1 1,1-1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,4 0 0,16 1 120,-1 0 1,38-3-1,-51 0-98,-1 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0 0,0-1 0,12-8 0,-18 12-11,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1-1 1,0 1 0,0 0-1,1 0 1,-1 0-1,0-1 1,0 1-1,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,0 0-1,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 1-1,-1-2 1,-7-5 53,0 1-1,-1 0 1,0 0 0,-11-4 0,11 5-137,-13-6 47,3 1 55,0-1-1,1 0 1,-29-23 0,45 31-47,0 1 0,-1-1 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 1,0 0-1,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 1,0 0-1,0 0 0,0 0 0,1 0 0,1-5 0,-1 6-27,1 1-1,-1 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,0 1-1,0-1 1,0 0 0,1 0-1,-1 1 1,0-1-1,1 1 1,-1 0-1,1 0 1,-1 0 0,4-1-1,50-13-579,-51 14 541,18-3-161,0 2 1,41-1-1,-63 4 225,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,-1 0-1,1 1 1,-1-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,0 1 1,0-1-1,-1 3 1,-3 49-89,1-42 179,-1 1-1,0-1 1,-1 0 0,-1 0 0,-9 14-1,-14 33-1749,18-15-3613,10-22-1987</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="838.33">1302 108 8340,'0'0'6467,"-85"94"-5363,54-56-271,-9 3-129,9-3-448,4-5 48,5 0-224,4-5-32,5-5-48,4-8-32,0-2-1200,4-8-1794</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1036.31">959 1 10917,'0'0'5298,"44"43"-6706,-8-18-657,-5 6-2017,0 0-3714</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1231.29">1258 403 11221,'0'0'9332,"4"0"-9396,-4 5-2305,0 0-1488</inkml:trace>
 </inkml:ink>
@@ -8024,7 +6728,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">232 282 4386,'0'0'7969,"-37"-3"-3700,29 4-4223,1 0 0,-1 0 0,1 1 1,-1 0-1,1 0 0,0 1 1,0 0-1,0 0 0,0 1 0,0 0 1,1 0-1,0 0 0,-1 1 1,2 0-1,-1 0 0,1 1 0,-1-1 1,1 1-1,1 0 0,-7 11 0,4-6-8,0 1-1,0 0 0,2 1 1,-1-1-1,2 1 0,-1 0 0,2 0 1,0 1-1,0-1 0,-1 26 1,4-36-38,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,3 3 0,-2-2-9,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 1,0-1-1,1 0 0,-1-1 0,6 1 0,12 2 37,1-1 1,-1-2-1,30-2 1,-45 1-17,0 0-1,1 0 1,-1 0 0,0-1-1,0 0 1,0-1 0,0 0-1,0 0 1,-1 0 0,1-1-1,-1 0 1,0 0 0,11-10-1,-15 11-1,0 1-1,0-1 0,0 0 0,0 0 1,0 1-1,-1-1 0,0-1 0,0 1 0,1 0 1,-2 0-1,1 0 0,0-1 0,-1 1 1,1 0-1,-1 0 0,0-1 0,0 1 1,0 0-1,-1-1 0,1 1 0,-1 0 1,0-1-1,-2-4 0,0-1-6,0 1 1,-1 1-1,0-1 0,-1 1 1,0-1-1,0 1 0,-11-11 0,-4-1-57,-1 2 0,-31-21 0,32 24 24,-1-1-1,2 0 1,-25-26-1,39 35 13,0 0 0,1 0 0,-1-1-1,1 1 1,0-1 0,1 0 0,0 0-1,0 0 1,0 0 0,1-1-1,0 1 1,1-1 0,-1 1 0,1-1-1,1-9 1,0 13 2,0 0 0,0 1 0,0-1 0,1 1 1,-1-1-1,1 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,0 0 0,0 0 0,0 0 0,4-4 1,1 1-1,-1 1 1,1 0-1,0 1 1,0-1-1,1 1 1,9-3-1,-3 1-6,1 0-1,0 2 1,1 0-1,-1 0 1,1 2-1,0 0 0,0 0 1,24 2-1,-34 0 21,0 1-1,1 0 0,-1 0 1,0 1-1,0-1 0,0 1 1,0 1-1,0-1 0,-1 1 0,10 6 1,-12-7 0,0 1 1,0-1 0,0 1-1,0 0 1,-1 0-1,1 1 1,-1-1 0,0 0-1,0 1 1,0-1 0,-1 1-1,1 0 1,-1-1-1,0 1 1,0 0 0,0 0-1,0 0 1,-1 5 0,1 1 27,-1-1 0,0 0 0,0 0 0,-1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1-1 0,-8 17 0,-1-5-117,0 0-1,-29 34 1,10-15-826,-9 23-5803,30-40-65</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="573.05">571 358 8196,'0'0'6859,"-16"5"-6608,1-1-174,10-3-41,-1 0 0,0 1 1,1-1-1,-1 1 0,1 1 0,-1-1 0,1 1 0,0 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,1 1 1,0 0-1,-5 7 0,3-4 21,1-1 0,-1 1-1,1 1 1,1-1 0,0 1 0,0 0-1,0 0 1,1 0 0,0 0 0,0 1-1,1-1 1,1 1 0,-1 0 0,1-1-1,1 1 1,-1 0 0,3 17 0,-1-23-56,0-1 1,0 1 0,0 0-1,0-1 1,1 0 0,-1 1-1,1-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0-1 1,0 1 0,0 0-1,1 0 1,-1-1 0,0 0-1,1 1 1,-1-1 0,1 0-1,0 0 1,-1 0-1,1-1 1,0 1 0,4 0-1,9 2 14,0-2 0,0 0 0,20 0 0,-23-2-11,-8 2 0,1-1-1,0 0 1,-1-1-1,1 1 1,0-1-1,-1 0 1,1-1-1,-1 1 1,0-1-1,10-5 1,-13 6 6,0-1 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,0 0 0,-1-1 0,0 1 0,1-1 1,-1 0-1,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 1,-1-3-1,-3-7 5,0 1 1,-1-1 0,0 1 0,-1 1-1,-1-1 1,0 1 0,0 1 0,-1 0 0,-17-16-1,0-2-10,-5-9 13,-35-52-1,56 74-35,1 0 0,1-1 0,0 0 0,1 0 0,1 0 1,-8-35-1,13 49 10,0 0 1,0-1-1,1 1 1,-1 0 0,1-1-1,0 1 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,1-1 1,-1 1-1,1 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,1 0 1,0 0-1,-1 1 1,1-1 0,0 1-1,3-3 1,3 2-50,0 0-1,0 0 1,0 0 0,1 1 0,-1 1 0,0-1-1,14 2 1,-22-1 56,13 0-23,-1 0 1,1 1-1,-1 0 0,1 1 0,-1 1 0,0 0 0,14 5 1,-21-6 19,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 1,0 0-1,0 1 0,0-1 0,0 1 0,-1 0 0,2 7 0,-1 0 27,-1-1 0,0 0 1,-1 1-1,0-1 0,-1 1 0,0-1 1,0 1-1,-1-1 0,-1 0 0,0 0 1,-1 0-1,-7 16 0,0-6-755,0-1-1,-2-1 1,0 0-1,-1-1 1,-22 22-1,5-9-4160</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="573.04">571 358 8196,'0'0'6859,"-16"5"-6608,1-1-174,10-3-41,-1 0 0,0 1 1,1-1-1,-1 1 0,1 1 0,-1-1 0,1 1 0,0 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,1 1 1,0 0-1,-5 7 0,3-4 21,1-1 0,-1 1-1,1 1 1,1-1 0,0 1 0,0 0-1,0 0 1,1 0 0,0 0 0,0 1-1,1-1 1,1 1 0,-1 0 0,1-1-1,1 1 1,-1 0 0,3 17 0,-1-23-56,0-1 1,0 1 0,0 0-1,0-1 1,1 0 0,-1 1-1,1-1 1,0 0 0,0 1-1,0-1 1,0 0-1,0-1 1,0 1 0,0 0-1,1 0 1,-1-1 0,0 0-1,1 1 1,-1-1 0,1 0-1,0 0 1,-1 0-1,1-1 1,0 1 0,4 0-1,9 2 14,0-2 0,0 0 0,20 0 0,-23-2-11,-8 2 0,1-1-1,0 0 1,-1-1-1,1 1 1,0-1-1,-1 0 1,1-1-1,-1 1 1,0-1-1,10-5 1,-13 6 6,0-1 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,0 0 0,-1-1 0,0 1 0,1-1 1,-1 0-1,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 1,-1-3-1,-3-7 5,0 1 1,-1-1 0,0 1 0,-1 1-1,-1-1 1,0 1 0,0 1 0,-1 0 0,-17-16-1,0-2-10,-5-9 13,-35-52-1,56 74-35,1 0 0,1-1 0,0 0 0,1 0 0,1 0 1,-8-35-1,13 49 10,0 0 1,0-1-1,1 1 1,-1 0 0,1-1-1,0 1 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,1-1 1,-1 1-1,1 0 1,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,0 0 0,1 0-1,-1 0 1,0 0-1,1 0 1,0 0-1,-1 1 1,1-1 0,0 1-1,3-3 1,3 2-50,0 0-1,0 0 1,0 0 0,1 1 0,-1 1 0,0-1-1,14 2 1,-22-1 56,13 0-23,-1 0 1,1 1-1,-1 0 0,1 1 0,-1 1 0,0 0 0,14 5 1,-21-6 19,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 1,0 0-1,0 1 0,0-1 0,0 1 0,-1 0 0,2 7 0,-1 0 27,-1-1 0,0 0 1,-1 1-1,0-1 0,-1 1 0,0-1 1,0 1-1,-1-1 0,-1 0 0,0 0 1,-1 0-1,-7 16 0,0-6-755,0-1-1,-2-1 1,0 0-1,-1-1 1,-22 22-1,5-9-4160</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -8054,7 +6758,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 154 9716,'0'0'6158,"7"1"-5600,37 4-333,1-2 1,71-3-1,-47-1-173,-11 1-220,72 0-36,-43 0-3904,-87 0 4094,1 0-111,-1 0 1,0-1-1,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 1,0 0-1,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 6-3725</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="234.08">277 251 2721,'0'0'8594,"-11"2"-7637,-25 4-350,23-3-39,35-1-219,40-4-105,0-3 1,87-18-1,-33-3-4192,-99 20 1635,-6-1-721</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="553.8">425 9 4978,'0'0'7708,"-4"-2"-7553,-5-3-154,11 4 14,23 10 46,41 21 62,-41-17-29,0 0 0,-2 2 0,37 29 1,-54-39-62,0 1 0,-1 0-1,0 0 1,1 0 0,-2 1 0,1-1 0,5 14 0,-8-16-7,0 0-1,-1 0 1,0 1 0,0-1-1,0 0 1,0 1 0,-1-1-1,0 1 1,0-1 0,0 0-1,0 1 1,-1-1 0,1 1-1,-1-1 1,-2 6 0,0-5 9,1 0-1,-1 0 1,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1-1,0-1 1,-1 0 0,1 0 0,-1-1 0,0 0-1,-9 6 1,-12 5 37,-42 15 0,38-16-87,-8 5-293,18-8-2659,-44 14-1,28-15-3288</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="553.79">425 9 4978,'0'0'7708,"-4"-2"-7553,-5-3-154,11 4 14,23 10 46,41 21 62,-41-17-29,0 0 0,-2 2 0,37 29 1,-54-39-62,0 1 0,-1 0-1,0 0 1,1 0 0,-2 1 0,1-1 0,5 14 0,-8-16-7,0 0-1,-1 0 1,0 1 0,0-1-1,0 0 1,0 1 0,-1-1-1,0 1 1,0-1 0,0 0-1,0 1 1,-1-1 0,1 1-1,-1-1 1,-2 6 0,0-5 9,1 0-1,-1 0 1,0 0 0,-1 0 0,1 0 0,-1-1 0,0 1-1,0-1 1,-1 0 0,1 0 0,-1-1 0,0 0-1,-9 6 1,-12 5 37,-42 15 0,38-16-87,-8 5-293,18-8-2659,-44 14-1,28-15-3288</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -8210,7 +6914,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="324.35">557 1267 5827,'0'0'9049,"-9"1"-8128,-24 5-158,30-6-650,5-1-109,16-3-44,7-8 275,0-2-1,33-24 1,-40 25-229,1 0 1,0 2-1,0 0 0,1 1 0,28-10 1,-43 20-620,-13 12-9238</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="596.91">566 1124 6547,'0'0'7870,"-2"3"-6875,1 3-924,-1-1-1,1 0 0,0 0 1,1 1-1,0-1 0,-1 1 1,2-1-1,-1 0 0,1 1 1,-1-1-1,2 0 0,-1 0 1,4 10-1,2 18 266,0 31 235,6 34-245,-11-90-311,0 1-1,0-1 1,1 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,7 9-1,-8-15-128,-1 1 1,1 0-1,0-1 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1-1 0,-1 1 1,0-1-1,1 0 0,-1 0 0,8 1 0,-5-1-687,1 0 0,0-1-1,-1 0 1,1 0-1,-1-1 1,1 0-1,8-2 1,12-10-5223</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="786.95">851 920 9188,'0'0'8980,"32"133"-8579,-10-82-273,9 5-96,0 2-32,0 6-273,-8-1-1375,-5-4-1778,-14-3-1520</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.12">0 2127 8612,'0'0'2849,"121"-84"-1584,-37 36-385,10-6-384,13 1 113,4-1-49,-8 3 64,-14 8-208,-13 10-255,-14 8-113,-13 9-48,-13 9-32,-19 7-1233,-12 2-2177,-5 24-447,-13 12-1042</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1083.1">0 2127 8612,'0'0'2849,"121"-84"-1584,-37 36-385,10-6-384,13 1 113,4-1-49,-8 3 64,-14 8-208,-13 10-255,-14 8-113,-13 9-48,-13 9-32,-19 7-1233,-12 2-2177,-5 24-447,-13 12-1042</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1530.47">397 2216 5330,'0'0'6417,"7"-18"-4723,-3 7-1411,-2 2-126,1 0 0,0 1 0,0 0-1,1 0 1,0 0 0,1 0 0,0 0 0,0 1 0,1 0 0,-1 0-1,1 0 1,1 1 0,0 0 0,7-6 0,0 2 11,1 1 0,0 0 1,0 1-1,1 0 0,0 1 0,1 1 1,-1 1-1,1 0 0,0 1 1,0 1-1,1 1 0,18-1 0,-34 3-171,-1 1-1,1-1 1,-1 1-1,1 0 0,0 0 1,-1-1-1,1 1 1,-1 0-1,0 0 0,1 0 1,-1 0-1,0 1 1,0-1-1,1 0 0,-1 1 1,0-1-1,0 0 1,0 1-1,-1-1 0,1 1 1,0-1-1,-1 1 1,1 0-1,0-1 0,-1 1 1,0 0-1,1-1 1,-1 1-1,0 0 0,0 0 1,0-1-1,-1 4 1,2 7 38,-1 0 1,-1 0 0,-3 18-1,1-17-6,-1 0 0,0 0 0,0 0 0,-1 0 0,-1-1 0,-11 19-1,-53 66 173,10-16-54,52-59-102,8-22-44,0 1 1,0-1-1,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 1,0 0-1,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,-1 0 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 1,-1 0-1,1 1 0,-1-1 0,1 0 0,0 0 1,3 0 17,1 0 1,0-1-1,-1 1 1,1-1 0,-1 0-1,1 0 1,6-3-1,87-35 328,111-63-1,-173 83-329,23-13-57,-30 15-170,1 1 0,1 2 0,39-13 0,-56 26-5182,-9 1-325</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2575.73">1484 1506 6211,'0'0'9932,"-4"0"-8915,-10 0-177,10 0 1521,22-2-3169,-2-3 807,0-1-1,-1-1 1,0-1 0,0 0 0,22-16-1,8-5-1284,-40 29-2923</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2822.17">1453 1702 2273,'0'0'9773,"7"-5"-8730,238-173 93,-243 177-1411,8-9-940,-7 3-3551</inkml:trace>
@@ -8342,7 +7046,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">337 257 3874,'0'0'9092,"0"-12"-7993,1-2-1437,-1-27 3360,1 37-2188,-1 6-193,3 26-390,2 87-156,-4-59-79,3 1-1,2-2 1,21 91 0,-3-66-1,28 113 15,-52-192-25,0 0-1,-1 0 1,1 0 0,0 0 0,0-1-1,-1 1 1,1 0 0,0 0 0,-1 0 0,1-1-1,-1 1 1,1 0 0,-1-1 0,1 1-1,-1 0 1,1-1 0,-1 1 0,0-1-1,1 1 1,-1-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 0 0,0 1-1,0-1 1,1 0 0,-1 0 0,0 1 0,0-1-1,0 0 1,0 0 0,0 0 0,-48 5 280,16-2-174,10 2-118,8-3-9,1 1 1,0 0-1,0 1 0,1 0 0,-1 1 0,1 1 0,0 0 0,-21 14 0,34-20 11,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0-1,0 1 1,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0-1,1 0 1,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,24 2 25,15-3 48,-1-3-1,1-1 1,-1-2 0,0-1 0,-1-2 0,0-2-1,-1-2 1,0-1 0,55-32 0,-91 47-97,0 0 0,0 0 0,0 0 0,-1 0 1,1-1-1,0 1 0,-1 0 0,1-1 1,0 1-1,-1-1 0,1 1 0,0 0 0,-1-1 1,1 1-1,-1-1 0,1 0 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 0 0,0 1 1,1-1-1,-1 0 0,0 0 0,1 1 1,-1-1-1,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 0,-29-19-6572,17 13 3448,-8-8-3509</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="336.11">69 375 3426,'0'0'8497,"-14"-11"-7598,4 3-783,0 1 0,0-2 0,-12-13 0,22 21-106,-1 0-1,1 1 1,0-1 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,1 1-1,-1-1 1,1 0 0,-1 0-1,1 1 1,0-1 0,-1 0-1,1 1 1,0-1 0,-1 0-1,1 1 1,0-1 0,0 1-1,1-1 1,37-21 191,-29 17-142,391-179 1249,-265 125-465,-98 41-539,-36 17-139,-13 7-13,3 4-755,0 0-1,1 0 1,0 0-1,1 1 1,0 0-1,-5 13 1,7-16-66,-17 35-3501</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1157.14">1152 357 4722,'0'0'7806,"-11"-16"-6669,-41-45-235,50 59-841,-1-1 1,0 1-1,0 0 0,0 1 1,0-1-1,-1 0 1,1 1-1,0 0 0,-1-1 1,1 2-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 1 0,1 0 1,-1 0-1,0 0 1,1 1-1,-1-1 1,1 1-1,-1 0 0,1 0 1,0 0-1,-5 3 1,5-4-51,-10 6 33,1-1-1,0 1 1,0 1-1,1 0 1,-1 1-1,1 0 1,1 1-1,0 0 1,0 1-1,1 0 1,0 0-1,1 1 0,-10 15 1,4-4 12,2 0 1,0 2-1,1-1 0,1 1 1,2 1-1,-7 28 1,8-20-7,1 0 0,2 0 0,1 1 1,2-1-1,1 1 0,5 36 1,-3-62-49,-1-1 0,1 1 0,1 0 0,-1-1 0,1 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,0-1 0,0 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0-1 0,9 3 0,-5-2 11,-1-1 0,1 0-1,-1-1 1,1 0 0,0-1-1,-1 0 1,1 0 0,0-1-1,-1-1 1,1 0 0,-1 0-1,0-1 1,1 0 0,-1-1-1,0 0 1,-1-1 0,1 0-1,8-6 1,-1-2 2,-1 0 0,-1-1 0,0-1 0,-1-1 0,-1 1 0,0-2 0,-1 0 0,-1-1 0,0 0-1,-2 0 1,0-1 0,8-27 0,-8 17 6,-1 0 0,-2-1 0,0 0-1,-3 0 1,0 0 0,-2 0 0,-5-57-1,3 78-22,0 1-1,-1 0 0,0 0 0,-1 1 0,0-1 0,0 0 1,0 1-1,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 1,0 1-1,-1 0 0,1 0 0,-1 1 0,-1-1 1,1 1-1,-1 1 0,0-1 0,0 1 0,0 0 0,0 1 1,-1 0-1,-15-5 0,12 5-3,-1 0 1,0 1-1,0 0 0,-1 1 0,1 1 1,0 0-1,0 0 0,-1 1 0,1 1 1,0 0-1,0 0 0,0 1 0,1 1 1,-1 0-1,1 0 0,-20 12 1,20-9-10,0 0 0,1 1 0,0 0 1,0 0-1,1 1 0,-16 20 0,20-23-71,1 1-1,0 0 0,1 0 1,-1 0-1,1 0 0,1 1 1,-1-1-1,1 1 0,1 0 1,-1-1-1,1 1 0,0 14 1,1-20-12,1 1 1,-1-1 0,0 1 0,1-1 0,-1 1-1,1-1 1,0 1 0,-1-1 0,1 1-1,0-1 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,1 0 0,0 0-1,3 3 1,0-2-56,-1 0-1,1 0 1,0 0 0,0-1-1,0 0 1,0 0-1,1 0 1,7 1 0,12 1-127,-1-1 0,1-1 0,29-2 0,-37 0 332,-5 0-40,1 0 0,0 0 0,0 2 1,0-1-1,-1 2 0,1-1 0,15 7 0,-23-6 75,1 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 1-1,-1 0 1,3 8 0,3 13 459,-1 1-1,-2 1 0,0-1 1,0 53-1,-4-51-431,1 0 0,2 0 1,1 0-1,9 29 0,-13-56-167,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 1,4 2-1,-4-3-244,0 0 0,1 1 0,-1-2-1,0 1 1,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,3-1 0,14-12-3734</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1157.12">1152 357 4722,'0'0'7806,"-11"-16"-6669,-41-45-235,50 59-841,-1-1 1,0 1-1,0 0 0,0 1 1,0-1-1,-1 0 1,1 1-1,0 0 0,-1-1 1,1 2-1,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 1 0,1 0 1,-1 0-1,0 0 1,1 1-1,-1-1 1,1 1-1,-1 0 0,1 0 1,0 0-1,-5 3 1,5-4-51,-10 6 33,1-1-1,0 1 1,0 1-1,1 0 1,-1 1-1,1 0 1,1 1-1,0 0 1,0 1-1,1 0 1,0 0-1,1 1 0,-10 15 1,4-4 12,2 0 1,0 2-1,1-1 0,1 1 1,2 1-1,-7 28 1,8-20-7,1 0 0,2 0 0,1 1 1,2-1-1,1 1 0,5 36 1,-3-62-49,-1-1 0,1 1 0,1 0 0,-1-1 0,1 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,0-1 0,0 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0-1 0,9 3 0,-5-2 11,-1-1 0,1 0-1,-1-1 1,1 0 0,0-1-1,-1 0 1,1 0 0,0-1-1,-1-1 1,1 0 0,-1 0-1,0-1 1,1 0 0,-1-1-1,0 0 1,-1-1 0,1 0-1,8-6 1,-1-2 2,-1 0 0,-1-1 0,0-1 0,-1-1 0,-1 1 0,0-2 0,-1 0 0,-1-1 0,0 0-1,-2 0 1,0-1 0,8-27 0,-8 17 6,-1 0 0,-2-1 0,0 0-1,-3 0 1,0 0 0,-2 0 0,-5-57-1,3 78-22,0 1-1,-1 0 0,0 0 0,-1 1 0,0-1 0,0 0 1,0 1-1,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 1,0 1-1,-1 0 0,1 0 0,-1 1 0,-1-1 1,1 1-1,-1 1 0,0-1 0,0 1 0,0 0 0,0 1 1,-1 0-1,-15-5 0,12 5-3,-1 0 1,0 1-1,0 0 0,-1 1 0,1 1 1,0 0-1,0 0 0,-1 1 0,1 1 1,0 0-1,0 0 0,0 1 0,1 1 1,-1 0-1,1 0 0,-20 12 1,20-9-10,0 0 0,1 1 0,0 0 1,0 0-1,1 1 0,-16 20 0,20-23-71,1 1-1,0 0 0,1 0 1,-1 0-1,1 0 0,1 1 1,-1-1-1,1 1 0,1 0 1,-1-1-1,1 1 0,0 14 1,1-20-12,1 1 1,-1-1 0,0 1 0,1-1 0,-1 1-1,1-1 1,0 1 0,-1-1 0,1 1-1,0-1 1,1 0 0,-1 0 0,0 1-1,1-1 1,-1 0 0,1 0 0,0 0-1,3 3 1,0-2-56,-1 0-1,1 0 1,0 0 0,0-1-1,0 0 1,0 0-1,1 0 1,7 1 0,12 1-127,-1-1 0,1-1 0,29-2 0,-37 0 332,-5 0-40,1 0 0,0 0 0,0 2 1,0-1-1,-1 2 0,1-1 0,15 7 0,-23-6 75,1 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 1-1,-1 0 1,3 8 0,3 13 459,-1 1-1,-2 1 0,0-1 1,0 53-1,-4-51-431,1 0 0,2 0 1,1 0-1,9 29 0,-13-56-167,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 1,4 2-1,-4-3-244,0 0 0,1 1 0,-1-2-1,0 1 1,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,3-1 0,14-12-3734</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1915.62">1611 382 672,'0'0'13559,"0"-10"-12788,0-25-470,0 32-259,1 6-43,-1 18 21,23 153 1501,1 22-1006,-18 43 1222,-8-265-1564,-1-1 1,-1 1-1,-10-32 1,6 24-190,-5-45-1,8-224 31,6 290-17,0 0 1,1 0 0,0 0 0,1 1-1,1-1 1,-1 0 0,2 1 0,0 0-1,1 0 1,0 1 0,0 0 0,13-17-1,-14 22 6,1 0 0,0 0-1,0 0 1,0 0-1,1 1 1,-1 0-1,1 0 1,0 1-1,1 0 1,-1 0-1,1 1 1,0 0-1,0 0 1,0 1 0,0 0-1,0 0 1,1 1-1,-1 0 1,0 1-1,11 0 1,-17 0-9,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1-1,-1 0 1,1 0 0,-1 0 0,1-1 0,-1 1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,-1-1 0,2 3 0,0 1 1,-1-1-1,0 1 1,0 0-1,-1-1 1,1 1-1,-1 0 0,0-1 1,0 1-1,-2 7 1,0 2 1,-1 0 0,0 0 0,-2 0 1,1 0-1,-13 21 0,-6 3-314,-2-1-1,-1-1 1,-2-2 0,-2 0-1,-58 50 1,88-83 225,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 1,-1 1-1,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 1,0-1-1,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 1,-1 0-1,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,23 16-173,-18-12 74,114 89 38,87 61 227,-185-141 95,1 0 0,1-2 0,0-1-1,1-1 1,0-1 0,0-1 0,38 6 0,-61-13-155,10 1 168,0-1 0,0 1 1,0-2-1,18-1 1,-28 1-186,0 0-1,0 0 1,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0-1,-1 1 1,1-1 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0-4 0,0 5-211,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 1,-1 1-1,1-1 0,0 0 1,-1 1-1,0-1 1,1 0-1,-1 1 1,1-1-1,-1 0 1,0 1-1,1-1 0,-1 1 1,0 0-1,0-1 1,1 1-1,-1-1 1,0 1-1,-1-1 1,-23-7-9156</inkml:trace>
 </inkml:ink>
 </file>
@@ -8380,7 +7084,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7493.95">3940 171 7972,'0'0'5378,"102"-48"-5666,-17 20 256,13-3-1441,-4 3-448,-19 5-1296,-21 11-1953</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8962.9">696 1457 864,'0'0'10080,"2"-14"-9373,9-42-99,-9 52-515,0 1-1,-1 0 1,2-1 0,-1 1 0,0 0-1,0 0 1,1 0 0,0 0 0,-1 0-1,1 1 1,0 0 0,1-1 0,-1 1-1,0 0 1,1 0 0,-1 0 0,1 1-1,6-3 1,-3 1-33,15-6 13,0 1 0,0 0 0,31-5 0,-1 8-8168</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9339.09">772 1340 1793,'0'0'6075,"-13"17"-5280,-38 56-238,49-70-511,0-1 0,0 1-1,0 0 1,0 0 0,1 1 0,-1-1-1,1 0 1,0 0 0,0 1 0,0-1-1,0 1 1,1-1 0,0 1 0,-1-1-1,1 1 1,0-1 0,1 1 0,-1 3-1,2 10 28,-2-16-73,0 0-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1 0 1,0-1-1,0 1 1,-1 0 0,1 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0-1-1,1 0 1,-1 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 0-1,1 0 1,1 0-1,48 1 67,-37-1 15,8-2 57,28 1 44,-48 1-179,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0-1,1 1 1,2 2 0,-4-2 30,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 1,-1-1-1,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 1,1-1-1,-1 1 0,-2 2 0,-55 29 835,46-26-924,0-1-1,1 2 1,-17 11 0,27-17-638</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9522.86">1035 1492 5507,'0'0'6867,"4"-7"-9156,1 12-321,4 0-3200</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9522.84">1035 1492 5507,'0'0'6867,"4"-7"-9156,1 12-321,4 0-3200</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9915.21">1119 1373 6275,'0'0'3756,"5"0"-3406,20-2-214,0-1 1,0-2-1,-1 0 1,0-1-1,30-13 0,-19 7 247,59-12 0,-93 24-356,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-1 0 0,1 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 1,0-1-1,-1 0 0,1 1 0,0-1 0,0 1 1,0-1-1,-1 1 0,1 0 0,0-1 1,-1 1-1,1 0 0,0-1 0,-1 1 1,1 0-1,-1 0 0,0 0 0,2 1 0,-2 30 449,-1-21-243,-1 13 144,0 0 0,-2-1-1,-13 47 1,11-47-352,0 0 0,2 1 0,-4 46-1,8-20-1528,0-18-4508,0-21 632</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10911.23">888 2414 2721,'0'0'8228,"0"-7"-7169,0-24-218,0 30-803,0 1 1,0-1-1,0 1 1,-1-1 0,1 1-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1-1,-1-1 1,1 1 0,0-1-1,0 1 1,-1 0 0,1-1-1,0 1 1,0 0-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 1 0,-1 0-1,1 0 1,0-1-1,-1 1 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1-1 1,-1 1 0,1 0-1,-1 0 1,1 1 0,-1-1-1,1 0 1,-1 0-1,-18 6 102,4 3-117,1 1-1,0 0 0,1 1 0,0 0 1,1 2-1,0-1 0,1 1 0,-15 22 0,25-33-23,0 0-1,1 0 0,-1 0 1,1-1-1,-1 1 0,1 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,1 0 0,-1 0 1,1-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 1,1 1-1,-1-1 0,1 0 1,-1 1-1,1-1 0,0 0 0,-1 0 1,3 1-1,9 4-18,0 1 0,0-1 0,27 7 0,-10-2 20,-22-9 3,-2 2 1,1-1-1,0 1 0,0 0 1,-1 0-1,10 9 0,-14-11 2,0 0 0,0 1 0,0-1 0,-1 0 0,1 1-1,-1-1 1,1 1 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1 0-1,0 0 1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,-1 0 0,0 3-1,0-3 17,0 0 0,-1 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,-1-1-1,1 1 1,0 0 0,-1-1-1,0 0 1,1 1-1,-1-1 1,-4 2 0,-44 26 54,32-24-1268,19-6 1036,-1 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 0-1,-1 0 1,1-1 0,0 1-1,-1 0 1,1 0 0,0-1 0,-1 1-1,1 0 1,0 0 0,-1-1-1,1 1 1,0 0 0,0-1 0,-1 1-1,1 0 1,0-1 0,0 1-1,0-1 1,-1 1 0,1 0 0,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0-20-4215</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11089.66">794 2478 5122,'0'0'6387,"120"-105"-5618,-80 82-193,-8 5-80,-6 6-320,-3 4-176,-10 8-112,0 0-1393,-4 10-1008,-4 16-960,-5 2-977</inkml:trace>
@@ -8420,7 +7124,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28034.43">6244 2664 6451,'0'0'6942,"-13"19"-6217,-38 63-116,49-77-586,-1 0 0,1 1 0,0 0 0,0-1 0,0 1 0,1 0 0,0 0 0,0 0 0,1-1 0,0 1 1,0 0-1,0 0 0,0 0 0,1 0 0,0 0 0,3 9 0,-3-12-25,0 0 0,1 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0-1-1,1 1 0,-1-1 0,1 0 0,-1 0 1,1 0-1,0-1 0,0 1 0,0-1 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0-1 1,1 1-1,-1-1 0,4 1 0,-3-1 28,0 0 0,0 1 0,-1-1 0,1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,-1 0 0,1 0 0,0-1 0,-1 1-1,1-1 1,-1 1 0,0-1 0,1 0 0,-1-1 0,0 1 0,0-1-1,0 1 1,4-6 0,-3 1 22,-1 0-1,1 0 0,-1 0 1,-1 0-1,1-1 0,-2 1 1,1-1-1,-1 0 0,0 1 1,0-10-1,0 14-27,-1 1 0,0-1 0,0 0 0,0 0-1,-1 1 1,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0 0-1,0-1 1,-1 1 0,1 0 0,-1 0 0,1 0 0,-4 0 0,1 0-38,0 0 0,1 1 0,-1-1-1,0 1 1,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0 0 0,0 0-1,-5 4 1,6-3-417,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 1-1,-3 6 1,-1 10-5653</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="76701.07">1543 1126 2001,'0'0'7171,"-6"0"-6400,-50-8 2810,12-3-3388,0 2 0,-1 1 0,1 3 0,-74 0 0,-105 13-156,188-4-38,0 2-1,1 1 1,0 1-1,-46 18 1,-148 74-13,196-83-5,0 2 0,1 0 0,1 2-1,-48 44 1,67-53-4,0 1-1,1 0 0,1 0 1,0 1-1,0 1 0,2-1 1,0 1-1,0 0 1,2 1-1,0-1 0,0 1 1,2 0-1,0 1 0,1-1 1,0 0-1,1 1 1,1-1-1,1 1 0,0-1 1,5 19-1,-4-29 2,0-1 1,0 1-1,1 0 1,0-1-1,0 1 0,0-1 1,0 0-1,1 0 0,0 0 1,0-1-1,1 1 1,-1-1-1,1 0 0,9 6 1,-2-2-2,-1 0 0,2-1 0,-1-1 0,0 0 0,22 7 0,16 1 83,1-2 0,0-2 0,1-2 0,88 2-1,559 7 387,-682-18-452,1-1 0,-1-1 0,0 0 0,0-2 0,0 0 1,-1-1-1,0 0 0,0-1 0,22-14 0,-3 0 90,-1-2-1,60-52 1,-80 62-40,0-1 0,0 0 0,18-26 0,-28 33-16,0 1 0,0-1 0,-1 0 0,1-1 0,-1 1 0,-1 0 0,0-1 0,0 0 0,0 1 0,-1-1 0,1-14 0,-3 10 9,1 0 1,-2 1-1,0-1 0,0 1 0,-1-1 0,0 1 1,-1 0-1,0 0 0,-1 0 0,-7-12 1,2 7 20,-1 0 1,-1 1 0,0 1-1,-1-1 1,-24-19 0,-7 1 60,-1 1 0,-1 3 0,-69-32 0,106 56-115,-1 1-1,1 0 1,-1 1-1,0 0 1,0 1-1,-1 0 0,1 0 1,0 1-1,-1 1 1,1 0-1,-1 0 1,1 1-1,0 0 1,-1 1-1,1 0 1,0 0-1,0 1 1,-13 6-1,13-4-556,0 0 0,0 1 0,1 0 0,0 0-1,1 0 1,-1 2 0,1-1 0,0 1 0,1 0-1,-12 16 1,5-4-2907,1-6-1454</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78232.89">1137 1984 2081,'0'0'3490,"-20"-1"-2778,-169-6 1508,184 7-2122,-15-1 96,1 1 0,-1 0-1,1 1 1,0 1 0,0 1-1,0 1 1,0 1 0,0 0-1,-31 14 1,-17 16-191,-97 68 1,140-85-4,1 1-1,1 1 1,0 1 0,2 1 0,0 1 0,2 1 0,-16 25-1,22-27-1,1 0-1,1 0 0,1 1 0,1 0 0,1 1 0,1-1 0,1 1 1,1 1-1,1-1 0,1 0 0,1 1 0,4 35 0,-2-51 10,1-1-1,0 0 1,1 0 0,0 0-1,0 0 1,0-1 0,1 1-1,0-1 1,1 0 0,0 0-1,0 0 1,0 0 0,1-1-1,0 0 1,0 0 0,0-1-1,1 0 1,0 0 0,0 0-1,9 4 1,3 1 79,1 0 0,0-1 0,1-2 0,0 0 0,0-1 0,35 6 0,27-2 284,0-3 0,0-4 0,97-10 0,-114-3-215,0-3-1,124-42 0,-95 25-110,1-1 0,-1-4 0,103-54-1,-173 76-23,0-1 1,-1-1-1,0-1 0,-2-1 1,0-1-1,24-25 0,-37 33-8,0 0 0,-1-1 1,-1 0-1,0 0 0,0-1 0,-1 0 0,-1 0 0,1 0 0,-2-1 0,0 0 1,-1 1-1,0-2 0,-1 1 0,0 0 0,0-18 0,-2 25-7,-1 0 1,1 0-1,-1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,-1 1 0,1-1 1,-1 1-1,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 1 0,0 0 1,0 0-1,-1 0 0,1 0 0,-1 1 0,0-1 0,-6-2 0,-8-5 11,1 1 0,-1 1 0,-1 1 0,0 0 0,0 2 0,-1 0 0,1 1 0,-1 1 0,-22-1 0,-30 1 7,-92 5 0,128 0-2,-167 15 324,-44 1 76,247-17-538,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 1,0 0-1,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 1,1 0-1,-1 10-2388,-4 7-3471</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="79678.9">1178 3104 3458,'0'0'5127,"-18"-8"-4844,-57-24 11,70 30-270,-1-1 0,0 2 0,0-1 1,0 1-1,-1 0 0,1 0 1,0 1-1,0-1 0,0 1 1,-1 1-1,1-1 0,0 1 1,0 0-1,0 1 0,-8 2 1,2 1-33,1 1 0,-1 0 0,1 1 0,0 1 0,-10 8 0,7-5 35,-14 9-27,2 1 0,0 1 0,2 2 0,0 0 0,1 2 0,2 0 0,1 2 0,1 0 0,1 1 0,2 1 0,1 0 0,-15 41 0,-31 155 26,59-219-27,0 0-1,0 0 0,1 0 1,0 1-1,1-1 0,0 0 1,0 1-1,0-1 0,1 0 1,0 0-1,0 0 1,1 1-1,0-1 0,0-1 1,1 1-1,0 0 0,0 0 1,0-1-1,1 0 0,0 0 1,0 0-1,7 7 0,-4-6 3,0-1 0,1 0 0,0 0 0,0 0 0,1-1 0,0 0-1,-1-1 1,2 0 0,-1 0 0,0-1 0,1 0 0,-1-1 0,1 0 0,0 0-1,19 0 1,13-2 115,1-1 0,-1-2-1,1-2 1,-1-1-1,71-22 1,-34 5 51,13-2-82,-1-4-1,-1-4 0,93-49 0,-81 27-56,186-108 86,-276 156-70,-2 0 1,1-1-1,-1 0 1,0 0-1,0-1 0,-1 0 1,-1-1-1,1 0 1,-2 0-1,1-1 1,-1 0-1,-1 0 1,0-1-1,-1 0 1,0 0-1,0 0 1,-2 0-1,1-1 0,-2 0 1,0 1-1,0-1 1,-1 0-1,-1-24 1,-1 31 34,-1 1 0,1-1 1,-1 1-1,0 0 0,0 0 0,0 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1 1 1,0 0-1,1 0 0,-1 0 0,-1 0 1,1 0-1,-1 1 0,1 0 0,-1 0 1,0 0-1,0 1 0,-10-5 0,-11-3 14,0 1 0,0 1-1,-36-5 1,15 5-53,0 1 1,-1 3-1,0 2 1,-93 9 0,105 1-153,1 1 1,0 2 0,0 1 0,1 2 0,-55 32 0,87-45 56,-59 35-1525,57-33 1068,1 0 1,-1 0 0,1 1-1,0-1 1,0 1 0,0-1 0,-3 7-1,3 4-4933</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="79678.89">1178 3104 3458,'0'0'5127,"-18"-8"-4844,-57-24 11,70 30-270,-1-1 0,0 2 0,0-1 1,0 1-1,-1 0 0,1 0 1,0 1-1,0-1 0,0 1 1,-1 1-1,1-1 0,0 1 1,0 0-1,0 1 0,-8 2 1,2 1-33,1 1 0,-1 0 0,1 1 0,0 1 0,-10 8 0,7-5 35,-14 9-27,2 1 0,0 1 0,2 2 0,0 0 0,1 2 0,2 0 0,1 2 0,1 0 0,1 1 0,2 1 0,1 0 0,-15 41 0,-31 155 26,59-219-27,0 0-1,0 0 0,1 0 1,0 1-1,1-1 0,0 0 1,0 1-1,0-1 0,1 0 1,0 0-1,0 0 1,1 1-1,0-1 0,0-1 1,1 1-1,0 0 0,0 0 1,0-1-1,1 0 0,0 0 1,0 0-1,7 7 0,-4-6 3,0-1 0,1 0 0,0 0 0,0 0 0,1-1 0,0 0-1,-1-1 1,2 0 0,-1 0 0,0-1 0,1 0 0,-1-1 0,1 0 0,0 0-1,19 0 1,13-2 115,1-1 0,-1-2-1,1-2 1,-1-1-1,71-22 1,-34 5 51,13-2-82,-1-4-1,-1-4 0,93-49 0,-81 27-56,186-108 86,-276 156-70,-2 0 1,1-1-1,-1 0 1,0 0-1,0-1 0,-1 0 1,-1-1-1,1 0 1,-2 0-1,1-1 1,-1 0-1,-1 0 1,0-1-1,-1 0 1,0 0-1,0 0 1,-2 0-1,1-1 0,-2 0 1,0 1-1,0-1 1,-1 0-1,-1-24 1,-1 31 34,-1 1 0,1-1 1,-1 1-1,0 0 0,0 0 0,0 0 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1 1 1,0 0-1,1 0 0,-1 0 0,-1 0 1,1 0-1,-1 1 0,1 0 0,-1 0 1,0 0-1,0 1 0,-10-5 0,-11-3 14,0 1 0,0 1-1,-36-5 1,15 5-53,0 1 1,-1 3-1,0 2 1,-93 9 0,105 1-153,1 1 1,0 2 0,0 1 0,1 2 0,-55 32 0,87-45 56,-59 35-1525,57-33 1068,1 0 1,-1 0 0,1 1-1,0-1 1,0 1 0,0-1 0,-3 7-1,3 4-4933</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="81180.22">1266 4156 3922,'0'0'4767,"0"-10"-4156,2-2-422,-2 8-122,1 0-1,-1-1 1,0 1-1,0-1 0,0 1 1,-1 0-1,1-1 1,-2-4-1,1 7-14,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,-1 1 0,1-1 1,-1 1-1,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 1 0,0-1 0,0 1 1,-1-1-1,1 1 0,0 0 0,0 0 0,0-1 0,-1 2 1,1-1-1,0 0 0,0 0 0,0 1 0,0-1 0,-4 2 1,-11 3-100,0 0 0,1 1 0,-26 12 0,29-11 172,-41 19-124,1 2 0,2 3 1,-80 61-1,114-77-19,0 0 0,0 0 0,2 2 1,0 0-1,-24 36 0,32-41 7,0 1 0,1-1 0,1 1 0,0 0 0,1 1 1,1-1-1,0 1 0,1 0 0,0-1 0,0 25 0,2-19 4,1 0-1,0 0 0,1-1 1,2 1-1,0-1 0,7 21 0,-7-28 2,1 1 0,1-1 0,0 0 0,0-1 0,1 0 0,1 0 0,0 0 0,0-1 0,0 0 0,16 12 0,-9-10-13,0 0-1,0-2 1,1 0 0,1 0-1,0-1 1,0-1-1,0-1 1,1-1 0,0 0-1,19 2 1,21 0-211,108-2 1,-139-5 210,10-2-17,0-1 1,0-2-1,0-1 0,-1-3 0,0 0 0,57-24 0,-9-4 62,120-73-1,-171 91-1,-2 0-1,0-3 0,45-40 0,-68 54 8,1-1 0,-2 0 0,1 0 0,-1-1 0,-1 0 0,1 0-1,-2-1 1,1 0 0,-2 0 0,1 0 0,-2 0 0,1-1 0,-1 1-1,-1-1 1,1-16 0,-2 18-8,-1 1 1,0-1-1,-1 0 0,0 0 0,-1 1 0,0-1 0,0 0 0,-1 1 1,0 0-1,-9-17 0,4 12-12,0 1 0,-2 1 0,1 0-1,-2 0 1,0 1 0,-13-12 0,2 4 66,-1 2 0,-1 0 1,-1 1-1,0 2 0,-1 0 0,0 2 0,-1 1 1,0 1-1,-1 1 0,0 2 0,0 0 0,-1 2 0,0 1 1,-53 0-1,30 3 77,27-1-153,-1 2 0,-35 4 0,60-4-71,1 0-1,-1 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 1,1 0-1,-1 1 0,0-1 1,0 0-1,0 1 0,1-1 1,-1 1-1,0-1 0,1 1 1,-1-1-1,0 1 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,1 0 0,-1 0 1,1 0-1,0-1 0,-1 1 1,1 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,1-1 0,0 1 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 1 0,0 1-503,0 5-3363</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="82555.82">4047 729 1265,'0'0'6653,"-40"-13"-3569,2 15-3086,1 2-1,0 1 0,0 2 1,1 1-1,0 2 0,-37 16 1,-214 84 0,233-85 1,2 2 0,1 3 0,-57 42 0,96-62-18,0 0 1,1 2-1,0-1 0,1 1 0,0 1 0,1-1 0,0 2 0,1-1 0,-12 29 0,16-31 3,0 0 1,0 0-1,1 1 0,1-1 0,0 0 0,0 1 0,1 0 0,1-1 1,0 1-1,0 0 0,1-1 0,1 1 0,0-1 0,4 13 0,-2-13 23,1 0-1,1-1 1,0 0-1,1 0 0,-1-1 1,2 1-1,0-1 1,0-1-1,0 0 0,1 0 1,0-1-1,0 0 1,1 0-1,0-1 0,1 0 1,-1-1-1,1 0 1,13 4-1,17 4 65,1-1 0,0-1 0,68 6 0,-59-10-27,1-2 0,0-2-1,0-2 1,0-3 0,0-2 0,0-3-1,0-1 1,-1-3 0,97-34 0,-101 26-15,-1-1 0,-1-3 0,74-48 0,-107 62 46,0 1 0,-1-2 0,0 0 0,0 0 0,-1-1 0,0 0-1,-1 0 1,0-1 0,-1-1 0,-1 1 0,1-1 0,-2-1 0,0 1 0,-1-1 0,0 0-1,-1 0 1,3-21 0,-3 6-8,-1 0-1,-2 0 1,-1-1-1,-2 1 1,-5-36-1,5 56-9,0 0 0,-1 1-1,0-1 1,0 1 0,-1 0-1,0-1 1,0 2 0,-1-1-1,0 1 1,0-1 0,-1 1-1,0 1 1,0-1 0,-1 1 0,0 0-1,0 1 1,0-1 0,-1 1-1,1 1 1,-1-1 0,-10-2-1,1 0-68,0 2 1,-1 0-1,1 1 0,-1 0 0,0 2 0,-1 0 0,1 1 0,-31 2 1,45 0-70,-1-1 0,1 1 1,0 0-1,0 0 0,0 0 1,-1 1-1,1-1 0,1 1 0,-1 0 1,0 0-1,0 1 0,1-1 1,-1 1-1,1 0 0,0-1 1,0 1-1,-3 5 0,-4 4-964,1 1 1,0 1-1,-8 19 0,12-24 298,-17 30-4120</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="83614.39">3717 1599 1008,'0'0'1897,"-16"3"-1355,13-3-510,-11 2 118,-1 1 0,1 0-1,0 1 1,0 1 0,0 0-1,1 0 1,-18 11 0,-13 13 200,2 1-1,1 1 1,2 3 0,1 1 0,2 2 0,1 2-1,2 0 1,-45 73 0,71-99-267,1 0 1,0 0-1,1 0 1,0 1-1,1 0 1,1 0-1,-3 21 1,3-4 39,2 1 0,3 41 1,-2-63-113,2 0 0,-1 0 1,2 0-1,-1 0 1,1-1-1,1 1 0,0-1 1,0 0-1,1 0 0,0 0 1,0 0-1,1-1 1,0 0-1,1 0 0,0-1 1,0 0-1,0 0 0,1 0 1,0-1-1,0 0 1,1-1-1,0 0 0,0 0 1,0-1-1,10 4 0,10 2 38,1-1-1,1-1 0,-1-2 0,1-1 0,0-1 0,57-1 0,-36-6-15,0-2 0,-1-2 1,1-3-1,-2-2 0,1-2 0,-2-3 0,0-1 1,57-31-1,-19 0 4,148-107-1,-140 89-187,-50 37 9,-2-2 0,58-55 0,-90 76 189,-1 0 0,0-1 0,0 0 1,-1-1-1,-1 0 0,0 0 0,-1 0 1,0-1-1,-1 0 0,-1-1 0,0 1 1,-1-1-1,3-22 0,-4 16 217,-1-1 1,-1 0-1,-1 0 0,-1 0 0,-7-36 0,6 49-170,-1 0-1,0 0 1,0 0 0,-1 0 0,0 1-1,-1-1 1,0 1 0,0 0-1,-1 1 1,0-1 0,0 1-1,-1 0 1,0 1 0,0-1 0,-11-6-1,-8-4-3,-1 1 0,0 2-1,-1 1 1,-1 1-1,0 1 1,0 2-1,-1 1 1,0 1 0,0 2-1,-1 1 1,-57-1-1,85 5-176,0 1 0,0-1-1,1 0 1,-1 1 0,0-1 0,1 1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,0 1 1,-1-1 0,1 1-1,0 0 1,0 0 0,0 0-1,0-1 1,-1 4 0,-2 3-795,0 0 0,0 0 0,1 1 0,-5 13 0,2-5-625,-10 20-2628</inkml:trace>
@@ -8487,7 +7191,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="448.36">2099 604 5010,'0'0'6425,"-1"-1"-6349,1 0 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,0 0 1,1-3-1,30-18 4,6-4 39,-36 24-121,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,-1 0-1,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,0-3 0,0 4-10,0-1-1,-1 1 1,1-1 0,0 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 1-1,0-1 1,1 1-1,-1 0 1,0-1-1,0 1 1,0 0-1,0 0 1,-3 0-1,-48 2-214,47-1 216,0 0 1,0 0-1,0 0 0,0 1 1,0 0-1,1 0 1,-1 0-1,1 1 1,-1-1-1,1 2 1,0-1-1,0 0 1,0 1-1,1 0 1,-1 0-1,1 0 1,0 1-1,0-1 0,0 1 1,1 0-1,0 0 1,0 0-1,0 1 1,1-1-1,-1 1 1,1 0-1,1-1 1,-1 1-1,1 0 1,-1 8-1,2-12-10,0 1-1,0-1 1,0 1-1,0 0 1,0-1-1,1 1 1,-1 0-1,1-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,3 2 1,0-1-8,0 0 1,0-1-1,0 0 1,0 0-1,1 0 0,-1 0 1,1-1-1,-1 0 1,9 2-1,10 1-145,-1-1-1,1 0 1,0-2 0,-1-1-1,1-1 1,37-5-1,-44 3-421,-1-1 0,0 0 0,0-1 0,0-1 0,-1 0-1,19-11 1,3-8-1935</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="661.22">2566 347 4002,'0'0'4930,"-120"74"-4706,98-43-176,4 2-48,5-3-16,-1-2 16,5-2-80,9-6-688,0-7-753,0-5-1216</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="865.52">2375 518 1297,'0'0'7592,"-4"-9"-6727,-6-9-632,2 4-52,22 26-48,1 5-14,0-2 1,2 0 0,21 14-1,-31-24-355,0 0-1,1-1 1,0 0-1,0-1 0,0 1 1,1-2-1,-1 1 1,1-1-1,-1 0 1,18 0-1,14-1-2281,0-1-1092</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1132.09">2776 322 1601,'0'0'6960,"-2"-12"-6378,1-2-462,-3-16 67,2 61 466,1 29 85,1 9-636,10 97 0,-1-124-1994,5-17-2448,-6-18 824</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1132.08">2776 322 1601,'0'0'6960,"-2"-12"-6378,1-2-462,-3-16 67,2 61 466,1 29 85,1 9-636,10 97 0,-1-124-1994,5-17-2448,-6-18 824</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1297.25">2696 497 4994,'0'0'6723,"53"-56"-6707,-17 49-16,4 2-32,0 2-1136,-4 3-1169,-1 0-1761</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1643.2">2874 426 5314,'0'0'2959,"16"7"-2639,49 27-106,-61-31-201,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 1-1,-1-1 1,1 1-1,-1-1 1,0 1-1,0 0 0,0 0 1,-1 0-1,1 0 1,-1 0-1,1 6 1,0 4 26,0-1 1,-2 1-1,0 20 1,-1-12 69,-3 14-68,4-35-19,0-1-1,0 1 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,-1 0 0,1-1 1,0 1-1,-1 0 0,1-1 0,0 1 1,-1 0-1,1-1 0,-1 1 1,1-1-1,-1 1 0,1 0 1,-1-1-1,1 1 0,-1-1 1,0 0-1,1 1 0,-1-1 0,0 1 1,1-1-1,-1 0 0,0 0 1,0 1-1,1-1 0,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,-1-1 0,1 1 47,0-1-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1-1 0,-1 1 1,1 0-1,-1 0 0,1-1 1,0 1-1,-1 0 1,1-1-1,0 1 0,0-3 1,-1-34 536,2 28-431,-1 4-172,1 0-1,-1 0 1,1 0 0,1 0-1,-1 0 1,1 1 0,0-1-1,0 0 1,1 1 0,-1-1-1,1 1 1,1 0-1,-1 0 1,1 0 0,0 1-1,0-1 1,0 1 0,0 0-1,6-4 1,-2 2-489,-1 1 0,1 0 0,0 1 0,0 0 0,1 0 0,-1 1 0,13-4 0,6 1-3387</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2465.01">3181 569 3858,'0'0'5629,"9"-12"-5456,2 1-154,-3 3-6,-1 0 0,1 0 1,-1 0-1,-1-1 1,0 0-1,0 0 0,5-13 1,-11 21-7,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-2-1-1,0 1 0,0 0 1,1 0 0,-1 0-1,0 1 1,0-1-1,1 1 1,-1-1 0,0 1-1,0-1 1,0 1 0,0 0-1,0 0 1,0 0-1,-3 0 1,0 1-3,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1 0 0,0 0 0,0 0 1,1 1-1,-9 5 0,8-3-7,1 0 0,0 0 1,0 1-1,0-1 1,1 1-1,0 0 0,0 0 1,0 0-1,1 0 1,0 1-1,0-1 1,-1 9-1,1 0-34,0 0 0,1-1 0,1 1 0,2 22 1,-2-35 18,1 0 1,-1 0 0,1 0-1,-1-1 1,1 1 0,0 0-1,0 0 1,0 0 0,-1-1-1,2 1 1,-1-1 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 1-1,1-1 1,-1 0 0,1 0-1,2 1 1,0 1-44,1-1 1,0 0-1,-1-1 1,1 1-1,0-1 1,0 0-1,10 1 0,-7-1-157,-1-1-1,1 0 0,0 0 0,-1 0 1,1-1-1,-1-1 0,1 1 0,-1-1 0,1 0 1,12-6-1,-14 3 156,0 0 0,0-1 0,-1 1 1,0-1-1,0 0 0,0-1 0,-1 1 0,0-1 1,0 0-1,-1 0 0,1 0 0,-2 0 0,1-1 1,-1 1-1,2-9 0,13-34 2740,-12 58-1141,-1 6-1610,-4 75 681,0-89-618,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1-1 0,0 1 0,16-14 156,3-19-95,-12 20-33,1 1 0,0 0 0,13-16 0,-19 26-29,1 0 0,-1 0 0,0-1 0,1 1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 1,0 1-1,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,6 1 1,-7-1 5,-1 1 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 1 1,-1-1-1,1 0 0,-1 1 1,1-1-1,-1 1 0,0-1 0,1 3 1,6 41 163,-5-35-52,-2-9-91,6 24 22,1-20 0,3-15 129,-2-3-207,1 0 1,0 0-1,1 1 1,0 0-1,1 1 0,22-19 1,-32 30 36,-1 0 1,1-1-1,-1 1 1,1 0-1,-1 0 0,1 0 1,0-1-1,-1 1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,0 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 1 1,1-1-1,-1 0 1,1 0-1,-1 1 0,1-1 1,-1 1-1,1-1 1,-1 0-1,0 1 1,1-1-1,-1 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,0-1-1,1 1 1,-1-1-1,0 1 1,0 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 2-1,6 35-147,-5-32 143,0 4-254,0-1 0,1 1 0,1-1 0,-1 1 0,7 13 0,0-5-2858</inkml:trace>
@@ -8500,7 +7204,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8269.52">3489 1447 1921,'0'0'7689,"7"-5"-6505,11-10-1121,-1-1-1,-1 0 1,0-2-1,-1 0 1,-1 0 0,-1-1-1,0-1 1,-1 0-1,-2-1 1,0 0-1,-1-1 1,-1 0-1,-1 0 1,-1-1-1,-1 1 1,-1-1 0,1-27-1,-21 106-201,13-33 130,0 1-1,2-1 1,1 0 0,1 0-1,1 0 1,1 0-1,1 0 1,1 0-1,1-1 1,10 27-1,-14-46-2,0 1 1,1 0-1,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 0 1,1 0-1,0 0 0,5 2 0,-7-3 9,0 0 1,0-1 0,1 1-1,-1 0 1,1-1-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 0 1,0-1 0,1 1-1,-1 0 1,1-1-1,-1 0 1,0 1-1,1-1 1,-1 0 0,0 0-1,0 0 1,1-1-1,-1 1 1,0 0-1,0-1 1,0 1-1,-1-1 1,4-3 0,3-5-170,-1-1 1,0-1 0,0 1 0,-1-1 0,-1 0 0,0 0 0,0-1 0,-2 1-1,1-1 1,1-14 0,0-14 245,-1-78 0,-4 151 1622,1 43-241,0-63-2295,1 0-1,0-1 1,0 1 0,8 18-1,-6-21-3230</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8446.31">4046 999 1521,'0'0'8436,"-23"46"-13623,23-20 417</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9252.93">4104 1203 4178,'0'0'5306,"7"0"-4777,0 0-306,0-1 1,-1 1 0,1-1-1,0 0 1,11-4 0,-16 5-203,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0-1,1-1 1,-1 1 0,0 0 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1-2 0,-2 3-38,1 1 0,0-1 1,-1 1-1,1-1 0,0 1 1,-1-1-1,1 1 0,-1-1 1,1 1-1,0 0 0,-1-1 1,1 1-1,-1 0 0,1-1 1,-1 1-1,1 0 0,-1 0 1,0-1-1,1 1 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0 1 1,-21 4-311,19-3 310,1 0 0,-1 1 0,1-1-1,-1 1 1,1-1 0,0 1 0,0 0 0,0-1-1,0 1 1,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1-1,2 0 1,-2 5 0,-2 57-164,4-52 136,0-11 39,0 0-1,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,0 1 1,-1 0-1,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,3 0 0,-4-1 32,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 1,0 0-1,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0-2 0,2-38 918,-2 35-870,-1 0 0,2-1 1,-1 1-1,1 0 0,0 0 1,2-8-1,-2 12-102,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,3-1 0,8-3-100,-1 1 0,1 0 0,0 1 0,0 1 0,1 0 0,24 1 0,-38 1 115,0 1 0,0 0 0,0-1 0,0 1-1,0 0 1,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 2 0,6 42 515,-4-25-166,-2-19-304,0 1 0,1 0 0,-1-1-1,1 1 1,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,1 1 0,0-3-14,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 1 0,2-2 0,5-4-29,0 0 1,-1-1-1,1 1 0,-1-1 0,-1-1 0,1 1 0,-1-1 1,0 0-1,-1-1 0,0 0 0,0 1 0,-1-1 0,0-1 1,-1 1-1,0-1 0,0 1 0,-1-1 0,0 0 0,-1 0 1,0-15-1,-1 23-22,-1-1 1,1 1-1,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 0,0 1 1,-1-1-1,0 0 1,1 1-1,-1 0 0,0-1 1,0 1-1,0 0 0,1 0 1,-1 0-1,0 0 1,-1 0-1,1 1 0,0-1 1,0 1-1,0-1 1,0 1-1,0 0 0,-1 0 1,1 0-1,-3 0 1,3 0-44,-1 0 0,1-1 0,0 1 0,0 0 0,0 1 0,0-1 0,0 0 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,0 1 1,0 0-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 4 1,5-5 65,-1 1 1,1-1-1,0 0 1,0 0 0,0-1-1,0 0 1,0 1-1,0-2 1,7 0-1,-6 1 15,-1 0-394,21 0 1122,-17 4-5964,-9 5 3672</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9592.96">4531 1152 1105,'0'0'8988,"-1"-5"-7276,-2-11-393,13 28-883,24 27-219,-22-31-153,0 0 58,-1 1 0,0 0-1,0 1 1,18 21-1,-27-29-103,0 0-1,-1 1 0,1-1 0,-1 1 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 0,0-1 1,-1 1-1,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1-1 1,1 1-1,-1-1 0,-3 5 1,-3 2 12,-1 0 1,0 0 0,0-1-1,-1-1 1,1 0 0,-17 9-1,15-10-1135,0-1 1,0 0-1,-20 6 0,-13-2-6987</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9592.94">4531 1152 1105,'0'0'8988,"-1"-5"-7276,-2-11-393,13 28-883,24 27-219,-22-31-153,0 0 58,-1 1 0,0 0-1,0 1 1,18 21-1,-27-29-103,0 0-1,-1 1 0,1-1 0,-1 1 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 0,0-1 1,-1 1-1,1 0 0,-1 0 0,1 0 1,-1 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0-1 1,0 1-1,0 0 0,-1-1 1,1 1-1,-1-1 0,-3 5 1,-3 2 12,-1 0 1,0 0 0,0-1-1,-1-1 1,1 0 0,-17 9-1,15-10-1135,0-1 1,0 0-1,-20 6 0,-13-2-6987</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9843">4870 1501 7411,'0'0'0</inkml:trace>
 </inkml:ink>
 </file>
@@ -8666,272 +7370,6 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink71.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:04:35.503"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">108 84 4418,'0'0'5928,"-4"-13"-5397,-14-42-21,11 40 10,6 15 390,-4 8 786,-15 91-1488,3 1 1,-2 106-1,7 68 331,12-273-582,-1-27-7115,-3 10 379</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink72.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:04:36.198"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">27 299 7619,'0'0'5016,"-4"-17"-3829,1 8-1001,-13-47 369,15 52-477,0-1 1,0 1 0,1-1 0,0 1 0,-1-1 0,2 0-1,-1 1 1,0-1 0,1 0 0,0 1 0,3-9-1,2 3-22,0 0-1,1 1 1,0 0-1,0 1 0,1-1 1,0 1-1,0 1 0,1 0 1,0 0-1,1 0 1,-1 1-1,1 1 0,16-7 1,-9 4-39,1 2 1,0 0-1,0 0 1,0 2-1,1 1 1,-1 0-1,28 0 1,-44 3-23,1 0 0,-1 0 1,0 1-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,-1 1-1,1 0 1,-1-1-1,0 1 1,1 0-1,-1 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,-1 0 1,0 4-1,2 10-7,-1 0-1,0 0 1,-3 25-1,1-23 23,-1-3-12,0 0 0,-1 0 0,-1 0 0,0-1 0,-1 0 0,-1 0 0,0 0 0,-1 0-1,-15 22 1,-9 8-10,-51 57 0,82-101 10,0 0 1,-1 0-1,1 0 1,0 1-1,0-1 1,-1 0-1,1 0 0,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 1,0 0-1,0 1 1,0-1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 1,0 0-1,0 1 1,1-1-1,-1 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 1-1,1-1 1,-1 0-1,0 0 0,0 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,1 0-1,-1 1 1,0-1-1,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,28 0-120,-21 0 125,17-2 216,-1-1-1,0-2 1,1 0 0,-1-1 0,-1-1-1,1-2 1,-2 0 0,28-15 0,-44 21-86,-6 3-163,0 0-1,0 0 0,-1 1 0,1-1 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,0 0 1,0 1-1,0-1 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,-10 20-1993,-23 30-2628,29-43 3514,-21 31-4979</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink73.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:04:36.772"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">136 229 8868,'0'0'5917,"8"-17"-5407,-1 2-434,-4 7-43,0-1 0,1 1-1,0 0 1,1 0 0,0 1 0,0-1-1,0 1 1,1 0 0,0 0-1,1 1 1,-1 0 0,9-6 0,13-6 391,57-28 0,-73 41-319,1-1-1,0 2 1,0-1 0,1 2 0,-1 0-1,1 1 1,17-2 0,-29 13-185,-3-2 111,1 0 0,-2 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,-1-1-1,0 1 0,-6 10 1,-43 58 408,12-18-381,35-49-40,-2 2-31,2 0 0,-1 0 0,1 0-1,-3 12 1,7-21-8,0 1 0,1 0 1,-1-1-1,1 1 0,0 0 0,-1 0 1,1 0-1,0 0 0,0-1 0,0 1 0,0 0 1,1 0-1,-1 0 0,0 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,-1-1 1,1 1-1,0-1 0,0 1 0,0 0 0,0-1 1,0 0-1,1 1 0,-1-1 0,0 0 1,1 1-1,-1-1 0,3 1 0,56 21-741,-52-22 749,-1 1 0,1 0 0,-1 1 0,1-1 0,-1 2 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 1 0,-1 0 0,8 8 0,-13-11 11,0-1-1,0 1 1,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,1 0 0,-1-1-1,0 1 1,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0-1,0-1 1,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,-1 2 0,-5 3 80,0 0 0,0 0-1,-1 0 1,-14 6 0,-35 13 238,-109 34 0,74-29-313,58-21-210,-8 3-1881,19 1-5414</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="613.3">226 1016 10869,'0'0'5424,"1"-16"-4170,10-42 5,-11 56-953,-1 6-67,-7 34-138,-1 2 91,-1-6-137,3 0-1,0 0 0,3 0 1,1 1-1,1 0 1,3 39-1,0-69-68,0 0-1,1 0 1,-1-1-1,1 1 1,0 0-1,0-1 1,1 1-1,-1-1 1,1 0-1,0 0 1,0 0-1,0 0 1,1 0-1,-1-1 1,1 1 0,0-1-1,0 0 1,0 0-1,0 0 1,1-1-1,-1 0 1,1 0-1,0 0 1,-1 0-1,1-1 1,0 1-1,0-1 1,0 0-1,9 0 1,-5 0-74,0-1-1,-1 1 1,1-1 0,0-1 0,0 0-1,-1 0 1,1-1 0,0 1 0,-1-2 0,0 0-1,1 0 1,-1 0 0,0-1 0,-1 0-1,1-1 1,11-8 0,-10 4 93,0 0 0,0-1-1,-1 0 1,0-1 0,-1 0 0,0 0 0,-1 0-1,0-1 1,8-22 0,-16 50 87,0 0-1,2 1 1,2 29 0,-1 34 352,-26 121 319,13-121-1359,-3 117-1,15-216-11312</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2694.07">333 2311 2177,'0'0'6870,"-2"-15"-5643,-4-54-199,4 9 3555,2 59-4189,0 10-153,-3 43-93,-3-1 1,-2 1-1,-15 49 1,-5 34 86,21-110-345,5-7 860,2-18-730,1 0-1,0 0 0,0 1 0,0-1 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,-1 0 0,1 0 1,0-1-1,0 1 0,0 0 0,0-1 1,-1 1-1,1-1 0,0 1 0,0-1 1,-1 1-1,1-1 0,0 0 0,51-25-76,81-29-1,32-16-1259,-159 68 1285,1 0-1,-1-1 1,0 0 0,0 0 0,0-1-1,-1 0 1,8-7 0,-11 9 53,-1 1 0,1 0 1,-1-1-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,-1 0 0,1 1 0,-1-1 0,0 0 1,0 0-1,0 0 0,0 0 0,-1 1 0,1-1 0,-1 0 1,1 0-1,-1 1 0,-2-5 0,2 5 73,0-1 0,0 1-1,0 0 1,-1 0 0,1-1 0,-1 1-1,1 0 1,-1 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1-1,-3-2 1,0 30-382,-15 131 508,2 206-1,17-140-7065,1-195 5121,0-4-5176</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink74.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:04:46.653"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">40 67 3185,'0'0'5656,"0"-5"-5095,0-57 3782,-10 82-4797,-3 64 651,4 0 0,2 88 0,7-23-2908,0-93 85</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink75.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:04:47.319"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 182 5619,'0'0'5594,"0"-16"-5178,3-50-10,-3 63-346,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1 1,0-1-1,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,0-1 1,-1 1-1,6-2 0,5-4 161,-5 2-152,1 0 0,-1 1 0,0 0 0,1 0 0,0 1 0,0 0 0,0 1 0,0 0 0,1 0 0,-1 1 0,0 0 0,1 0 0,15 2 0,-24 0-75,1 0 0,-1 0 1,1-1-1,-1 1 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 1 0,0-1 0,0 0 1,0 0-1,0 1 0,-1-1 0,1 1 0,0-1 1,-1 0-1,1 1 0,0-1 0,-1 1 0,0 0 1,1-1-1,-1 1 0,0-1 0,0 3 1,2 49 44,-2-44-11,0-2-21,0 1 0,-1-1 0,0-1 1,-1 1-1,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-2-1 0,1 0 0,-5 7 0,-6 4 17,0 1 1,-26 22-1,26-27 1,0 1-1,2 0 1,-1 1 0,-10 18-1,22-33-29,1 0 0,0 0 0,0 1 1,-1-1-1,1 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,0 0 0,25 3 1,32-13 227,59-30-17,-81 25-147,2 2-1,43-9 1,-73 21-263,-6 11-4512,-2 5 80</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink76.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:04:48.006"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">93 114 7363,'0'0'8476,"-6"-14"-7555,6 12-910,1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 0-1,1 0 1,-1 1 0,1-1 0,0 0-1,-1 1 1,1 0 0,0-1-1,0 1 1,3-1 0,41-23 77,-42 23-70,10-5 33,-5 2-37,1 1 0,-1-1 0,1 1 0,0 1 0,0 0 0,0 0 0,1 1 0,12-1 0,-22 3-121,-1 9 107,-1-1 1,0 0-1,0 1 1,-1-1 0,0 0-1,0 1 1,-1-1 0,0-1-1,-8 16 1,-2-2 72,-1-1 0,-18 19 0,22-28-143,1-1 0,1 1 0,-1 0 0,2 1 0,-1 0 0,2 0 0,0 1 0,0 0 0,1 0 0,-6 23 0,11-34 12,0-1 0,0 0-1,0 0 1,1 0 0,-1 1 0,0-1-1,0 0 1,1 0 0,-1 0-1,0 0 1,1 0 0,-1 1-1,1-1 1,0 0 0,-1 0 0,1 0-1,0-1 1,0 1 0,-1 0-1,1 0 1,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 1-1,1-1 1,-1 0 0,0 1-1,0-1 1,0 0 0,0 0 0,1 0-1,-1 0 1,2 0 0,59 0-227,-40-2 238,91 3-31,-112-1 73,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 1,0 0-1,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,-19 27 306,-2-13-96,-1-1-1,-1 0 1,0-2 0,-43 15-1,29-11-304,-54 16-3572,52-23-1153</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1043.84">337 983 2881,'0'0'9581,"0"-15"-8442,0-62 1046,0 91-1942,-1 9-42,-2-1 0,-5 27 0,3-25-61,2-1-1,-2 31 0,5-46-130,0 0-1,0 0 0,1 0 0,0-1 0,0 1 0,1 0 0,0 0 0,1 0 0,4 9 0,-6-14-13,1 0 1,1 0-1,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 0,0-1 0,0 1 1,1-1-1,-1 1 0,0-1 0,0 0 0,1 0 1,-1-1-1,1 1 0,-1-1 0,0 1 0,1-1 1,6-1-1,-3 1-39,0 0 0,0 0 0,0-1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 0-1,1 0 1,-1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,0-1 0,2-7 0,7-43 45,-12 55 52,0 6-29,0 29-131,-13 135 542,1-38-11,8-72-788,-22 112 0,26-169-44,0 0 0,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,-8 3-6475</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3152.16">322 2223 16,'0'0'5683,"1"-4"-4619,0-5-1646,1-10 4123,-1 6 2621,-1 34-4894,0 195-1215,41-217-146,-29 0 49,0-1 1,1 0-1,-1-1 1,0-1-1,-1 0 1,1-1-1,-1 0 1,22-13-1,-29 15 27,1 0 0,0 0 0,-1-1-1,1 0 1,-1 0 0,0 0 0,0 0-1,-1-1 1,1 0 0,-1 0 0,0 1-1,0-2 1,-1 1 0,0 0 0,0-1-1,0 1 1,0-1 0,-1 1 0,0-1-1,0 0 1,0-6 0,-1-63 302,0 74-237,-1 28-322,-13 433 666,14-459-640</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8069.18">351 2117 800,'0'0'5061,"-48"-8"1348,44 7-5724,-15-8 598,19 9-1247,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0 0-1,1 0 0,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 1,0 0-1,0-1 0,0 1 1,0 0-1,0 0 0,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0-1 0,0 1 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,419-101 990,-426 104-420,-145 61-673,123-58-11,0-1 0,0-1 0,-1-2 1,-47-2-1,42 0 56,34 0 71,-8 18-100,-4 19 59,-9 43-1,20-66-5,-1 0-1,2-1 1,0 1-1,0 0 1,2 0-1,3 26 0,-4-38-9,1 0-1,-1 0 0,1-1 0,0 1 1,0 0-1,0-1 0,0 1 1,0-1-1,1 1 0,-1-1 0,0 1 1,1-1-1,-1 0 0,0 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0-1 0,0 1 1,0-1-1,0 0 0,-1 1 0,4-1 1,59 0-55,-47-1 122,97-11-18,-71 6-27,50-1 0,-91 7-14,0 0 1,-1 0 0,1 0-1,0 1 1,-1-1 0,1 0-1,-1 1 1,1-1 0,0 1-1,-1-1 1,1 1 0,-1 0-1,1-1 1,-1 1-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,1 1-1,-1-1 1,0 0 0,1 2-1,-1 0 7,0-1-1,0 1 0,0 0 0,0 0 0,0 0 1,-1 0-1,1 0 0,-1-1 0,0 1 0,0 0 1,0 0-1,-1 4 0,0 0 11,0 0 0,0-1 0,-1 1 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,-8 8 0,-11 9 17,0-2 0,-2 0 0,-1-1 1,0-2-1,-2 0 0,0-2 0,-1-1 1,-57 24-1,78-38-26,-1 1 0,0-1 1,0-1-1,1 0 0,-1 0 0,0 0 0,0-1 1,0 0-1,-10-2 0,14 2-5,0-1 1,0 0-1,0 0 1,0 0-1,1 0 1,-1-1-1,0 1 0,1-1 1,-1 0-1,1 0 1,0-1-1,-1 1 1,1-1-1,0 1 0,1-1 1,-1 0-1,0 0 1,-3-6-1,9 8-38,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 1 1,0-1 0,1 1-1,-1 0 1,0 0-1,5 1 1,-4-1 12,24-2 34,0-2 1,0 0-1,-1-2 0,0-1 0,0-1 1,0-2-1,-1 0 0,-1-2 0,0 0 0,0-2 1,33-25-1,-53 35-1,-1 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,-1 0 0,1-1 0,-1 1 0,-2-9 0,2 12-22,0 0 0,0 0 1,-1 1-1,1-1 0,0 1 1,-1-1-1,0 1 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 1 1,-1-1-1,1 1 0,-1-1 0,0 1 1,1 0-1,-1 0 0,0 0 1,1 1-1,-1-1 0,-5 0 0,-8-2-119,-1 1 0,-33 1-1,50 1 128,-13 1-69,0 0-1,0 2 0,1 0 0,-1 0 0,1 1 0,0 0 1,-15 8-1,15-6-42,0-1 1,0 0-1,-1-1 0,0 0 1,0-1-1,0-1 1,-17 2-1,28-5 111,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-4-1,-6-40-111,5-1 25,0-44 76,2 82 28,0 0 1,0 0-1,1 0 1,0 0 0,0 0-1,1 0 1,0 0-1,4-8 1,-3 14-22,1 0 1,-1 0-1,0 1 1,0 0-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1 0 1,5 0-1,-5 0 11,72-4 29,-20 2 22,-1-3 0,64-13 0,22-18 50,-204 59 671,33-11-961,-1-1 0,0-1 0,0-2 1,-56 8-1,37-15-58,31-1 189,0 0 1,-28 5 0,39-4 46,1 1 0,-1 0 0,1 0 0,0 1-1,0-1 1,0 1 0,0 1 0,0-1 0,1 1 0,-9 7-1,7-5 5,0 1 0,1-1 0,0 1 0,0 1 0,1-1 0,0 1 0,0 0 0,1 0-1,0 1 1,-4 10 0,4-4-22,0 0-1,2 0 0,0 0 0,0 0 1,2 22-1,0-35 19,0 0 0,1 0-1,0 0 1,-1 0 0,1 0 0,0-1-1,0 1 1,0 0 0,0-1 0,0 1 0,0 0-1,1-1 1,-1 1 0,0-1 0,1 0-1,0 1 1,-1-1 0,1 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0-1 0,-1 1 0,1 0-1,0-1 1,0 0 0,0 1 0,0-1-1,4 0 1,69 5 98,-65-6 3,188-12 86,-133 10-209,-63 4 34,-1 0 0,0 0 0,0 0 0,0 1-1,0-1 1,-1 0 0,1 1 0,0-1-1,0 1 1,-1-1 0,1 1 0,-1-1 0,1 1-1,-1-1 1,0 1 0,0 0 0,1-1 0,-1 1-1,0-1 1,-1 1 0,1 0 0,0 1 0,-5 45 322,0-39-263,1 0-1,-2-1 1,1 0-1,-1 0 1,-1 0 0,1-1-1,-11 9 1,-55 44 156,58-50-216,1 0-1,-1-1 0,0-1 0,-1 0 1,0-1-1,0-1 0,-1 0 1,0-1-1,0-1 0,0 0 1,0-1-1,-1-1 0,1-1 1,-19 0-1,33-1-162,-1-1-1,1 1 1,0-1-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0-1,0 0 1,1 0 0,-4-2-1,-3-13-7212</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9065.68">1120 2459 3089,'0'0'10573,"0"-18"-9148,-1-20-1577,0 18-30,1 1-1,1 0 1,0-1 0,1 1-1,6-20 1,20-78 1839,-13 14 1165,-5 71-2730,-5 18 97,-1-2-1,-1 1 1,0 0 0,2-29 0,-5 43-93,-2 33-208,-9 24 242,-3 0 0,-31 82 1,14-44 6,-96 251 20,30-90-154,97-255-155,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,2 3-2730,-2-3 2730,18-20-2862,-5 6 904,24-25-4533</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9607.28">1276 2342 4482,'0'0'10063,"2"-12"-9006,8-34-262,-8 34-248,-2 23-310,1 4-92,-1-1 1,-1 1-1,0-1 0,-1 1 0,0-1 1,-1 0-1,-1 0 0,-7 18 0,9-29-123,0 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,1 8 0,-1-10-24,1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,4-1 0,3 1-11,-1 0 0,0 0 0,1-1 0,-1 0 0,0-1 0,0 1-1,1-1 1,-1-1 0,-1 1 0,1-1 0,0-1 0,-1 1 0,1-1 0,-1 0-1,0-1 1,0 1 0,-1-1 0,0 0 0,1 0 0,-2-1 0,1 0 0,-1 0 0,5-8-1,-3 5 31,0 0-1,-1 0 1,0-1-1,-1 0 1,0 0-1,0 0 1,-1 0-1,-1 0 0,0-1 1,0 1-1,0-21 1,-7 117-14,-4 1 1,-34 147-1,32-179-10,1-20-207,10-34-832</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink77.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:02.806"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">69 25 5859,'0'0'7750,"0"-6"-6710,0-13-718,0 28-181,-7 45 50,-5-7-280,-22 112 1474,25-78-2622,13-2-3411,1-67 846,4-10-1045</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="360.76">7 78 5394,'0'0'6785,"-3"-4"-6198,3 4-592,0 0-1,-1-1 1,1 1 0,0 0 0,0-1 0,-1 1-1,1 0 1,0-1 0,0 1 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0 0 0,0-1 0,0 1-1,1-1 1,-1 1 0,0 0 0,0-1 0,0 1-1,1-1 1,-1 1 0,0 0 0,0-1 0,1 1-1,-1 0 1,0 0 0,1-1 0,-1 1 0,0 0-1,1 0 1,-1-1 0,0 1 0,1 0 0,30-4 35,46 15 395,-62-8-369,0 0 0,-1 2-1,1-1 1,-1 2 0,23 12 0,-32-16-52,-1 1 1,0 0-1,0 1 1,0-1-1,0 1 1,-1-1-1,1 1 1,-1 0-1,0 0 1,0 1-1,-1-1 1,1 1-1,-1-1 1,0 1-1,0 0 1,0 0-1,-1 0 1,0 0-1,0 0 1,1 10-1,-1-6 27,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,-1 0 0,0-1 0,-8 16 0,4-13 15,-1-1-1,0 1 0,-1-1 0,0-1 0,0 0 1,-1 0-1,-17 12 0,-23 11 139,36-24-382,0 1 1,1 0 0,0 0-1,1 1 1,-22 23 0,32-31-449,-2 4-536,4-2-3268</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="932.59">415 295 7075,'0'0'4640,"6"0"-4598,2 1 89,0-1-1,0-1 0,-1 0 1,1 0-1,0 0 0,-1-1 0,1 0 1,-1 0-1,1-1 0,-1 0 0,0 0 1,0-1-1,0 0 0,-1 0 1,1 0-1,-1-1 0,8-8 0,-14 13-135,1 0-1,-1-1 0,0 1 1,0 0-1,1 0 0,-1-1 1,0 1-1,0 0 0,0 0 1,0-1-1,0 1 0,1 0 1,-1-1-1,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,0 0 0,0-1 1,-1 1-1,1 0 0,0-1 1,0 1-1,0 0 0,0-1 1,0 1-1,-1 0 0,1 0 1,0-1-1,0 1 0,-1 0 1,1 0-1,0-1 0,0 1 0,-1 0 1,1 0-1,0 0 0,0 0 1,-1-1-1,1 1 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,-1-1 1,1 0-1,-24 2-136,16-1 136,0 1 0,0 0 0,0 1-1,0 0 1,1 0 0,0 1 0,-1 0 0,1 0-1,0 1 1,1 0 0,-1 0 0,1 0 0,0 1 0,1 0-1,-1 0 1,1 0 0,0 1 0,0 0 0,1 0-1,0 0 1,1 1 0,-1-1 0,1 1 0,1 0-1,-1-1 1,1 1 0,-1 15 0,3-21-7,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1-1,1-1 1,-1 0 0,1 1 0,-1-1 0,1 1-1,-1-1 1,1 0 0,0 1 0,0-1 0,0 0-1,-1 0 1,1 0 0,0 1 0,1-1-1,-1 0 1,0 0 0,0-1 0,0 1 0,1 0-1,-1 0 1,0 0 0,1-1 0,-1 1 0,0-1-1,1 1 1,2-1 0,3 2-102,1-2 0,0 1 0,0-1 0,0 0 0,10-2 0,-2 0-240,1 0-580,0 0-1,-1-2 1,0 0 0,19-7-1,15-7-2737</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1249.71">858 219 1761,'0'0'8796,"-10"-3"-8004,6 2-743,0-1 21,1 1-1,-1 0 0,0 0 0,1 0 0,-1 0 1,0 0-1,0 1 0,0 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,0-1 0,0 1 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 1 0,1-1 1,-1 1-1,1 0 0,-6 5 0,5-4-42,0 0-1,1 0 1,-1 0 0,1 0-1,0 1 1,0-1-1,0 1 1,0 0-1,1 0 1,-1 0 0,1 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,1 1 1,0 0 0,0-1-1,1 1 1,-1 0-1,1-1 1,0 1-1,1 7 1,0-10-34,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1-1 0,1 1 0,-1 0 1,1 0-1,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,4 0 0,58 14 35,-49-12 44,27 3 224,-42-6-291,0 0 1,0 0 0,0 0-1,-1 1 1,1-1-1,0 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 1 1,0-1 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 1 1,-1-1-1,1 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 1 1,0-1-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,1 0 1,-1 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 1-1,0-1 1,1 0 0,-1 0-1,0 0 1,0 1 0,0-1-1,0 0 1,1 0-1,-1 0 1,0 0 0,0 0-1,0 0 1,1 1-1,-1-1 1,1 0 0,-2 0 9,-39 14 365,-13 7-3839</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1514.32">1157 142 1217,'0'0'10084,"-18"10"-9814,12-6-240,-5 1 77,1 1-1,-1 0 1,2 1 0,-1 0 0,1 0 0,0 1 0,0 0 0,1 1-1,0 0 1,1 0 0,0 1 0,-10 18 0,14-22-74,0-1-1,1 1 1,0 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,0 0-1,1 0 1,0 1 0,0-1-1,0 0 1,3 11 0,-2-14-35,1 0 0,0 0 0,-1 0 0,1 0 1,0-1-1,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 1,0-1-1,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 1,0 1-1,0-1 0,6 0 0,22 1-105,0 0 0,53-8 0,10-9-4441,-81 13-683</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink78.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:01.156"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">275 1 5891,'0'0'4877,"-10"9"-4523,-17 23-152,0 1 0,3 1 0,0 1-1,-30 63 1,30-64-95,24-33 79,0-18 14,1-11-104,1-1-1,2 1 0,1-1 0,1 1 0,18-51 0,-24 79-84,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,13 32-223,-5 7 112,-2 1 0,-2 0 0,-1-1 0,-2 1 0,-4 50 0,2-81-459,1-1-1,-1 1 1,-1-1-1,1 1 1,-1-1-1,-1 1 1,1-1-1,-1 0 1,-6 11-1,-10 9-4546</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="167.02">0 278 6403,'0'0'3137,"142"-48"-3185,-98 43-1184,-1-4-1794</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="492.41">424 66 1008,'0'0'11158,"-14"-2"-10478,-47-1-291,59 3-381,-1 1 0,1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0-1-1,1 1 1,-1-1 0,0 1-1,1 0 1,-1-1 0,1 1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,0 2-1,-9 52 61,9-53-68,1 1-14,-1-1 0,1 0 0,0 1 0,0-1 1,0 1-1,0-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,5 5 0,-1-3-19,0-1 0,0 0-1,1-1 1,-1 1 0,1-1-1,0 0 1,13 4 0,67 27 393,-86-34-354,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 1,0 1-1,1-1 0,-1 0 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,0-1 0,0 0 0,0 1 1,0-1-1,0 0 0,-1 1 1,1-1-1,0 0 0,0 0 1,0 1-1,-1-1 0,1 0 0,0 1 1,0-1-1,-1 0 0,1 0 1,0 0-1,0 1 0,-1-1 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,-1 0 0,1 0 0,-1 0 1,-18 9 194,-5 0-168,-10 3-410,12-6-2814,16-5-749</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="737.01">668 57 1505,'0'0'8684,"-16"16"-8121,-52 54 50,63-65-563,1-1-1,0 0 1,0 1 0,1 0-1,-1 0 1,1 0-1,0 0 1,0 0-1,1 1 1,0 0 0,0-1-1,0 1 1,1 0-1,-1 0 1,1 0-1,1-1 1,-1 1 0,1 0-1,0 0 1,0 0-1,1 0 1,0 0 0,2 8-1,-2-12-45,0-1-1,0 1 0,0 0 1,0 0-1,0-1 1,1 1-1,-1-1 0,0 1 1,1-1-1,-1 1 1,1-1-1,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 0,0 0 1,0 1-1,2-1 1,58 1 291,-40-2-185,-15 1-592,1-1 0,-1-1 0,1 1 0,-1-1 1,0 0-1,1-1 0,6-3 0,2-2-3267</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink79.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:07.323"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">78 42 896,'0'0'3100,"0"-4"-2542,1 1-1188,-1-18 5105,0 20-4260,0 1 0,0-1-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1-1,0-1 1,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0-1,1 0 1,-2-1 0,2 1 420,-3 1 81,3-1-716,0 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 1,1 0-1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-29 313 403,28-297-419,-9 154 301,5-169-1504,-5-4-5878,5-11-543</inkml:trace>
-</inkml:ink>
-</file>
-
 <file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -8962,310 +7400,6 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink80.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:08.408"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 126 4290,'0'0'5349,"0"-10"-4482,0-86 4533,0 505-4882,0-408-1055,0-15-6869,0-9 270</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="406.91">336 17 4834,'0'0'5667,"0"-5"-4907,-2-6-14,-5 25-211,2-3-535,-17 43 971,2 0 0,-24 111 0,-1 120-179,44-281-419,1 18-2879,0-22 2293,1 1 0,-1-1 0,0 1 1,1-1-1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 1,1-1-1,-1 1 0,1-1 0,-1 0 0,1 1 1,-1-1-1,1 0 0,0 0 0,-1 1 0,1-1 1,0 0-1,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,2 0 0,25 0-4335</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="853.18">452 232 5282,'0'0'5731,"1"-10"-5461,-1 6-265,0 2 6,-1-1 1,1 1-1,0 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,0 1 0,-1 0 1,1 0-1,0 0 0,0 0 0,0-1 0,0 1 0,1 1 0,-1-1 0,0 0 0,1 0 1,-1 0-1,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 1,0 0-1,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,5-1 0,-4 0 3,1 0 0,0 1 0,-1-1 0,1 1-1,0 0 1,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1-1,4 3 1,-6-2-16,-1 1-1,1-1 0,-1 0 1,0 1-1,0-1 1,0 1-1,0 0 1,0-1-1,0 1 0,0 0 1,0 0-1,-1 0 1,1-1-1,0 1 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,-1 3-1,0 9 109,0 0 0,-1 0 0,-1 0 0,0 0 0,-1-1-1,-1 1 1,0-1 0,0 0 0,-1-1 0,-1 1 0,0-1 0,-12 14 0,7-7 48,7-13-100,1-1 0,0 1 0,0 1 0,1-1 0,0 0-1,0 1 1,0 0 0,1 0 0,0 0 0,-2 11 0,44-18-46,-21-4 39,0-1 0,0 0 0,-1-1 0,0-2 0,22-10 0,10-5 71,-36 18-106,25-11 74,39-21 0,-72 33-65</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink81.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:12.395"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">179 138 5122,'0'0'5341,"-12"-3"-5039,-40-10-67,49 13-213,0-1 1,0 1 0,0 0 0,-1 0 0,1 0-1,0 1 1,0-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0 0 0,0 1 0,0-1 0,0 1-1,0-1 1,1 1 0,-1 0 0,1 0-1,-1 0 1,1 0 0,0 1 0,-3 3 0,0 0 19,0 0-1,0 1 1,1 0 0,0 0 0,1 0 0,-6 15 0,7-15-33,0 0-1,0 0 1,1 1 0,0-1-1,1 0 1,-1 1 0,1-1-1,1 0 1,-1 1-1,1-1 1,1 0 0,-1 0-1,1 0 1,0 0 0,1 0-1,0 0 1,0 0 0,5 6-1,5 6 48,1 0 0,1-2 0,0 1 0,25 19 0,29 34 372,-68-69-392,1 0 0,0 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,0-1 0,0 1-1,1 0 1,-1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,-2 1 0,-2 3 26,0-1 0,-1 0-1,0-1 1,0 0 0,0 0 0,0 0-1,-1-1 1,1 0 0,-1-1 0,-10 3-1,17-6-400,0 0 0,0 0-1,1-1 1,-1 1 0,0 0 0,1 0-1,0-1 1,-1 1 0,1 0-1,-1 0 1,1-1 0,0 1-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,1-3 0,0-31-2515,3-6-86</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="276.61">84 192 3522,'0'0'6931,"-8"-1"-6342,-15-4-670,21 1-27,39-6-45,7 1 215,50-14 177,0-3 1,171-74-1,-261 99-200,-4 1-28,1 0 0,0 0 0,-1-1-1,1 1 1,-1 0 0,1 0 0,-1-1 0,1 1-1,0 0 1,-1-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,0-1 0,1 1 0,-1-1-1,1 1 1,-1-1 0,0 1 0,1-1 0,-1 1-1,0-1 1,0 0 0,1 1 0,-1-1 0,0 0-1,-2 1-258,0 0 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-3 1 0,-15 16-3276</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink82.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:10.697"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">225 987 2961,'0'0'7014,"-3"-4"-5923,1 3-962,1-1-1,0 1 1,0-1-1,0 1 0,0-1 1,0 1-1,0-1 1,1 0-1,-1 0 0,0 1 1,1-1-1,-1 0 1,1 0-1,0 1 0,0-1 1,0-4-1,0 4-89,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,1 0 0,-1 1 0,1-1-1,-1 0 1,1 1 0,0-1-1,0 1 1,-1 0 0,3-2 0,2-1-14,2-2-4,0-1-1,1 2 0,0-1 1,0 1-1,0 0 1,0 1-1,1 0 0,0 1 1,11-3-1,-21 35-204,-1-18 227,-1-1 0,0 1 0,0-1 0,-1 0 0,0 1 0,-1-2 1,0 1-1,-1 0 0,0-1 0,0 0 0,-1 0 0,-13 15 0,-22 39 27,41-62-85,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 1,0 0-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 1,-1 0-1,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 1,0-1-1,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,7 2 26,0 0-1,0-1 1,0 0-1,13 0 1,9 1 6,-30-2-13,0 0-1,1 0 1,-1 0 0,1 0-1,-1 1 1,0-1 0,1 0-1,-1 1 1,0-1 0,0 1-1,1 0 1,-1-1 0,0 1-1,0 0 1,0 0 0,0 0-1,0-1 1,0 1 0,0 0-1,0 0 1,0 1 0,0-1-1,-1 0 1,1 0 0,0 0-1,-1 0 1,1 1-1,-1-1 1,1 0 0,-1 1-1,0-1 1,1 0 0,-1 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,-1 1 0,1-1-1,0 0 1,-1 1 0,1-1-1,-2 2 1,-1 3 56,1-1 0,-1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,0 0 0,0 1 0,-1-2 0,-4 5 0,-16 10 19,9-7-30,0 0 0,0-1 0,-1 0 1,0-1-1,-21 7 0,33-16-46,0 1 15,0 1 20,0-2-17,1 0-16,4 0-63,-2 0-532,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,0-1 0,-1 2 0,1 1-2358</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1123.28">54 31 1825,'0'0'7083,"-3"-4"-6275,1 2-522,1 1-149,-1 0-1,1 0 1,0 0 0,0 0 0,0 0-1,0-1 1,0 1 0,0 0 0,1 0 0,-1-1-1,0 1 1,0-1 0,1 1 0,-1-4 701,1 5-793,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-16 126-8,10-70-5,0 110 65,6-150-98,0-14-9,0-1-1,0 1 0,1-1 0,-1 1 0,1 0 1,-1-1-1,1 1 0,0-1 0,-1 1 1,1-1-1,0 0 0,0 1 0,0-1 1,0 0-1,1 1 0,-1-1 0,0 0 0,0 0 1,1 0-1,-1 0 0,0 0 0,1-1 1,-1 1-1,1 0 0,-1-1 0,1 1 0,-1-1 1,1 1-1,0-1 0,-1 0 0,1 0 1,0 1-1,-1-1 0,1 0 0,0-1 0,-1 1 1,1 0-1,2-1 0,2 1-23,-1-1-1,1 0 1,-1 0 0,0 0-1,1 0 1,-1-1 0,0 0-1,0 0 1,0-1 0,0 1-1,5-5 1,-4 1 33,0 0 1,0-1 0,0 1-1,-1-1 1,0-1-1,0 1 1,0-1-1,-1 0 1,-1 0-1,6-16 1,-5 8-5,0-1 1,-2 0 0,0 1 0,0-30-1,-2 45-75,0 7-360,0 297 738,0-173-4195</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink83.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:18.457"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">276 168 5683,'0'0'10551,"0"-7"-9449,0-1-935,-1 1-1,0 0 1,0 0 0,-1 0-1,1 0 1,-2 0 0,1 0-1,-1 0 1,0 0 0,0 1-1,-1 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,-9-8-1,8 9-165,-1 1 0,1-1-1,-1 1 1,0 1 0,-1-1 0,1 1-1,0 1 1,-1-1 0,0 1-1,0 1 1,1-1 0,-1 1 0,0 1-1,-13 0 1,17 0-15,-1 0-1,1 1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 1 1,0 0 0,0 0-1,0 0 1,1 0 0,-1 1 0,1-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,1-1 1,0 1 0,0-1-1,0 1 1,0 0 0,0 0-1,1 0 1,0 0 0,-1 4-1,0-3-70,1-1-1,1 0 1,-1 1-1,1-1 1,0 1-1,0-1 1,0 1-1,0-1 1,1 1-1,0-1 1,0 1-1,0-1 1,0 0-1,1 0 0,-1 1 1,1-1-1,0 0 1,1-1-1,-1 1 1,4 4-1,4 3-68,0-2 0,1 0 0,0 0 0,0-1 0,14 8 0,-12-8 89,0 0 1,-1 1-1,0 1 0,14 13 0,-25-21 63,0-1-1,0 1 0,-1-1 0,1 1 1,0-1-1,0 1 0,-1-1 1,1 1-1,-1 0 0,1-1 0,-1 1 1,0 0-1,0 0 0,0-1 0,0 1 1,0 0-1,0 0 0,0-1 1,0 1-1,-1 0 0,1-1 0,-1 1 1,1 0-1,-1-1 0,0 1 0,0-1 1,1 1-1,-1-1 0,0 1 1,0-1-1,-1 0 0,1 1 0,0-1 1,0 0-1,-1 0 0,-1 2 0,-5 4 43,0-1-1,0 0 1,0-1-1,-19 9 0,18-9-101,2-1-80,-1-1-1,1 0 1,0 0-1,-1 0 1,0-1-1,1 0 1,-1 0-1,-9 0 1,25-21-8476,18-10 2354</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="153.72">263 155 2401</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="538.29">263 168 2401,'118'-59'2212,"-95"45"-1090,-22 9 985,-2 2 146,-9 13-1791,2 2-386,0 1-1,1 0 1,0 0 0,1 0-1,1 0 1,0 1 0,1 0 0,0 0-1,1 1 1,1-1 0,0 1 0,0 15-1,3-29-64,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0 0-1,1 0 1,-1-1-1,0 1 1,0-1 0,1 1-1,-1-1 1,0 0 0,1 1-1,-1-1 1,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,2-1-1,41-5 403,-36 2-332,0 0 1,0 0-1,0-1 0,-1 0 1,1 0-1,-1-1 1,7-7-1,-11 10-33,1 0 0,-1-1 0,0 1 0,-1-1-1,1 0 1,-1 0 0,1 0 0,-1 0 0,-1 0-1,1-1 1,0 1 0,-1 0 0,0-1 0,0 1-1,0-8 1,-1 9-47,0 0 1,0 0-1,-1 0 0,1 1 0,-1-1 0,0 0 0,0 1 1,0-1-1,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 1,1 0-1,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 1,0 1-1,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 1,1 0-1,-1 0 0,0 0 0,0 1 0,-4-2 0,-11-1-280,-1 1 0,1 1-1,-36 1 1,28 1-260,26-1 500,-1 0 0,0-1 0,1 1 0,-1 0-1,0 0 1,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 1-1,1-1 1,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 2 0,4 21-579,22 19 589,-17-29 183,0 1 0,-1 0-1,-1 0 1,0 0 0,-1 1 0,5 18 0,15 33-12,-25-63-300,0-1 1,0 0-1,1 0 0,-1 0 1,0 0-1,1 0 0,0 0 0,-1 0 1,1 0-1,0-1 0,0 1 0,0 0 1,0-1-1,0 0 0,1 1 0,-1-1 1,0 0-1,0 0 0,1-1 0,-1 1 1,1 0-1,-1-1 0,4 1 0,18 0-4604</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="851.4">714 84 4562,'0'0'3967,"1"13"-3775,0 53 268,3 71 1116,-4-135-1564,1 0-1,-1 0 1,0 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0-1,0 0 1,0 0 0,0 0-1,0-1 1,1 1 0,-1 0-1,0-1 1,1 1-1,-1-1 1,1 0 0,0 1-1,-1-1 1,1 0 0,3 1-1,-1 0 49,0-1 1,0 0-1,0 0 0,1 0 1,-1-1-1,0 1 0,1-1 1,-1 0-1,0-1 0,7 0 1,3-1 63,-1-2 0,1 1 0,-1-2 0,0 0 0,23-11 0,-31 12-523,25-12 945,-16 15-2596,-9 10-4122,-5 9 4088</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink84.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:20.421"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">123 5 2193,'0'0'7934,"0"-4"-7005,-6 84 811,-8 180-828,14-35-699,0-224-200,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 1,0 1-1,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,-18-10 231,-12-25-103,-14-50 328,46 142-658,3-33 232,-3-16-19,0-1-1,0 1 0,1-1 1,0 0-1,0 0 0,1 0 1,0 0-1,6 11 0,-5-17-33,-1 0-1,1 0 0,0 0 1,-1-1-1,1 0 0,-1 0 1,1 0-1,0 0 0,-1-1 1,1 1-1,0-1 0,-1 0 1,1 0-1,5-3 0,68-30 270,-60 25-264,1 1 0,-1 0 0,1 1 0,0 1 0,1 1 0,0 0 0,35-3 0,-53 8-288</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2854.27">223 804 7459,'0'0'6163,"0"-16"-5376,-1 9-831,-1-48 933,1 48-438,1 42-442,-5 41 152,-2 0-1,-19 81 1,16-99-56,8-55 57,1-8-111,-3-19-173,0-36-271,4 41 300,1 0 0,0 0 0,1 0-1,2 1 1,-1-1 0,2 1 0,9-24 0,-11 35 77,0 0 0,1 1 0,0-1 0,0 1 0,0-1 1,1 1-1,0 1 0,0-1 0,0 1 0,1 0 1,0 0-1,0 0 0,0 1 0,0 0 0,1 0 0,0 1 1,0 0-1,0 0 0,0 0 0,0 1 0,10-2 0,-14 4 26,41-4-164,-43 4 134,0 0 1,1 1 0,-1-1-1,0 1 1,0-1-1,0 1 1,1-1 0,-1 1-1,0-1 1,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0-1,1 1 1,-1-1-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 1-1,1-1 1,-1 0 0,0 0-1,0 2 1,0 5 20,0-1 1,-1 0-1,0 1 0,-1-1 1,0 0-1,0 0 0,0 0 1,-1 0-1,0 0 1,0 0-1,-1-1 0,0 1 1,0-1-1,0 0 0,-1-1 1,0 1-1,0-1 0,-7 7 1,-8 6-260,-1-1 0,0 0 0,-43 23 0,54-33-19,8-5 176,-1 0 1,0 0-1,0 0 0,0 0 0,0-1 1,0 1-1,0-1 0,0 0 0,0 1 1,0-2-1,-5 2 0,28-10 341,-10 9-205,0 0 0,0 1 0,0 0 0,0 1-1,0 0 1,-1 1 0,1 0 0,-1 0 0,0 1 0,0 0 0,8 7-1,-7-5-409,0-1 1,1 0-1,-1-1 0,1 0 0,0 0 0,0-1 0,1-1 0,13 3 0,14-5-2845,0-1-1019</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3159.93">630 913 4162,'0'0'6982,"-5"3"-6865,-2 2-66,2 1 1,-1-1-1,0 1 0,1 0 1,0 1-1,1 0 0,0-1 1,0 1-1,0 1 0,0-1 1,1 1-1,1-1 0,-1 1 1,1 0-1,1 0 0,-1 0 1,1 0-1,1 0 0,-1 0 1,2 14-1,0-20-55,1-1-1,-1 1 1,1 0-1,-1-1 1,1 0 0,-1 1-1,1-1 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 0-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,3 0 1,53-5 349,-55 4-324,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,0-1-1,-1 1 1,0 0 0,1-1 0,-1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0-1,0 0 1,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-5-2 0,0 1-149,0 1 0,-1-1 0,0 2 0,0-1 0,1 1 0,-1 1 0,0-1-1,-10 2 1,17-1 102,0 0-76,1-1 0,-1 1 0,1 0 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0-1,1 1 1,0-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1-1,-1 1 1,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0-1,0-1 1,0 1 0,0-1 0,0 2 0,-1 7-4020</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3652.49">824 872 6915,'0'0'5125,"3"6"-5037,14 42 478,-11-27-259,2 0 0,0 0-1,18 31 1,-25-51-285,-1 0 1,1 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 0,0-1 1,1 1-1,-1-1 1,0 0-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 1,-1-1-1,0 1 1,0 0-1,1-1 1,-1 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,1-1 1,3-2 131,0 0 0,-1 0 1,1-1-1,-1 1 0,0-1 1,6-10-1,1-17 238,-8 23-98,-2 27-393,-1-12 106,0-1 0,0 1 0,1 0 0,-1 0-1,1 0 1,1 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,6 9 0,-5-12-7,-1 0-1,1 0 1,0-1-1,-1 0 1,1 1 0,0-1-1,0 0 1,0 0-1,1-1 1,-1 1 0,0 0-1,1-1 1,-1 0-1,1 0 1,0 0 0,-1-1-1,1 1 1,-1-1-1,1 0 1,7 0 0,-5 0 26,1 0 1,0-1-1,0 0 0,0 0 1,0-1-1,-1 1 1,1-2-1,-1 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,0-1-1,-1 0 0,1 0 1,-1-1-1,0 0 1,0 1-1,-1-2 1,1 1-1,-1 0 1,0-1-1,0 0 1,-1 0-1,0 0 0,0 0 1,0-1-1,-1 1 1,0-1-1,0 1 1,-1-1-1,0 0 1,0 0-1,0 0 1,-1-10-1,0 7-134,0 6 162,0-1 0,0 1-1,0 0 1,-1-1 0,1 1 0,-1 0 0,-2-6-1,3 8-160,-1 1-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0 0 1,0 0-1,0 0 0,-1 0 1,1 1-1,0-1 1,0 0-1,-1 1 0,1-1 1,-1 1-1,1 0 1,0-1-1,-1 1 0,1 0 1,-1 0-1,1 0 1,-1 0-1,-1 0 1,2 0-144,0 1 1,0-1 0,0 0 0,0 0 0,0 1-1,1-1 1,-1 0 0,0 1 0,0-1 0,0 1-1,1-1 1,-1 1 0,0-1 0,1 1 0,-1 0-1,0-1 1,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0-1,-1 0 1,1 0 0,0-1 0,-1 1 0,1 0-1,0 0 1,0 0 0,-1 1 0,1-1-45,-6 21-5657</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3859.04">1273 1047 4258,'0'0'12390,"73"-48"-12294,-44 40-96,10 0 0,0-4-48,-5 7-96,-4 5-561,-6 0-2304,-14 0-177,-1 0-127</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4313.2">1588 878 304,'0'0'12070,"1"-4"-11203,3-9-723,0 14 2,3 27 163,2 45 482,-5 48-116,-13-142-6,7-6-785,0-1-1,2 1 0,4-41 0,-4 67 114,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0-1,0 0 1,-1 1-1,1-1 1,0 0-1,-1 1 1,1-1-1,0 0 1,0 1-1,0-1 0,0 1 1,-1-1-1,1 1 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,0 1 1,-1-1-1,1 0 1,0 1-1,0-1 1,0 1-1,0-1 0,1 2 1,3 0 18,1 1 0,-1 0 0,0 1 0,-1-1 1,1 1-1,5 6 0,65 92 1045,-28-36-994,-37-58-1695,-9-7 1322,-1-1 1,1 0 0,-1 1 0,1-1 0,0 0 0,-1 0-1,1 0 1,0 0 0,-1 1 0,1-1 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1-1 0,1 1 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1-1 0,1 1-1,0 0 1,-1-1 0,1 1 0,-1 0 0,2-2 0,3-11-4139</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4498.25">1833 857 4882,'0'0'7043,"0"64"-5906,0-27-545,0 2-176,-5 0-352,5 0 33,0-3-97,0-6-817,0-7-1808,10-12-673,10-6-1424</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4807.33">2082 911 3089,'0'0'11328,"-6"1"-11005,3 0-276,-1 0 0,0 0 1,1 1-1,0-1 0,-1 1 0,1 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 1,1 1-1,-1 0 0,1 1 0,0-1 0,1 0 0,-1 1 1,0-1-1,1 1 0,-2 5 0,0-1-25,1-1 0,0 0 0,0 1 0,1 0 1,0-1-1,0 1 0,0 0 0,1-1 0,1 1 0,-1 0 0,4 13 0,-3-19-28,0 0-1,0 0 1,1-1 0,-1 1 0,1 0-1,-1-1 1,1 1 0,0-1-1,0 0 1,-1 1 0,1-1 0,0 0-1,0 0 1,0 0 0,0 0 0,1-1-1,-1 1 1,0-1 0,0 1-1,0-1 1,1 0 0,-1 1 0,0-1-1,3-1 1,2 2 65,1-1 1,-1 0-1,1 0 1,0-1-1,-1 0 0,9-3 1,-11 2 5,0-1 1,0 1-1,0-1 1,-1 0-1,1-1 1,-1 1-1,0-1 0,0 0 1,0 0-1,0 0 1,-1 0-1,1-1 1,-1 1-1,0-1 1,-1 0-1,1 0 1,-1 0-1,0 0 0,0 0 1,2-11-1,-3 12-44,0 0-1,0 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,0-1-1,-1 1 0,1 0 0,-1 0 1,0 0-1,0 0 0,0 0 1,0 0-1,-1 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 1-1,-1 0 0,1-1 1,-1 1-1,0 0 0,0 1 0,0-1 1,0 0-1,-7-3 0,6 4-86,0-1 0,-1 1-1,1 0 1,-1 0 0,0 1-1,1-1 1,-1 1 0,0 0-1,0 1 1,0-1 0,0 1-1,0 0 1,0 0 0,1 0-1,-1 1 1,0-1 0,0 1-1,0 1 1,-5 1 0,1 2-850,0 0 0,0 1 1,1-1-1,-1 2 0,2-1 1,-1 1-1,-12 16 0,-9 8-5334</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink85.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:28.627"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">69 1 3265,'0'0'7444,"-25"147"-7044,11-86-144,4 1-192,0-1 80,5-3-144,1 1 0,4-9-384,0-8-1089,0-14-303,0-17-786,4-8-1119</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="255.93">7 191 3906,'0'0'7355,"2"-17"-5984,11-51-589,-12 67-759,0-1 0,-1 1 0,1-1 0,0 1-1,0 0 1,0-1 0,0 1 0,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,1 0 0,-1 0 0,0 1 0,1-1-1,-1 0 1,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1-1,1-1 1,37 2 150,-30-1-92,-1 1-66,0 0 1,1 1 0,-1 0 0,0 0 0,0 1-1,0 0 1,0 1 0,-1 0 0,0 0 0,1 1-1,-1 0 1,-1 0 0,1 1 0,-1 0 0,0 1 0,0-1-1,-1 1 1,0 0 0,0 1 0,-1 0 0,0-1-1,0 2 1,-1-1 0,5 13 0,-4-11-4,0 1 1,-1 0 0,0 0-1,-1 0 1,-1 1 0,0-1-1,0 1 1,-1 0 0,0-1-1,-1 1 1,-1 0 0,0 0-1,0-1 1,-1 1 0,0-1-1,-1 1 1,-1-1 0,0 0-1,-7 14 1,-7 0 31,-1 0 0,-2-1 0,0-1 1,-45 37-1,-8 9-4478,66-61 275</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1116.03">299 475 5330,'0'0'6606,"19"-10"-6134,4-1-328,-11 6-57,1-1 0,-1 0 0,0-1 0,0-1 0,-1 0 0,0 0 1,14-14-1,-24 20-37,1 0 0,-1 0-1,0 0 1,0 0 0,1 0 0,-2 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1-1,0-1 1,0 1 0,-1 0 0,1-1 0,-1-1 0,1 3-33,-1 0-1,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,-1 0-1,0 0 1,1 1-1,-1-1 1,1 0-1,-1 0 1,0 1-1,0-1 1,1 0-1,-1 1 1,0-1-1,0 1 1,0-1 0,0 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 0 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 1 1,0-1 0,1 1-1,-3 1 1,-1 1-13,0 0-1,0 0 1,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 6 0,-2 10-15,2 0 1,0 39 0,2-56-6,0 0 0,1 0 0,0-1-1,0 1 1,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0-1 0,7 2 0,-5-1-38,1-1 0,0 1 0,0-2 0,-1 1 0,1 0 0,0-1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 1,-1-1-1,12-6 0,-10 3-24,0-1 0,0-1 0,0 1 0,-1-1 0,8-10 0,-12 13 235,1 1 0,-1 0 0,0-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0-1 0,-1 1 0,2-8 0,-7 170 254,16-157-729,-6-1 288,-1 0 0,1-1 0,0 0-1,-1 0 1,1 0 0,-1-1 0,0 0-1,0 0 1,0 0 0,0-1 0,8-7-1,51-55-417,-43 43 224,-14 14 168,-6 7 52,0 0-1,0 1 0,1-1 0,-1 0 0,1 1 1,0-1-1,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 1,0 0-1,0 0 0,3-1 0,-3 4 6,1 0-1,-1 0 1,-1 0 0,1 1 0,0-1-1,-1 1 1,1-1 0,-1 1-1,0 0 1,1 0 0,-1-1-1,-1 1 1,2 5 0,1 0 96,-2-5-84,0 0 1,1 0-1,-1 1 1,1-1-1,0 0 0,0-1 1,0 1-1,0 0 1,0-1-1,1 1 1,-1-1-1,1 1 0,0-1 1,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0-1 1,0 0-1,1 0 0,-1 0 1,0 0-1,1-1 1,-1 1-1,1-1 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 1,1-1-1,-1 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,0-1 1,1 1-1,-1-1 1,0 0-1,-1 0 1,1 0-1,0 0 0,-1 0 1,1-1-1,-1 1 1,1-1-1,-1 0 1,0 0-1,0 0 1,-1 0-1,3-4 0,0-3 37,0 1-1,0-1 1,-1 1-1,0-1 1,-1 0-1,0-1 1,-1 1-1,0 0 0,-1 0 1,0-1-1,0 1 1,-1 0-1,0 0 1,-4-13-1,2 34 137,3 9-233,5-6 40,1 0 0,1 0 1,10 15-1,20 42 2,-35-66 4,-1-1 0,1 1 0,-1 0 1,0 0-1,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 1,0 0-1,0 0 0,-2 7 0,1-10 4,0 0 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 0 0,0 0 0,-1 0-1,0-1 1,1 1 0,-1-1 0,0 1-1,0-1 1,1 0 0,-1 1 0,-3 0 0,-40 16 119,22-9-102,18-7-126,-31 11-105,10-9-3205,21-5-871,4-4-1105</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1408.72">1123 513 2609,'0'0'3781,"24"-12"-1914,9-4-1361,137-75 2184,-167 90-2628,0-1 45,0 1 0,0-1 0,0 0 0,0 1 0,0-2 0,-1 1 0,1 0 0,0 0-1,-1-1 1,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1-4 0,-2 8-80,0-1-1,-1 1 1,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0-1,-1 1 1,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1-1,1-1 1,0 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1-1,-1 1 1,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0-1,-1 0 1,1 0 0,-2 0 0,-26 0 104,20 0-70,-3 1-42,0 0 0,0 1 0,0 0 1,1 1-1,-1 0 0,1 1 0,0 0 0,0 1 1,0 0-1,0 0 0,1 1 0,0 0 0,0 1 1,1 0-1,-1 0 0,2 1 0,-1 0 0,1 1 1,-9 13-1,5-8-20,2 1 1,0 0 0,1 0-1,1 1 1,0 0-1,1 0 1,1 1-1,0 0 1,1 0 0,1 0-1,-2 32 1,5-46-49,0 1 1,0-1 0,1 0-1,-1 1 1,1-1 0,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,1-1-1,-1 0 1,1 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0-1-1,0 0 1,0 1 0,5 0-1,7 2-927,0-1 1,0-1-1,0 0 0,0-1 0,18-1 0,21 0-4824</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1924.67">1658 299 10069,'0'0'2347,"-7"22"-1474,-73 310 455,77-321-1313,-4 10 128,6-20 12,0-5 53,-2-23-190,0 0 0,2 0 0,1 0 0,1 0 0,1 0 0,1 1 1,2-1-1,1 1 0,9-29 0,-5 26-79,1 0 1,1 1-1,18-30 1,-27 52 65,0 1 0,1-1 0,-1 1-1,1 0 1,1 0 0,-1 0 0,0 0 0,1 1 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1 1 0,10-2 0,-16 4-9,-1-1-1,0 0 1,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1-1,0-1 1,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0 0 0,-10 24 105,-2-9-152,-2-1 0,0 0 1,-1-1-1,0-1 0,-27 16 0,-25 22-1522,67-50 1563,0 0-1,0 1 1,0-1 0,1 0-1,-1 1 1,0-1 0,0 1-1,1-1 1,-1 1 0,1-1-1,-1 1 1,1-1-1,0 1 1,0-1 0,-1 1-1,1 0 1,0-1 0,1 1-1,-1-1 1,0 1 0,0 0-1,1-1 1,-1 1 0,0-1-1,1 1 1,0-1 0,-1 1-1,1-1 1,0 0-1,1 2 1,30 39-18,-12-21 35,2-1 0,38 28 0,1-15-1721,-53-29 837,1-1 1,0-1-1,0 1 0,0-1 1,10 1-1,11-3-2434</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2985.65">1971 507 2289,'0'0'2108,"3"-18"-113,-1 1-1453,2-8 383,0-1 0,-2 0-1,-1 0 1,-3-31-1,2 55-838,0 1 0,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0 1 0,1-1-1,-1 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,0-1-1,0 1 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,-2 1-1,-1 1-45,0-1-1,0 1 0,0 0 0,0 0 0,0 0 0,0 0 1,1 1-1,-1-1 0,-4 6 0,1 0-38,-1 0-1,2 1 1,-1 0-1,1 0 1,1 0-1,0 1 0,0 0 1,1 0-1,0 0 1,0 1-1,1-1 1,1 1-1,0 0 1,0 0-1,1 0 1,1 11-1,0-21-14,0 1 0,1 0 0,-1-1 1,1 1-1,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 1,-1 0-1,0 1 0,0-1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,2-1 0,4 1-27,-1-1 0,1 1 0,0-1 0,0-1 0,-1 0 0,1 0 0,7-3 0,-4-1 44,0-1 1,0-1-1,-1 0 0,0 0 1,0-1-1,15-17 0,-18 16 1,2 1-1,0 1 1,0 0-1,0 0 1,1 0-1,0 1 0,13-6 1,-22 12-2,-1 1 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 1 0,0-1 1,1 0-1,-1 0 0,0 0 1,1 1-1,-1-1 1,0 0-1,1 0 0,-1 1 1,0-1-1,0 0 0,1 0 1,-1 1-1,0-1 1,0 0-1,0 1 0,1-1 1,-1 1-1,0-1 0,0 0 1,0 1-1,0-1 1,0 1-1,3 17 180,-3-16-146,-1 33 293,1-30-301,-1 0 0,1 0 0,-1-1-1,1 1 1,0 0 0,1 0 0,-1 0-1,1-1 1,0 1 0,1 0-1,-1-1 1,1 1 0,3 8 0,-4-13-30,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 1,-1 1-1,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,1-2 0,22-20 24,-22 20-16,94-114-267,-96 115 253,35 48 77,-32-46-56,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 0 0,1 1 0,-1-1 0,6-3 0,-1 1 13,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,7-8 0,-3 1-27,-1 1 0,-1-2-1,0 1 1,-1-2 0,0 1-1,0-1 1,-2 0 0,0 0-1,0-1 1,6-25-1,-4 10 109,-2 0-1,-1-1 1,-2 0-1,0-38 1,-4 75-60,0 0 0,-1 0 0,0 0 0,0 0 0,-1 0-1,0 0 1,0-1 0,-5 9 0,-6 13-15,-53 161 64,37-102 24,38-100-88,2 0 0,-1 1 0,2 0 0,0 1 0,0 0 0,21-16 0,107-80-67,-75 73 3,-161 104-331,37-44 341,47-21-6,1-1 0,0 2 0,0 0 0,0 0 1,-15 11-1,27-16 12,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 1,0 0-1,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 1,1 0-1,38 16-300,76 18 1,-35-12 337,192 66 821,-265-87-125,1-1-7268</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink86.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:26.154"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">77 6 4818,'0'0'8060,"0"-6"-7214,0 15-706,0 55 949,-10 75 0,1-88-1268,2 0-1,2 1 1,3 87-1,2-137-53,0-1-1,0 1 0,0 0 1,1-1-1,-1 1 1,0 0-1,1-1 0,-1 1 1,1 0-1,0-1 0,-1 1 1,1-1-1,0 1 1,0-1-1,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,-1 0 1,1-1-1,0 1 0,-1-1 1,1 1-1,-1-1 1,1 0-1,3 0 0,14 1-3792</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="641.03">63 118 2177,'0'0'7550,"3"-12"-7067,13-38-61,-14 47-375,-1 1 0,1 0 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 1-1,1 0 1,-1-1-1,1 1 0,-1 0 1,1 0-1,-1 0 1,1 0-1,0 1 1,-1-1-1,1 1 0,4-1 1,0 1 91,-1-1 0,1 1 0,0 0 0,0 1 0,0 0 0,9 2 0,-15-2-131,1 0-1,-1 0 0,1 0 0,0 0 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 1,0 1-1,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1 0 1,0 2-1,3 52 291,-3-47-236,-1-1-36,0-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,0 0 0,-8 8 0,-8 7-55,-1-1 1,-32 23 0,14-11-469,-1-6-1061,45-67 790,-4 40 774,0-1-1,1 1 1,-1-1 0,1 1 0,-1 0-1,1 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,-1 0 0,1 1 0,0-1-1,0 0 1,0 1 0,0 0 0,0-1-1,-1 1 1,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,2 1 0,0-1 9,-1 1 1,1 0 0,-1-1 0,0 1 0,1 0 0,-1 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0 0 0,5 4-1,13 17-54,-3-3 153,2 0 0,28 23 0,-40-37-467,1 0 0,-1-1 0,1 0 0,0-1 0,0 0 0,0 0 0,1-1 0,-1 0 0,1 0 0,13 1 0,25-3-3459</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1844.09">501 391 2065,'0'0'1710,"0"-16"155,1 7-1531,-3-61 1039,2 64-1128,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,-1 1 0,0-1 0,-4-4 0,6 8-156,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,-1 0 0,1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-2-1-1,0 2-37,0-1 0,0 1 0,0-1 0,0 1-1,0 0 1,0 0 0,1 0 0,-1 1 0,-3 3-1,0 1-47,0 0-1,1 1 0,0 0 1,0 0-1,0 0 0,-4 12 1,5-1-7,0 0 0,0 1 0,2-1 0,0 1 0,2 21 0,0-39-9,1 0 0,-1 0 1,0 0-1,1-1 1,0 1-1,-1 0 1,1 0-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,1 1 1,-1-1-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,0 1-1,0 0 1,-1-1-1,1 1 0,0-1 1,0 0-1,0 0 1,-1 1-1,1-1 1,3-1-1,-2 2 21,0-1 0,1 0-1,-1 0 1,1-1-1,-1 1 1,1-1 0,-1 0-1,0 0 1,1 0 0,-1 0-1,0 0 1,0-1-1,0 1 1,0-1 0,0 0-1,0 0 1,0 0-1,4-5 1,-3 2 73,-1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 0 0,0 1 0,0-1 0,-1-8 0,0 13 170,2 13-670,0-8 422,0 1 1,0-1 0,0-1-1,0 1 1,1 0 0,-1-1-1,1 1 1,0-1 0,0 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,0-1 1,-1 0 0,1 0-1,0 0 1,0 0 0,1 0-1,-1-1 1,0 0 0,0 0-1,1 0 1,-1 0 0,1-1-1,-1 0 1,0 0 0,1 0-1,-1 0 1,1-1 0,-1 1-1,0-1 1,1 0 0,-1-1-1,0 1 1,0-1 0,0 1-1,0-1 1,0-1 0,0 1-1,0 0 1,-1-1 0,1 0-1,-1 0 1,0 0 0,0 0-1,3-5 1,13-23 65,-6 13-98,-12 19 23,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 0 0,0 1-1,0-1 1,0 1-1,0-1 1,0 0-1,0 1 1,0-1-1,0 0 1,-1 2-1,1 8 156,-1-2-156,1-1-1,1 1 0,-1-1 1,1 1-1,1-1 0,2 11 1,-4-18-29,1 0-1,-1 0 1,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,0-1 0,0 1 0,0 0 0,0 0-1,0 0 1,0-1 0,1 1 0,-1-1 0,2 1 0,-1 0-50,0-1 0,0 0 0,1 0 0,-1 0-1,0 0 1,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,2-2 0,4-3 66,-1-1 0,0 0 0,-1 0-1,1-1 1,-1 0 0,-1 0 0,0-1 0,0 0 0,-1 0 0,8-18 0,-10 34 182,-1 0 0,1 0 0,1 0 1,-1-1-1,1 0 0,0 1 0,1-1 1,-1-1-1,1 1 0,8 6 0,-9-9-308,0-1 1,0 0-1,0 0 0,0 0 0,0-1 0,0 0 0,1 1 0,-1-1 0,0-1 0,1 1 1,-1-1-1,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,1 0 0,-1 0 0,5-1 0,-2 0-384,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 0 0,0-1 0,-1 1 0,10-10 0,-11 8 209,0 0-1,0-1 1,0 1-1,-1-1 0,1 0 1,-2 0-1,1-1 1,-1 1-1,0 0 0,-1-1 1,2-14-1,-1-11 702,-4-48 0,1 31 985,1 38-419,1 10-427,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,0 1 0,0-1 0,-1-4 0,-5 14 583,1 8-1003,0 0 0,2 1 0,0-1 0,0 1 0,-2 32 1,3 88 295,3-108-457,0-24-88,0 0-1,0 0 0,0 0 0,1 0 1,0 0-1,-1 0 0,1 0 1,1 0-1,-1-1 0,1 1 0,-1 0 1,1-1-1,0 0 0,1 1 1,3 5-1,-4-8-3,0 0 1,-1 0-1,1 0 0,0 0 1,0 0-1,0 0 1,0 0-1,0-1 0,0 1 1,0-1-1,0 1 0,0-1 1,0 0-1,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0-1 1,0 1-1,0-1 0,0 1 1,0-1-1,0 0 0,0 0 1,0 0-1,0 0 1,-1 0-1,1 0 0,0 0 1,-1-1-1,3-1 0,9-8 28,-1-1 0,-1 1 0,0-2 0,-1 1-1,0-2 1,-1 1 0,11-23 0,-13 22 964,0 1 1,-2-1-1,0 0 1,6-26-1,-11 39-732,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1-1,0 0 1,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0-1,-1 0 1,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,-25 3 703,-27 16-1056,17-2-10,2 1 0,0 2 0,-43 34 1,78-50-2282,11-2 1597,25-1 1297,-21 0-432,-3 1 103,-1 0-1,0 0 1,0 2 0,0-1-1,0 1 1,0 1 0,-1 0-1,16 10 1,8 8-218,37 31-1,-40-30-564,-12-9-2400</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink87.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:33.435"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">494 79 3522,'0'0'7379,"3"-3"-6557,-1 1-670,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,0 1 1,-1-1-1,1 1 0,0-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-2-4 0,1 6-149,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 1,0-1-1,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-2 0 0,-33-1-9,32 1 7,-1 0-4,1 1-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 1 0,1-1 1,0 1-1,0 0 1,0 1-1,0-1 0,0 1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 1 0,0 0 1,1-1-1,-1 1 1,1 0-1,0 0 1,0 0-1,0 1 0,-2 6 1,-2 9-20,0-1 0,1 1 0,1 0 0,-2 36 1,2 191 31,2-64 22,2-167-20,-2 0 1,0 0-1,-1-1 1,-1 1-1,0-1 0,-1 1 1,-1-1-1,0-1 1,-1 1-1,-1-1 1,0 0-1,0-1 1,-2 0-1,0 0 1,0-1-1,-1 0 1,-1-1-1,0 0 0,0-1 1,-1-1-1,0 0 1,-1 0-1,0-1 1,0-1-1,0 0 1,-29 8-1,41-14-7,1-1-1,-1 1 0,1 0 1,-1-1-1,0 1 1,0-1-1,1 0 1,-1 0-1,0 1 0,1-1 1,-1 0-1,0 0 1,0-1-1,1 1 0,-1 0 1,0 0-1,1-1 1,-1 1-1,0-1 1,1 0-1,-1 1 0,1-1 1,-1 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,1 0 0,0-1 1,-2-1-1,2-1-7,-1-1 0,1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,2-7-1,0 2-14,0 0-1,0 0 0,1 1 0,0 0 0,1-1 0,0 1 0,0 0 0,1 1 0,0-1 0,6-7 0,-8 11 10,-1 1 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,1 1 0,-1-1-1,1 1 1,-1 0 0,1 0 0,0 0 0,0 1-1,0-1 1,0 1 0,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,1 1 0,-1 0-1,6 1 1,-7 0 1,0 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,1 2 0,-1-1-1,0 0 1,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 4-1,2 1-14,8 27 22,-1-1 1,-2 1-1,-2 1 0,4 49 0,-5 150 191,-5-180-174,-27 552 226,15-433-207,11-145-35,-4 35 76,8 128 0,-3-188-67,1 1 0,-1 0 1,1 0-1,0 0 0,0-1 0,0 1 0,1 0 0,0-1 1,0 1-1,0-1 0,0 0 0,1 0 0,0 0 0,-1 0 0,2 0 1,-1 0-1,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 1,0-1-1,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,0 0 1,-1-1-1,1 0 0,0 0 0,-1 0 0,1-1 0,8 1 1,2-1 70,-1-1 1,0 0-1,0-1 1,0 0 0,0-1-1,-1-1 1,1 0 0,-1-1-1,0 0 1,0-1 0,18-12-1,-12 7-311,-2-1 1,0-1-1,0-1 0,-1 0 0,-1-1 0,27-34 1,-39 45-108,-2 2 47,0 1 0,1-1 0,-1 0-1,0 1 1,0-1 0,0 0 0,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 0 0,1-3-1,-1-2-3455</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink88.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:05:39.968"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2020 798 6851,'0'0'6905,"-7"0"-5582,4 0-895,6 0-208,96 0 83,890 23 227,-743 4-457,-127-12-4,120 1-1,-225-15-33,0-1-1,0-1 1,-1 0-1,1-1 1,23-6-1,-33 6-18,0 0 0,1 0 0,-1 0 0,0-1 0,0 0 0,0 1 0,-1-1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1-1,0 0 1,0 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-6 0,8-36-10,-1 0 0,-3-1 0,-1 0 0,-1-61 0,8-73-188,-2 92 42,-2-134 0,-9 223 148,-3 0-33,0 1 40,-1-1 0,1 0 0,0 1 1,0-1-1,-1-1 0,1 1 0,0 0 0,-5-2 1,-9 0 48,-15 2-64,-50-1-13,0 3 1,-123 20-1,-103 36-577,-346 20-1,447-75 553,140-4 60,19-13 226,47 14-224,-7-2 2,1 1 0,-1 0 1,0 0-1,0 0 0,0 1 1,-12 1-1,18-1-29,-26 2-18,-1 0 0,1 3 0,0 0 0,0 2-1,-27 10 1,8-3 57,46-13-51,-1 0-1,0 0 1,1 1-1,-1-1 1,1 0-1,0 1 1,-1-1-1,1 1 1,0-1-1,0 1 1,0 0-1,0 0 1,0-1-1,0 1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0 2-1,1 66 29,1-43 21,-5 223 785,1-98-1632,2-51-2563,-3-97-762,-9 3-1739</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1169.52">1895 692 1585,'0'0'2179,"6"-3"-1786,28-21 828,-33 19 3443,-11 1-3625,-19 1-1048,-63 9 128,1 4 0,1 4 0,-114 33 0,54-12-56,-650 157 710,359-42 97,440-150-813,1-1 0,-1 0 1,1 1-1,-1-1 0,0 0 0,1 0 0,0 0 1,-1 1-1,1-1 0,-1 0 0,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 1,0 1-1,0-1 0,1 0 0,-1 0 0,1-2 1,4-33-117,5 12 72,0 2 0,1-1 0,1 1 1,2 1-1,18-24 0,87-89 15,-113 129 209,-6 9-112,-13 20-94,-23 32 13,-143 169 162,177-223-213,1-1 0,-1 1 0,1-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 0 1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 1-1,1-1 1,0 0 0,-1 0 0,1 0 0,3 2 0,10 4-2,0-1 0,1 0-1,-1-1 1,27 5 0,-19-5 30,-3 1 48,4 0-588,-1 1-1,40 17 1,-54-20-137,-1 1 1,0 0 0,0 1 0,-1-1 0,0 1 0,9 10 0,5 8-3094</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink89.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:06:51.837"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">180 1011 2881,'0'0'6174,"-10"-11"-2879,9 11-3249,-1 1 0,1-1 0,-1 1 0,1 0 0,0-1 1,0 1-1,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 1,-1 0-1,0 1 0,1-1 0,0 1 0,-1 1 0,-12 43 215,11-37-101,-12 59-16,2 1 1,4 0 0,-1 82 0,9-150-20,-1-3-478,0 0 0,0 0 0,1-1 0,-1 1 1,0 0-1,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1-3 1,-1-3-1818,-4-16-3523</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="760.81">91 708 4946,'0'0'6761,"-3"-9"-5908,1 5-772,1 0-1,-1-1 0,1 1 1,0 0-1,0-1 0,0 1 1,1-1-1,0 1 1,-1-1-1,2 1 0,-1-1 1,0 1-1,1 0 0,0-1 1,0 1-1,0 0 0,1-1 1,-1 1-1,1 0 0,0 0 1,0 0-1,1 0 0,-1 0 1,1 1-1,3-4 0,8-6 61,0 1 0,29-18-1,-36 26-97,-1 0 1,1 0-1,0 1 0,0 0 0,0 1 0,0-1 1,0 1-1,1 1 0,13-2 0,-20 3-54,-1 1 0,1-1-1,0 1 1,-1-1 0,1 1 0,0 0-1,-1-1 1,1 1 0,-1 0 0,1-1-1,-1 1 1,0 0 0,1 0 0,-1 0-1,0-1 1,0 1 0,1 0 0,-1 0-1,0 0 1,0 0 0,0-1 0,0 1-1,0 0 1,0 1 0,1 29 59,-1-27-55,0 10 19,1 0-1,-2 0 1,0 0 0,-1-1-1,0 1 1,-1 0-1,-1-1 1,0 1 0,-1-1-1,-8 17 1,5-16-1,-16 31 69,23-42-94,0-1 1,0 0-1,0 0 1,1 0-1,-1 0 1,1 1-1,-1-1 1,1 0 0,0 0-1,0 1 1,0-1-1,0 0 1,1 1-1,-1-1 1,0 0-1,1 0 1,0 0-1,0 3 1,2-4 8,-1 1 0,1-1 1,0 0-1,-1 0 1,1 0-1,0 0 0,0 0 1,0-1-1,-1 1 0,1-1 1,0 0-1,0 0 1,0 0-1,0 0 0,3-1 1,0 1 3,163 0-31,-168 0-894</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1643.8">19 192 4034,'0'0'6944,"-3"-10"-6095,-10-32-9,12 39-779,1 1 1,-1-1-1,1 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,1 1 0,-1 0 1,1-1-1,-1 1 0,1-1 0,0 1 1,0 0-1,0 0 0,0-1 0,1 1 0,-1 0 1,1 0-1,-1 0 0,4-3 0,2-1 4,-1 0-1,2 1 1,-1 0-1,12-7 0,-7 6 44,-4 0-89,0 1-1,0 0 1,1 0-1,0 1 0,0 1 1,0-1-1,1 1 1,-1 1-1,1 0 1,17-2-1,-26 5-28,0-1 1,-1 0-1,1 0 0,0 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,-1 1 0,1-1 1,-1 1-1,1-1 0,-1 1 0,0-1 0,1 1 1,-1-1-1,1 1 0,-1 0 0,0-1 1,0 1-1,1 0 0,-1-1 0,0 1 0,0 0 1,0-1-1,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0 0 0,0 32 30,-1-21-15,0-3 10,0 1 0,-1 0-1,0-1 1,-1 1 0,0-1 0,-1 0 0,0 0 0,0 0-1,-1 0 1,0-1 0,-11 15 0,8-11 1,0 0 0,1 1 0,0 0 1,-9 26-1,15-38-19,1 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0-1,1 0 1,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,2 0 0,65 1-177,-47-2 166,-3 0 49,0-1 0,-1-1-1,1-1 1,-1 0 0,0-1-1,0 0 1,0-2 0,17-9-1,-33 15-108</inkml:trace>
-</inkml:ink>
-</file>
-
 <file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -9291,7 +7425,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">144 1449 5651,'0'0'8862,"-4"-5"-7843,-10-15-194,13 19-757,1 1 1,-1 0-1,1-1 0,-1 1 1,1 0-1,-1 0 1,1 0-1,-1-1 0,0 1 1,1 0-1,-1 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,1 0 1,-1 0-1,0 0 1,1 0-1,-1 0 0,1 1 1,-1-1-1,1 0 1,-1 0-1,1 1 0,-1-1 1,1 0-1,-1 1 1,1-1-1,-1 1 0,1-1 1,0 0-1,-1 1 1,1-1-1,0 1 1,-1-1-1,1 1 0,-1 0 1,-16 22-155,16-21 225,-11 19-45,0 1 0,1 1 0,1 0 0,2 0 0,0 0 0,1 1 0,2 1 0,0-1 0,2 1 0,0-1 0,2 1 0,2 36 0,0-55-100,-1-1-1,1 0 0,0 0 1,0 0-1,0 1 0,1-1 0,0-1 1,0 1-1,0 0 0,1 0 1,0-1-1,-1 1 0,2-1 0,-1 0 1,0 0-1,1 0 0,0 0 1,4 3-1,-2-3-15,0 0 0,0-1 1,1 1-1,0-1 0,-1 0 0,1-1 1,0 0-1,0 0 0,0 0 0,1-1 1,-1 0-1,8 0 0,-6-1 3,-1 0 1,1 0-1,-1-1 0,1 0 1,-1 0-1,0-1 0,1 0 1,-1 0-1,0-1 0,0 0 0,0-1 1,-1 1-1,1-2 0,-1 1 1,0-1-1,0 0 0,-1 0 1,1-1-1,-1 0 0,0 0 0,-1-1 1,9-11-1,-13 17 19,-1 0 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0 0 0,1-1 0,-4 1 0,-11-3 30,0 1 1,0 0-1,-1 1 1,-16 1 0,21 0-33,6 1 6,0 0-1,1-1 1,-1 2-1,0-1 1,0 1-1,1 0 1,-1 0-1,1 0 1,-1 1-1,1 0 1,0 0-1,0 0 1,0 1 0,1-1-1,-1 1 1,1 0-1,-6 7 1,6-5-27,-1-1 0,1 1 0,0 0 0,0 1 0,1-1 0,0 1 0,0 0 0,0-1 0,1 1 1,0 0-1,0 1 0,1-1 0,0 0 0,0 8 0,1-14-173,0 0 1,1 0-1,-1 0 0,0 0 0,1-1 1,-1 1-1,1 0 0,-1 0 0,1 0 1,0 0-1,-1-1 0,1 1 1,0 0-1,0-1 0,-1 1 0,1 0 1,0-1-1,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,0 0 0,0 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0-1 0,1 1 1,3 0-1124,18 0-5556</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1306.34">1762 1274 6499,'0'0'9965,"-6"0"-8914,5 0-993,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0 0,0-1 0,-1 0-1,1 1 1,0-1 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-2-1-1,1-3 28,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,2-7 0,-1 4-69,1 0 1,0 0 0,0 1-1,1-1 1,0 0 0,0 1-1,1 0 1,0-1 0,0 1-1,1 0 1,0 0 0,5-7-1,0 2 2,1 1 0,0-1-1,1 2 1,0-1 0,18-12-1,-28 22-30,0 1 0,0-1 0,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,1 0 0,-2 1 11,0-1 0,0 1-1,0 0 1,0 0 0,0-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1 2 0,1 8 46,-1 0 0,0 0 0,-1 0 0,-1 13 1,0-9 3,-9 57 98,7-62-165,1 1 0,0 0 0,1 0 0,0 0-1,1 0 1,0 0 0,2 17 0,-1-27-8,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,1 0 0,38 8-263,-32-7 213,10 1 43,-4-1-4,-1 0 1,0 1-1,0 1 1,0 0-1,-1 1 0,1 1 1,23 13-1,-35-18 46,-1 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,1 1 0,-1-1-1,0 0 1,0 1-1,0-1 1,0 1 0,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1-1 0,0 1-1,0-1 1,1 1-1,-1-1 1,0 1 0,0-1-1,-1 0 1,-1 2-1,-2 4 98,-1-1 0,0 0 0,-1-1 0,1 1 0,-1-1-1,-14 7 1,11-6-168,-1 0-1,0 0 0,0-1 1,0-1-1,-1 1 1,0-2-1,0 0 1,0 0-1,0-1 0,-20 0 1,31-2-40,1 0 0,-1 0-1,1-1 1,-1 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0-1,0 1 1,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0-1-1,1-4-1065,-1-27-5213</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1306.33">1762 1274 6499,'0'0'9965,"-6"0"-8914,5 0-993,0 0 1,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,-1 0 0,1 0-1,0-1 1,0 1 0,0-1-1,0 1 1,0 0 0,0-1 0,-1 0-1,1 1 1,0-1 0,0 0-1,1 1 1,-1-1 0,0 0 0,0 0-1,0 0 1,0 0 0,1 0 0,-2-1-1,1-3 28,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,2-7 0,-1 4-69,1 0 1,0 0 0,0 1-1,1-1 1,0 0 0,0 1-1,1 0 1,0-1 0,0 1-1,1 0 1,0 0 0,5-7-1,0 2 2,1 1 0,0-1-1,1 2 1,0-1 0,18-12-1,-28 22-30,0 1 0,0-1 0,0 0 0,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,1 0 0,-2 1 11,0-1 0,0 1-1,0 0 1,0 0 0,0-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,-1 0-1,0 0 1,1 2 0,1 8 46,-1 0 0,0 0 0,-1 0 0,-1 13 1,0-9 3,-9 57 98,7-62-165,1 1 0,0 0 0,1 0 0,0 0-1,1 0 1,0 0 0,2 17 0,-1-27-8,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,1 0 0,38 8-263,-32-7 213,10 1 43,-4-1-4,-1 0 1,0 1-1,0 1 1,0 0-1,-1 1 0,1 1 1,23 13-1,-35-18 46,-1 0 0,1 0-1,-1 0 1,0 0-1,0 0 1,1 1 0,-1-1-1,0 0 1,0 1-1,0-1 1,0 1 0,-1-1-1,1 1 1,0 0 0,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1 0,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,0-1-1,0 1 1,0 0-1,-1 0 1,1-1 0,-1 1-1,1 0 1,-1-1 0,0 1-1,0-1 1,1 1-1,-1-1 1,0 1 0,0-1-1,-1 0 1,-1 2-1,-2 4 98,-1-1 0,0 0 0,-1-1 0,1 1 0,-1-1-1,-14 7 1,11-6-168,-1 0-1,0 0 0,0-1 1,0-1-1,-1 1 1,0-2-1,0 0 1,0 0-1,0-1 0,-20 0 1,31-2-40,1 0 0,-1 0-1,1-1 1,-1 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0-1,1-1 1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1-1,0 1 1,-1-1 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0-1,0 1 1,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1-1,0 0 1,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0-1-1,1-4-1065,-1-27-5213</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1926.31">2042 859 6723,'0'0'10480,"5"8"-10195,49 62 569,-37-51-742,-1 1 1,0 1-1,-2 1 1,-1 0-1,16 35 1,-23-14 132,-33-43 70,24 1-318,1-1-1,-1-1 1,1 1 0,0 0-1,-1-1 1,1 1 0,-1-1-1,1 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0-1 0,0 1-1,0-1 1,0 1 0,0-1-1,1 0 1,-1 0 0,0 0-1,1 0 1,0 0 0,-1 0-1,1 0 1,0 0 0,0 0-1,0-1 1,0 1-1,1 0 1,-1-1 0,1 1-1,-1-1 1,1 1 0,0 0-1,0-1 1,0 1 0,0-5-1,1-5-142,0-1 0,1 1-1,0 0 1,1 0 0,0 1-1,7-19 1,-4 15 268,-2-1 0,0 1 0,0-1 0,-2 0 0,0 0 0,0-28-1,20 73 173,-11-10-207,4 5 24,-2 0-1,14 35 1,-24-59-122,0 0 0,0 0 1,0 0-1,0 0 0,-1-1 0,1 1 1,0-1-1,0 0 0,0 0 0,4-2 1,7 0-40,28-9-2029,-18-3-4105,-15 6 21</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2527.57">3348 905 8292,'0'0'7555,"76"-94"-7251,-41 73-128,10 3-160,-5 0-16,-4 6-64,-5 4-1008,-9 8-1729,-9 0-609</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2698.04">3531 1022 6051,'0'0'8868,"62"-84"-8692,-31 48-176,5-2-64,4 7-752,-13 6-1570,-14 10-1759</inkml:trace>
@@ -9301,34 +7435,6 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6599.55">3664 1895 7876,'0'0'10292,"129"-145"-10100,-57 86-80,3-2 1,-3 13-113,-10 7 80,-13 8 16,-18 18-96,-17 10-257,-10 5-1599,-4 2 255,0 21-1489,-4 5-3248</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6982.61">3878 1946 9652,'0'0'4776,"3"-16"-3103,-1 2-1312,-1 8-235,-1-1 0,1 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,1 0 0,0 1 0,-1-1 0,8-7 0,1 3 65,0 0-1,0 1 1,1 1-1,0 0 1,16-8-1,-24 14-165,1-1 0,-1 1 0,1-1 0,0 2 0,-1-1 0,1 1-1,0-1 1,0 2 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,6 2-1,-10-1-19,0-1 0,0 1-1,0 0 1,0 0-1,0 0 1,-1 0 0,1 1-1,-1-1 1,1 0 0,-1 1-1,0-1 1,0 1-1,0-1 1,0 1 0,-1 0-1,1-1 1,-1 1-1,1 0 1,-1-1 0,0 1-1,0 0 1,0-1-1,-1 5 1,1-1 2,0 11 18,0-1-1,-2 0 1,0 1 0,0-1-1,-2 0 1,-8 24 0,-44 88 303,20-51 422,35-77-746,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 1,0 1-1,0-1 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 1,0 0-1,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 1,0-1-1,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,19-8 94,2-7-229,-1-1 1,0-1-1,-1 0 0,22-27 0,9-8-256,-10 15-42,-18 17-714,-1 0 1,32-39-1,-48 47-355</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7705.95">4030 1230 880,'0'0'9698,"-16"-12"-8391,4 2-984,-16-12 935,0 1 1,-50-27-1,62 41-1126,0 0 0,0 1 0,0 1 0,-1 1 0,0 1 0,0 0 0,0 1 0,0 0 0,0 2 0,0 0-1,0 1 1,0 1 0,-20 4 0,17-2-91,1 1 0,-1 1 0,1 1 0,1 1 0,0 1 0,0 0 0,0 1 0,1 1 0,1 0-1,-30 28 1,32-25-37,1 2 0,0 0 0,1 0-1,0 1 1,2 0 0,0 1-1,1 1 1,0-1 0,2 1 0,0 1-1,2-1 1,-5 23 0,3 6-7,2 0 0,2 1 0,7 94 1,0-108 27,1-1 1,2 0-1,2 0 1,1 0-1,1-1 1,2-1-1,1 0 1,2-1 0,1-1-1,1 0 1,2-1-1,0-1 1,48 49-1,-56-65 0,1-1 0,0 0 0,0 0 0,1-1 0,0-1 0,1 0 0,0-1 0,0-1 0,1 0 0,0-2 1,32 9-1,-25-10 20,0-2 1,0 0-1,0-1 1,1-1-1,-1-2 1,0 0 0,44-11-1,-16-1 11,-1-3 0,-2-3 0,1-1 0,-2-2 0,-1-3 0,-1-1 0,42-35 0,-55 38-38,-1-1 1,-2-1-1,-1-2 1,-1-1-1,28-39 1,-43 51-12,0-1 0,-2 0-1,0-1 1,-1 0 0,-1 0-1,-1-1 1,0 0 0,-2-1 0,0 1-1,-2-1 1,2-30 0,-4 28 11,-1 0 1,-1 0-1,-4-26 1,3 40-12,0-1 1,-1 1-1,0 0 1,-1 0 0,0 0-1,0 0 1,-1 1-1,0-1 1,0 1 0,-8-9-1,-11-6 4,-1 0 0,-1 2-1,0 1 1,-2 1 0,0 1-1,-1 1 1,0 2 0,-2 1-1,-57-18 1,45 21-11,-1 1-1,-1 3 1,1 2 0,-1 2-1,0 1 1,0 3 0,-81 11-1,98-8 82,0 1 0,0 1 0,-26 11 0,43-13-419,1 1 0,0 0-1,1 0 1,-13 10-1,16-11-533,0 1-1,1 0 0,0 0 0,0 0 0,0 1 0,1-1 1,-6 11-1,-4 12-8121</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink90.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-11-17T17:06:57.973"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">25 36 1489,'0'0'5037,"0"-5"-4386,0-26 3871,0 57-4979,-1-9 458,-1 0-1,0-1 1,-6 18-1,5-21-16,0 0 0,0 0 1,2 1-1,0-1 0,1 26 0,38-46-373,-32 4 382,1 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,-1 0 1,1 0-1,-1-1 0,1 0 0,-1 0 0,-1 0 0,1-1 0,-1 1 1,0-1-1,0 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 1,0 0-1,0 0 0,-1 0 0,1 0 0,-2 0 0,1 0 0,-1-13 1,0 20 131,0 29-579,5 229 628,0-240-3544,-1-17-424</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12766,8 +10872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:D1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -22155,8 +20261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:D1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
